--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA685C-76C4-4592-B981-B7FBBE34B9BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1D9E6-190C-452E-99CA-1B499D8C4D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -238,20 +238,194 @@
     <t>-R x sin Om t</t>
   </si>
   <si>
-    <t>Rewriting the simple basic rotation of a wheel , or say, any point of the wheel M(R,0,0), in the 3D reference frame  for an observer located at the center of rotation (0,0,0), rotating at a constant angular velocity Om</t>
-  </si>
-  <si>
     <t>or</t>
   </si>
   <si>
     <t>OM</t>
+  </si>
+  <si>
+    <t>Rewriting the simple basic rotation of a wheel , for any point of the wheel M(R,0,0), in the 3D reference frame for an observer located at the center of rotation (0,0,0), rotating at a constant angular velocity Om, in the galilean referential</t>
+  </si>
+  <si>
+    <t>Om</t>
+  </si>
+  <si>
+    <t>(om=ω)</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Om</t>
+    </r>
+  </si>
+  <si>
+    <t>Om x R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for any</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with an angular velocity vector </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Om</t>
+    </r>
+  </si>
+  <si>
+    <t>a hoop of mass M and radius R has an inertia</t>
+  </si>
+  <si>
+    <t>Ixx</t>
+  </si>
+  <si>
+    <t>Iyy</t>
+  </si>
+  <si>
+    <t>Izz</t>
+  </si>
+  <si>
+    <t>M R²</t>
+  </si>
+  <si>
+    <t>-Ixy</t>
+  </si>
+  <si>
+    <t>-Ixz</t>
+  </si>
+  <si>
+    <t>-Iyx</t>
+  </si>
+  <si>
+    <t>-Iyz</t>
+  </si>
+  <si>
+    <t>-Izx</t>
+  </si>
+  <si>
+    <t>-Izy</t>
+  </si>
+  <si>
+    <t>For example, Izz = M R², and transverse moments 0.5 M R²</t>
+  </si>
+  <si>
+    <t>Ix</t>
+  </si>
+  <si>
+    <t>Iy</t>
+  </si>
+  <si>
+    <t>Iz</t>
+  </si>
+  <si>
+    <t>about the principal axes of the hoop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wide Latin"/>
+        <family val="1"/>
+      </rPr>
+      <t>= I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Om</t>
+    </r>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>for any moment of inertia of axial symmetry i about any j axis of rotation (https://ocw.mit.edu/courses/16-07-dynamics-fall-2009/dd277ec654440f4c2b5b07d6c286c3fd_MIT16_07F09_Lec26.pdf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Om</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rotates to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I</t>
+  </si>
+  <si>
+    <t>inertia matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +458,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wide Latin"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +473,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -321,24 +501,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +544,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -906,16 +1107,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:AI94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T90" sqref="T90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,16 +1215,16 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1159,13 +1361,13 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="J34" t="s">
         <v>36</v>
       </c>
@@ -1181,26 +1383,26 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="N37" s="6" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="N37" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O37" s="6"/>
+      <c r="O37" s="15"/>
     </row>
     <row r="38" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1213,56 +1415,56 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
@@ -1285,191 +1487,429 @@
       <c r="E52" s="4"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="11">
+        <v>1</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J77" s="8"/>
+      <c r="K77" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="5">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+      <c r="E78" s="9">
+        <v>1</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" s="8"/>
+      <c r="K80" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="10"/>
-      <c r="C76" s="9" t="s">
+      <c r="C81" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="11">
-        <v>0</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="13">
+      <c r="E81" s="9">
+        <v>0</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J81" s="8"/>
+      <c r="K81" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" s="13"/>
+    </row>
+    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="5">
+        <v>0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+      <c r="E82" s="9">
         <v>1</v>
       </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="10"/>
-      <c r="C77" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="11">
-        <v>0</v>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7" t="s">
+      <c r="F82" s="10"/>
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8"/>
+      <c r="K82" s="11">
+        <v>0</v>
+      </c>
+      <c r="N82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>59</v>
+      </c>
+      <c r="K84" t="s">
+        <v>60</v>
+      </c>
+      <c r="L84" s="11">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>62</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P84" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="T84" s="8"/>
+      <c r="U84" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V84" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W84" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y84" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>58</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N85" s="11">
+        <v>0</v>
+      </c>
+      <c r="T85" s="8"/>
+      <c r="U85" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V85" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W85" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F86" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L86" s="11">
+        <v>0</v>
+      </c>
+      <c r="N86" s="11">
+        <v>0</v>
+      </c>
+      <c r="T86" s="8"/>
+      <c r="U86" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V86" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W86" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+    </row>
+    <row r="88" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>0</v>
+      </c>
+      <c r="M88" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="11">
+        <v>0</v>
+      </c>
+      <c r="S88" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF88" s="17"/>
+    </row>
+    <row r="89" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="E89" s="18">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G89" s="9">
+        <v>0</v>
+      </c>
+      <c r="I89" s="11">
+        <v>0</v>
+      </c>
+      <c r="K89" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J77" s="10"/>
-      <c r="K77" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="10"/>
-      <c r="C78" s="7">
-        <v>0</v>
-      </c>
-      <c r="D78" s="7">
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <v>1</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13">
-        <v>0</v>
-      </c>
-      <c r="J78" s="10"/>
-      <c r="K78" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="10"/>
-      <c r="C80" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E80" s="11">
-        <v>0</v>
-      </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="13" t="s">
+      <c r="M89" s="11">
+        <v>0</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q89" s="11">
+        <v>0</v>
+      </c>
+      <c r="S89" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T89" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF89" s="17"/>
+    </row>
+    <row r="90" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="E90" s="18">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q90" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF90" s="17"/>
+    </row>
+    <row r="91" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AF91" s="17"/>
+      <c r="AI91" s="17"/>
+    </row>
+    <row r="92" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="D92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J80" s="10"/>
-      <c r="K80" s="14" t="s">
+      <c r="M92" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N80" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B81" s="10" t="s">
+    </row>
+    <row r="93" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C93" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="11">
+        <v>0</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" s="11">
-        <v>0</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="13">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J81" s="10"/>
-      <c r="K81" s="14" t="s">
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>84</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M93" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M81" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N81" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P81" s="15"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B82" s="10"/>
-      <c r="C82" s="7">
-        <v>0</v>
-      </c>
-      <c r="D82" s="7">
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <v>1</v>
-      </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="13">
-        <v>0</v>
-      </c>
-      <c r="J82" s="10"/>
-      <c r="K82" s="13">
-        <v>0</v>
-      </c>
-      <c r="N82" s="13">
+      <c r="AI93" s="17"/>
+    </row>
+    <row r="94" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="D94" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="M94" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M43:O46"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C44:E48"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A38:E38"/>
-    <mergeCell ref="M43:O46"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C44:E48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1D9E6-190C-452E-99CA-1B499D8C4D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C4061D-8F71-4416-9509-48759850ABDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,9 +345,6 @@
     <t>-Izy</t>
   </si>
   <si>
-    <t>For example, Izz = M R², and transverse moments 0.5 M R²</t>
-  </si>
-  <si>
     <t>Ix</t>
   </si>
   <si>
@@ -419,6 +416,30 @@
   </si>
   <si>
     <t>inertia matrix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For example, Izz = M R², and transverse moments 0.5 M R² ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wide Latin"/>
+        <family val="1"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij = -0.5 M R²)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1109,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T90" sqref="T90"/>
+    <sheetView tabSelected="1" topLeftCell="H70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y86" sqref="Y86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,7 +1717,7 @@
         <v>70</v>
       </c>
       <c r="Y84" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="2:35" x14ac:dyDescent="0.25">
@@ -1723,7 +1744,7 @@
         <v>72</v>
       </c>
       <c r="Y85" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:35" x14ac:dyDescent="0.25">
@@ -1757,10 +1778,10 @@
         <v>54</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
@@ -1778,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF88" s="17"/>
     </row>
@@ -1787,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G89" s="9">
         <v>0</v>
@@ -1808,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="S89" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="T89" t="s">
         <v>85</v>
-      </c>
-      <c r="T89" t="s">
-        <v>86</v>
       </c>
       <c r="AF89" s="17"/>
     </row>
@@ -1823,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>57</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>68</v>
@@ -1856,13 +1877,13 @@
     </row>
     <row r="93" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C93" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D93" s="11">
         <v>0</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G93" s="11">
         <v>0</v>
@@ -1874,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L93" s="13" t="s">
         <v>55</v>

--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C4061D-8F71-4416-9509-48759850ABDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA903EB-3E12-4F43-99EC-B773A418BB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -415,9 +426,6 @@
     <t xml:space="preserve"> I</t>
   </si>
   <si>
-    <t>inertia matrix</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">For example, Izz = M R², and transverse moments 0.5 M R² ( </t>
     </r>
@@ -428,7 +436,7 @@
         <rFont val="Wide Latin"/>
         <family val="1"/>
       </rPr>
-      <t>I</t>
+      <t>I_</t>
     </r>
     <r>
       <rPr>
@@ -440,6 +448,39 @@
       </rPr>
       <t>ij = -0.5 M R²)</t>
     </r>
+  </si>
+  <si>
+    <t>moments of inertia matrix, moments of inertia tensor</t>
+  </si>
+  <si>
+    <t>4. How to find the north with a rotating device?</t>
+  </si>
+  <si>
+    <t>Suppose, an observer like us or a seaman, at the surface of the earth, wants to find the axis of rotation of the earth (we bet here that everybody knows that the Earth rotates about its own axis).</t>
+  </si>
+  <si>
+    <t>In the frame of reference of the rotating Earth, everything and everyone rotates, at the same angular velocity (7.27 10^-5 rad/s). An airplane, which has no friction, no connection, with the earth does not rotate with this frame of reference. In fact, an object with no link with the Earth, does not rotate with the Earth and stays in the same position. So, relative to the rotating Earth, with no connection or no way to give motion, an object stays with no motion.</t>
+  </si>
+  <si>
+    <t>Earth seen from the North top view</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>The motionless compass does not change in position</t>
+  </si>
+  <si>
+    <t>The compass rotates relative to a motionless Earth (an observer rotates with the Earth)</t>
+  </si>
+  <si>
+    <t>Also, a device in connection with the rotating Earth for a while, will get -acquire- the angular velocity of the Earth, but, once disconnected will keep the same angular velocity, because of its inertia.</t>
+  </si>
+  <si>
+    <t>Perhaps, a device with no connection with the Earth stays in the same position. Or, a device with a very simple connection, perhaps perfect, that allows to carry the device with no friction to avoid transferring motion, like an axis with no friction would see the device motionless for an observer on the Earth.</t>
   </si>
 </sst>
 </file>
@@ -565,12 +606,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -583,6 +618,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,6 +631,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,6 +649,374 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>447676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>153833</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="53" name="Group 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE26C9D-D3A0-75D7-0E3C-F27EC90267D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9020175" y="25146001"/>
+          <a:ext cx="182880" cy="277657"/>
+          <a:chOff x="4953000" y="26117550"/>
+          <a:chExt cx="652462" cy="990600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="Oval 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FD70AB-B583-1ED4-8C17-627291CD856C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4953000" y="26117550"/>
+            <a:ext cx="495300" cy="990600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="Oval 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D5483B-F141-C065-2F74-C805F11D29A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5086350" y="26450925"/>
+            <a:ext cx="428625" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="Isosceles Triangle 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C22A15E-8033-F7CF-342E-FDA3EFE23C9A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5429250" y="26546177"/>
+            <a:ext cx="152400" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400286</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>390290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68343</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>573170</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="58" name="Group 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583D23FD-42FB-48AC-8D72-FFB04FF3B769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="18000000">
+          <a:off x="8391525" y="24088726"/>
+          <a:ext cx="182880" cy="277657"/>
+          <a:chOff x="4953000" y="26117550"/>
+          <a:chExt cx="652462" cy="990600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Oval 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CA0F1F-4A06-C46A-E714-95773F6EB059}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4953000" y="26117550"/>
+            <a:ext cx="495300" cy="990600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="Oval 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6FA8E1C-7D08-63AE-1D68-8D89248D9C83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5086350" y="26450925"/>
+            <a:ext cx="428625" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="Isosceles Triangle 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736D2E48-9468-58F9-5B68-FF610645DA1A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5429250" y="26546177"/>
+            <a:ext cx="152400" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -860,6 +1274,1445 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1A50F7-E836-6EE2-33D7-7A24CDE0FE37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6742715" y="24159341"/>
+          <a:ext cx="2289941" cy="2283044"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Arc 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E6401E-6398-942E-3E74-94C2E52A7CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="24079200"/>
+          <a:ext cx="2377440" cy="2377440"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17959631"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>300403</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>652096</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1719381" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4ADC6A-D1B8-4920-5BAF-60F435C5BDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8843595" y="24398654"/>
+          <a:ext cx="1719381" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>To East at 7.27 10^-5 rad/s</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143608</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>81329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238858</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BEE3AB-66ED-84BB-7BB1-C61D2509C7E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9306658" y="24779654"/>
+          <a:ext cx="914400" cy="1019907"/>
+          <a:chOff x="9265627" y="24860983"/>
+          <a:chExt cx="915865" cy="1017709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Oval 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F7A708-C512-477C-98D9-F1F037BE6397}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9265627" y="24860983"/>
+            <a:ext cx="915865" cy="912202"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Smiley Face 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEFEDDE-816E-5D5A-4694-49B6EB1B1820}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9605596" y="25644231"/>
+            <a:ext cx="234461" cy="234461"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376604</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>570033</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Group 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974342F0-59CB-42C7-8A4D-606B8689FEC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8320454" y="23298149"/>
+          <a:ext cx="918796" cy="1017709"/>
+          <a:chOff x="9265627" y="24860983"/>
+          <a:chExt cx="915865" cy="1017709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Oval 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D9C304-1196-74A5-DF18-3161001BBABB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9265627" y="24860983"/>
+            <a:ext cx="915865" cy="912202"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Smiley Face 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FEF9390-557B-B0BA-C453-E0390096E6C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9605596" y="25644231"/>
+            <a:ext cx="234461" cy="234461"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>432289</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168520</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>197827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9558ED45-1378-02FE-ADDF-82C09AD94619}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7759212" y="23841808"/>
+          <a:ext cx="952500" cy="1626577"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395654</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90ADDE28-9DCF-471B-A75E-4023DE15AACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7532077" y="25270558"/>
+          <a:ext cx="2014904" cy="7327"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>500177</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>411773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>525089</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>21248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Oval 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33739BF-2717-4281-9A33-6F11D7421882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11080254" y="24158331"/>
+          <a:ext cx="2281604" cy="2283802"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>201972</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>74002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>509703</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>131884</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="Group 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8096D5-5F67-4B94-B9FE-7FC8FDE45198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13660797" y="24772327"/>
+          <a:ext cx="917331" cy="1019907"/>
+          <a:chOff x="9265627" y="24860983"/>
+          <a:chExt cx="915865" cy="1017709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="Oval 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F00F2E-10D3-2959-318E-F7C469D9F03E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9265627" y="24860983"/>
+            <a:ext cx="915865" cy="912202"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Smiley Face 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4359ED1-9A28-C91C-636E-503D54E45DE2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9605596" y="25644231"/>
+            <a:ext cx="234461" cy="234461"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>112951</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>101476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>522526</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>57514</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="Group 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1D9625-4DB0-413B-AC2F-89A0FFC6ECFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="3559629" flipH="1">
+          <a:off x="13622332" y="24749245"/>
+          <a:ext cx="918063" cy="1019175"/>
+          <a:chOff x="9265627" y="24860983"/>
+          <a:chExt cx="915865" cy="1017709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Oval 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C5FD94-24A4-65F6-214F-CE14E0E76691}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9265627" y="24860983"/>
+            <a:ext cx="915865" cy="912202"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Smiley Face 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F195ED-247E-02D4-B909-1B1EC4764751}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9605596" y="25644231"/>
+            <a:ext cx="234461" cy="234461"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441813</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>222007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>243987</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>134084</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="Group 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED05E9E-014C-C41F-3F0C-A85CBFB92F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="12488374" y="25113396"/>
+          <a:ext cx="2017102" cy="1630974"/>
+          <a:chOff x="14161477" y="24858785"/>
+          <a:chExt cx="2014904" cy="1626577"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="Straight Connector 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D1AA26-E9FD-4729-8D65-0B2D736AE209}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="14388612" y="24858785"/>
+            <a:ext cx="952500" cy="1626577"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="Straight Connector 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B42B74-090F-43AE-8B1E-7FE93800A388}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14161477" y="26287535"/>
+            <a:ext cx="2014904" cy="7327"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67408</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>391258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6447</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>92173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Arc 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EAEF97-6D45-4A8D-B79D-67307D40CFC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9032408">
+          <a:off x="12904177" y="24137816"/>
+          <a:ext cx="2371578" cy="2375242"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17959631"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>826476</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>20514</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1719381" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE141673-A2D1-45C8-91D2-B2D9D1AEC6BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12219841" y="26441399"/>
+          <a:ext cx="1719381" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>To East at 7.27 10^-5 rad/s</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>547550</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>436306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174381</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>102931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Circle: Hollow 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B06D0E6-E8E3-402A-86DC-796A999A2255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13992454" y="25135364"/>
+          <a:ext cx="234965" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 41353"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>415185</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>460485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42015</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>127110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Circle: Hollow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1F249D-E8AE-E2D2-F0E6-9399B578BD58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7749435" y="25158810"/>
+          <a:ext cx="236430" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 41353"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>428626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>134783</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="Group 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE989FE-1BE5-4717-B3D0-56ABB7551577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13382625" y="25126951"/>
+          <a:ext cx="182880" cy="277657"/>
+          <a:chOff x="4953000" y="26117550"/>
+          <a:chExt cx="652462" cy="990600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="Oval 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6198A6A-57ED-04CA-F8F5-AA3650AEE558}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4953000" y="26117550"/>
+            <a:ext cx="495300" cy="990600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="Oval 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AEE413-A558-4C4F-62A4-058A03E3B2D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5086350" y="26450925"/>
+            <a:ext cx="428625" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="Isosceles Triangle 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FD39D0-7A09-5704-6DE2-BAB4E5535FFB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5429250" y="26546177"/>
+            <a:ext cx="152400" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1128,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI94"/>
+  <dimension ref="A1:AI110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y86" sqref="Y86"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,13 +3089,13 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -1382,13 +3235,13 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
       <c r="J34" t="s">
         <v>36</v>
       </c>
@@ -1404,26 +3257,26 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="N37" s="15" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="N37" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O37" s="15"/>
+      <c r="O37" s="21"/>
     </row>
     <row r="38" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1436,56 +3289,56 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M43" s="14" t="s">
+      <c r="M43" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
@@ -1513,13 +3366,13 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
@@ -1527,13 +3380,13 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -1626,7 +3479,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>54</v>
       </c>
@@ -1658,7 +3511,7 @@
       </c>
       <c r="P81" s="13"/>
     </row>
-    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="5">
         <v>0</v>
@@ -1681,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>63</v>
       </c>
@@ -1703,7 +3556,7 @@
       <c r="N84" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P84" s="16" t="s">
+      <c r="P84" s="14" t="s">
         <v>64</v>
       </c>
       <c r="T84" s="8"/>
@@ -1713,14 +3566,14 @@
       <c r="V84" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W84" s="19" t="s">
+      <c r="W84" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Y84" s="16" t="s">
+      <c r="Y84" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="F85" s="11">
         <v>0</v>
       </c>
@@ -1740,14 +3593,14 @@
       <c r="V85" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="W85" s="19" t="s">
+      <c r="W85" s="17" t="s">
         <v>72</v>
       </c>
       <c r="Y85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="2:35" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="F86" s="11" t="s">
         <v>57</v>
       </c>
@@ -1768,19 +3621,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
     </row>
-    <row r="88" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>54</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F88" s="5">
@@ -1801,10 +3654,10 @@
       <c r="S88" t="s">
         <v>78</v>
       </c>
-      <c r="AF88" s="17"/>
-    </row>
-    <row r="89" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="E89" s="18">
+      <c r="AF88" s="15"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E89" s="16">
         <v>0</v>
       </c>
       <c r="F89" s="5" t="s">
@@ -1828,16 +3681,16 @@
       <c r="Q89" s="11">
         <v>0</v>
       </c>
-      <c r="S89" s="21" t="s">
+      <c r="S89" s="19" t="s">
         <v>84</v>
       </c>
       <c r="T89" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF89" s="17"/>
-    </row>
-    <row r="90" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="E90" s="18">
+        <v>86</v>
+      </c>
+      <c r="AF89" s="15"/>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E90" s="16">
         <v>0</v>
       </c>
       <c r="F90" s="5">
@@ -1855,13 +3708,13 @@
       <c r="Q90" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AF90" s="17"/>
-    </row>
-    <row r="91" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AF91" s="17"/>
-      <c r="AI91" s="17"/>
-    </row>
-    <row r="92" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AF90" s="15"/>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AF91" s="15"/>
+      <c r="AI91" s="15"/>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D92" s="11">
         <v>0</v>
       </c>
@@ -1875,7 +3728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C93" s="6" t="s">
         <v>80</v>
       </c>
@@ -1903,9 +3756,9 @@
       <c r="M93" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AI93" s="17"/>
-    </row>
-    <row r="94" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AI93" s="15"/>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D94" s="11" t="s">
         <v>68</v>
       </c>
@@ -1919,18 +3772,79 @@
         <v>0</v>
       </c>
     </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>90</v>
+      </c>
+      <c r="N109" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="M43:O46"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="C44:E48"/>
     <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA903EB-3E12-4F43-99EC-B773A418BB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB678694-DCCC-4DA8-951E-735001786E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -481,6 +470,54 @@
   </si>
   <si>
     <t>Perhaps, a device with no connection with the Earth stays in the same position. Or, a device with a very simple connection, perhaps perfect, that allows to carry the device with no friction to avoid transferring motion, like an axis with no friction would see the device motionless for an observer on the Earth.</t>
+  </si>
+  <si>
+    <t>5. Euler angles</t>
+  </si>
+  <si>
+    <t>Here, I want to compare, so-called Euler angles (see wikipedia article) to this online:</t>
+  </si>
+  <si>
+    <t>https://demonstrations.wolfram.com/Gyroscope/</t>
+  </si>
+  <si>
+    <t>Illustration of a gyroscope with three gimbals able to rotate about their second symmetry axis.</t>
+  </si>
+  <si>
+    <t>The spinning angles are called spin 1, spin 2 and spin 3 in this webpage.</t>
+  </si>
+  <si>
+    <t>6. Gyroscope models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here another online: </t>
+  </si>
+  <si>
+    <t>https://iwant2study.org/lookangejss/02_newtonianmechanics_10rotationalmotion/ejss_model_gyroscope/</t>
+  </si>
+  <si>
+    <t>How to compare with?</t>
+  </si>
+  <si>
+    <t>Additional conceptual code, here:</t>
+  </si>
+  <si>
+    <t>https://codesandbox.io/p/sandbox/gyroscope-zs6qwm?file=%2Fsrc%2FAccelerometer.js</t>
+  </si>
+  <si>
+    <t>Illustrating the gyro with different assumptions and effects (Precession and Nutation).</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XHGKIzCcVa0</t>
+  </si>
+  <si>
+    <t>https://sg.iwant2study.org/ospsg/index.php/interactive-resources/physics/02-newtonian-mechanics/10-rotational-motion/823-gyroscope</t>
+  </si>
+  <si>
+    <t>Code and settings:</t>
+  </si>
+  <si>
+    <t>The disc can spin about its main axis.</t>
   </si>
 </sst>
 </file>
@@ -677,8 +714,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9020175" y="25146001"/>
-          <a:ext cx="182880" cy="277657"/>
+          <a:off x="8983196" y="25145441"/>
+          <a:ext cx="178397" cy="277657"/>
           <a:chOff x="4953000" y="26117550"/>
           <a:chExt cx="652462" cy="990600"/>
         </a:xfrm>
@@ -861,8 +898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="18000000">
-          <a:off x="8391525" y="24088726"/>
-          <a:ext cx="182880" cy="277657"/>
+          <a:off x="8356787" y="24090407"/>
+          <a:ext cx="182880" cy="273175"/>
           <a:chOff x="4953000" y="26117550"/>
           <a:chExt cx="652462" cy="990600"/>
         </a:xfrm>
@@ -1491,8 +1528,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9306658" y="24779654"/>
-          <a:ext cx="914400" cy="1019907"/>
+          <a:off x="9265196" y="24779094"/>
+          <a:ext cx="913280" cy="1021588"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
         </a:xfrm>
@@ -1622,8 +1659,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8320454" y="23298149"/>
-          <a:ext cx="918796" cy="1017709"/>
+          <a:off x="8287957" y="23297589"/>
+          <a:ext cx="909831" cy="1017709"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
         </a:xfrm>
@@ -1914,8 +1951,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13660797" y="24772327"/>
-          <a:ext cx="917331" cy="1019907"/>
+          <a:off x="13604207" y="24771767"/>
+          <a:ext cx="912849" cy="1021588"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
         </a:xfrm>
@@ -2045,8 +2082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="3559629" flipH="1">
-          <a:off x="13622332" y="24749245"/>
-          <a:ext cx="918063" cy="1019175"/>
+          <a:off x="13562661" y="24751766"/>
+          <a:ext cx="919744" cy="1014693"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
         </a:xfrm>
@@ -2176,8 +2213,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="12488374" y="25113396"/>
-          <a:ext cx="2017102" cy="1630974"/>
+          <a:off x="12433185" y="25120400"/>
+          <a:ext cx="2018783" cy="1617527"/>
           <a:chOff x="14161477" y="24858785"/>
           <a:chExt cx="2014904" cy="1626577"/>
         </a:xfrm>
@@ -2559,8 +2596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="25126951"/>
-          <a:ext cx="182880" cy="277657"/>
+          <a:off x="13330518" y="25126391"/>
+          <a:ext cx="178397" cy="277657"/>
           <a:chOff x="4953000" y="26117550"/>
           <a:chExt cx="652462" cy="990600"/>
         </a:xfrm>
@@ -2713,6 +2750,197 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAWgAAAFoCAIAAAD1h/aCAAAACXBIWXMAAAsSAAALEgHS3X78AAAgAElEQVR4nOy9eZxlVXnv/XvWWnvvM1WdquoJmlkQAyJNotBGgUIFE8E4JDcxipA5N4Py3vfqjXFqEVDigPd9TfKam3hvDILxmuTNoMaxA92odMvYIDJP3V1dXUNX1Zn3tJ7n/rH2OV3dNk1X09CNrC/9OZ+qouizz+bUr57ht56HRAQej8ezFNThvgCPx/P8wwuHx+NZMl44PB7PkvHC4fF4lowXDo/Hs2S8cHg8niXjhcPj8SwZLxwej2fJeOHweDxLxguHx+NZMl44PB7PkvHC4fF4lowXDo/Hs2S8cHg8niXjhcPj8SwZLxwej2fJeOHweDxLxguHx+NZMl44PB7PkvHC4fF4lowXDo/Hs2S8cHg8niXjhcPj8SwZLxwej2fJeOHweDxLxguHx+NZMl44PB7PkvHC4dk3GzZsuPnmmw/3VXiOULxwePbNzTff7IXD81R44fB4PEvGC4fH41ky5nBfgOcIZXx8/HBfgufIhUTkcF+Dx+N5nuFTFY/Hs2S8cHg8niXjhcOzb7yPw7MfvHB49o33cXj2gxcOj8ezZLxweDyeJeN9HJ59430cnv3gfRwej2fJ+FTF4/EsGS8cHo9nyXjh8Owb7+Pw7AcvHJ59430cnv3ghcPj8SwZLxwej2fJeB+HZ994H4dnP3gfh8fjWTI+VfF4PEvGC4fH41kyXjg8+8b7ODz7wQuHZ994H4dnP3jh8Hg8S8YLh8fjWTLex+HZN97H4dkP3sfh8XiWjE9VPB7PkvHC4fF4lowXDs++8T4Oz37wwuHZN97H4dkPXjg8Hs+S8cLh8XiWjPdxePaN93F49oP3cRx+Zu6/Zfb+jYPYj0VO+5UPHc4L8nieDi8czzV3fvkaIhDRvf9wjSIoglZkFIyCVtAEAghgllN/5UMiOPktHzzcl+zx7I0XjmeX7fds3HbvRiLc/qWriUgRlCIiKAIRCDCajEKgYRQFCkbDKBiCVlAECAhiGSe9+UMscvwveRHxHBF44Xi2eHLLxi+99yJFIAVFVCgFgUAAiABAKwS60ItQU6AQGhhFgYZRCDRpBaOgAE0CACKWZfUbP8SMoy/+wLN6/Rs2bBCRCy644Fl9Fs/zFF8cfVZ4/O6NX/ivF7mYghjUVwoQACHA6UegKWTJNQUCK5IrygWBFisUagghAIhAikiR0dAERej8x58R5NGbPp7lEpx0XnjSecc9C5HIzTff7IXD81R44Tj0/M3/ddFDd25wsUVfIwTFBwAIEACKyGgJNdyfQFOgJWTKGTlLxhRYCQ1FjMBAACGIokBBKWhFBESh2Mnvx1u/d9c3P7bsFz/oExnPc4YXjkPM59590f23bxCASJxMUF8+AIig/w8UictEjEKoERqEGpFxH1BoJNCUyUBBEGkKjYiTHyGjoRRpSBCgVFLZLdc++eQty37hg7UXn3dYb4DnBYGvcRwyHr1r4zc+f/WPb9+Qc1H4pN1iAbgwo/8xUPRTXCdFq6K0EWhEhiKN0FBkKCw+QKgpMCgZKgUoBVQyFBoEGloXXRgRsVbSlNWx547+wgeHnrF8OL+5T1U8+8QLx6HhkTs3/r9/dGFqkTMYADC4r4tVY/GnTi+KR0X9D2AUGY1COzSFBpEpHishVUJUQooCKgcUmUJrVF8+WMTmnMXMx5w7+voPDJ96/nN+JzwvCLxwHAIevnPjZ/7gwoyRMyyLXSQQWBxu9D+VIlWBIiccVJg4XABSGDqKNm2hGprKIVVDqoSohlSNqBRSKaBSQJFBoMlokAaJOPngjJMe56vPrV/0gZGXePnwHGK8cDxT/vsfXnT/bRtylpxhBe7xJ+ML6UsG+h8TFV2SvnwUwmHUYimBVhQoBLrQi1pI1YgqYfFBFFIUUimgSCMwUIpICwkgYGFJJe5y+YL3j1z07PZuPS80vHA8I677zxfef/uGjGH7qpEzctmtGrsLHNIXkz3LHIUrrC8fSkETzCIFGRRQo4CqIdX62lENqRLSUIRKpKKIwoBKASLTDz1cRVaErUjC3Q5H4+8fff0S5MP7ODz7wXdVDp5P/ucLf3zbBruXajC4UA3BIMQAsKjqMYAFgDhvmCIigrJQCoqkXzFFXzgos5LmSHJJLaVMmaWMKWdKLQ8xgZ1lBCVQQKQ1oEFE2ghCFZSZ7/zEzg3XBue/f9kvHJB8eB+HZz944ThIHrhj4482b7Cyh2pYgYjsGWg8/V/FAgisUxBAMVEhJbsVJFDIDDKLzCLJkWRIS0ht8ZXUIs0xZIESIGBAiEICaSJDREKBRqSWldne/YnJDdcu+91/D1/ku7aeg8cLx0Hy49s2ZAweSEZR2pDFtYyl4kIVFnGJhotBcoKySJVkjEwjY+QWaS7djOKM0pxSqzKLnJFaGbI0bBUxIJCAIncoRhMZEIgC0iW1qsL5P76xvfLV5rz3l0728uE5GHyN4yB528sCFtiBajwzydgnzglCBIXiXJyzirk+S6ipFKAaUb2khss0FFEtKoogwyWqlVQpoiCkIKTAQBkiDVIgEbAgE46507bNsVcd80ff3Oezex+HZz/4iONg+KfPXV3oBcOKsOxRBz1w1qwdP3Pt+ODjLZs3bNm84Z7NG9xXChkSMMQJB0vfkG6LzCXJEWe2m6leiRIXfTBSi9TysKWqJWJFEYIifnH9G4EWZTBkyLRu3fX5i8Pz/3ToJxwfXjI8+8FHHAfDr50RJDlygZUDDTQIUISzXjn+jnevO/Ocpxmu5RRksYg4+v0X0s6lrgtTaRTABRrDJVUv01CpCECGS2q4RNUSBREFIemISBNM4RWDZcSc9nh+zg7/5r+XfdriOWC8cCyZ+2/f+MHLX5dYyflpJKPoiaLosL7j3R/+9T9et9Snu/6zVwH44mevGnxlIB+7MxeN0FA5hNOO4RLVyzRcUkMRDZdpuETDZVUqkYnIlIhMP+5gwDIStj1uNizW/umot3t4DgwvHEvmyt+68M5bN6S2yFCeCk3FcVhNFChcc/13X3r2M53ief1nrxqEIQP5CPr+9FCjFFC1CD2K6GO4RPWKGqnQSEVVShREypSIAoIBNOBKHglLzN0Wd+s/v+L3v+Gey/s4PPvB1ziWzD2bN1gRxlOqhqK+swswCme9cvzKv/3uIXnqy69YB2DL5g3Xf/aqezZvYIEiYUHOlFnJDHJGmkucUS+jXoZeRt2MMoZlZYWtqBpYSBlAuXBIK2iBJgqoash0Nk1+qFb/zW9UTjnP+zg8+8ELx9L4yv93dd+vsY9/S4UBtKhCGsLLXzX+gc8fGtUYsGbt+HU3rl8sH1bEMjKmzEpkKLPiiqa9TCU5WUbOwqIskEPVwYAygFIEBShCUFxuZGhFSM0vX6Lf8fVDe82enzJ8qrI0fvn0ILVIeR+3zUmG84xrQqBQDvCFu7Jn9Xqu/+xVg/IHAUbBaAr7Z/PLIY1UaKyiRqtqWZWWV9VwTdWrql6hUkkFEalSXzW0QADL6DH3uNuwX78juf8l77vyyiuf1ev3PE/xC5mWwH23bcy56KQshmj3cfhAIdQoGZQC/MoffvjZvqTLr1j3nUfyy65YB0CAjBHn0svQSaWdSqMns22eafNsm6dbPNXi+SYvtHlXRzo9zhKxsSArrKbQhFChptWwri4zb35V6f8+8YfP9vV7nqd44VgCX/7Lq1gKf+diBi1SdxDeDR8OFE57xQXPzYU5+XCWEBGkVnqZdDN0UmnFmG3zTMs67djZ4tmGbbV4riPNHmex2FiQMizAgFIIFCqa6ro0osvxpvmrh+NHb3luXoXneYRPVZbAm34myFhy3uOLxSAvKs6wGgV3Cv5l51zwXz73nef4CgeFD/epUQg1lQOUQxop07KqGq2qsQotq6oVQ6o2pGpVVa+oMCJTIpTdXgZAofDSd63tcrwrtz/7vuELfafWsxtfHD1QvvyXV7MI/0SSovrn4gczeIwio/DG33/W85SfZK+6ac5gERayIszImS3DMjnP6woBGCwYFlUGNJhKqjCfBMV4Mh1yOaD8/k/Pb/3e6G//+3P/ijxHJj5VOVBEYH8iTxmM0jC7VQNG44yzx0/52cM2d8vJhyt8sCDOpZeinchCV3Y27UyLZ9o83eLJBZ5rcqfJjQ63Y8ljkUHJgwlaIVKoalU34Qo9lG+Kv3RJ7xGftngALxwHDmPvcEP1w41idgY5rxcFCj/zisM/rW9x3TSx0suknUijh6kmTzd5ps0zbZ5csLMN22lwq8WtnmQxS0+QOo0EFCFUqGjUjVlmgnSz/P9vzB732uHxqcqBs49wg4qZXf1pXYFCoFAyuOi3D0Oesk8uv2LdmrXj7730dRmDM3HFXctcTC1j5/LAChGwMOsaOIIq9jmQggFCOF3UgS0HlH/1TfGZf1K64P2H+5V5Die+OHqgXHyqyRaVRdWiAX9unZJRCBVKBr/0+x++8LeOFOEY8J5LX3fP5g2KEGkqBaiEVC/TiiG1vKpGq2pFTa0aVsM1VRpS1aoqlxWVCSWFkKAB48qlgoSlbTFve+W1lct8yeOFi09VDpTF+koErUiporphikGhCDRKBsEReVOvu3H9mWvHWdDLpZuiFctcVyYbvLPJMy3e2bQTC3a+yXGTOy3udNn2BD1GunfJg0YMLTeVZPPsR4aaD2083C/Lc3jwqcqBsjgyW1wTHQwlDxRCTZHur4k98nANl/de+rrEFjkLMyxzZiVn5VotOctyBjHAKEEZMKCKmULaLbNVAEBYDkzdcIlc+vW6X7/wwuOI/OV4RDLQDVpUE108iNx5RrU6ou/pmrXjn75xPYCM4cqlC12ebvKOBZ5q8lSTJxZ4Z8O2mzZu2rjFuYs74n65lBQCQllhSGOZWXV82L3hkvkHfNzxguNIfpMfoVB/Ko/p71IyixREqyM34nCsWTvubKZWEOfSTdGIZbbNOxbsZIOnmrxj3u5Y4EaT44aNmzbvMGJG4nIWASkECmWFYY3l5ugTwu4Nl8zd77XjhYVPVQ6IK1/72sWpChXrpKEAhUVL2Aha4cjWjYLrblzvyqW9XFiIi/O1NrOSW1WspGOMCQCUFIwiEKOs3IgRBH2rGOEYQvfOT+A0n7C8gPBdlafnv732te+96aZ3nqzdp5pgNAUKbmyfG5/jPq0YlAz+5FvJ4b3gA8eVPAAE/YVPwyVaVlUrh4s+y9HDavmIrgyraFjrmkJFoUQwBAOIIBfEFi2LmbxbemXlUn8Y/4WCT1Weho9+9KPn33TTzsVf6m+i32023708idTz6o7uUfJIpRXLQpenWzyxYHc0rEte5hoctzhtWe4wei5nkf6JOEJZY9hgRVCJN3VuvORwvyDPc8Tz6m1+mHgIuLW0+At9exT11xeoPbKV5xd7lTzaCRZ6PNviHQs82eDJpp1s2l1Npx0sHUYsSGTRaVpCWaGusSKoeu14weCF42kYHx//AXBHebceLFp30j/bRsVyea2c6fL5x8DlEefSSdCIZa7Dk02eXOAdDd7ZsHNNTpx2tC16goSLPovu10pHNFYG1WRT22vHCwAvHE/DBRdc8PGbbmr+xNfdwle3b031Yw1DUEd4T+Wpue7G9Z++cb0AiZVOIo1Y5rtOO+xEgycbPNe0SZuzFqPDcEdaWGD7tdKydtpRSza1b/Da8VOOF46n5yUXXPDGj145+JR21zh2b5nXbiqHIkXP42Lz4pJHN5VmT+a7vLPJkwt2R8NONni+4bTDYne9A2BAE0LarR2p146fcrxwHBh7jeFYnLAsOlCvFV556RF3SmVJDEoeeV87dnV4Z2HusDsaPN/gpMV2d9zhpocRtNpLO1peO3568cKxZAYtFfeoqT8ETEErTNz702CFciWPjNHJpBnLrg5PNnliwe5YsJNNu9DkpGVtk9FhdBfnLAohoaIxarAqqKWbWl/02vHTiTeALQ1XwNhdHFVQfcu5VnjFg/mT0zcd5kt8xnz+Mx/95hevfKwH6tJYRXVSIYDAxavu96FHiSKCch44pRD14w4SEABDQG1qU+uLlwxd5v0dP214A9iBctEpBgABYX/zQNmgFFA1pFpIp7T41zelAFJA3XSTeT7vMfrW5z/auPXK78whPA75BD22RYUa1ZBGKmpZlVbX9XFj+tgxfcyIGq3raFjRiEZNoaoQKRjAAFaQMbqMhVx2Zu1g7ZA/g//ThU9VDga3yYicAUzh9benv7QpdcM6QoBf85r85psP7xUeKn7zUzJ6AqcWnVQaPd7Vkcmm3T5vd8zbyQY3mpy2WBqDnIXBgCW42SRVjVFDRwXVbHPz+osP90vxHEq8cCyZ3WVRglZ40V0pz/Ms0AMG2iHPZ+2ohKQy/dtrzR+9WQF4z6WvO3PteGrRTlBoR8Nun7cT83ZHwzaanLUtmozuoh4tuwnr5LRDHR3Wcq8dP1X4GseBcuba8cHagYFw5FvtxIJUAQEEWA5UAAUEQP6a19ibbtLPk5zlvn+4phrRA/90zbKaGovouGPKpS6F38cJm0jrH57xUnxoq/rRJLcTIjBBEdmiG62gFOpEAQ26TYNR6f16B0EhrO3c3Lz+4uHLfc7y04AXjgPlrLXj92ze4ARCpGjQRieaXU1+cKHYQS3Air52mCNeO+788jUjZZr6xsdWDKllZRVE9KqXRsZQYKAUSBOUEwEC4b//Ru09X+rcs9W2EwIxkSLYgemeCCME7QqlxdwBBQsEBFKFdlBYm9zc/LuLh3/Da8fzHi8cS0ak0AgGiLDs7GjhjvShOe6LCZYD1b522Ne8hm+6SR1h2jH5o43fufKik5frsRF9+nFBqaqCilKh87H1x40McB8Krvvd4ff8r9Y9T+RIiNxJFeKiyQJSRMMEXQRjAsWIFLg/NIwAQFFY27G5+YWLh3/Ta8fzGy8cS4al0A4UYTiOe1U0uSl5aJbRjzsAVAANaIBf85rGlVfWP/KRw3rVBU9u2Xj/P33MbL/llSeFK4ZVtaZMVamyQkSICJp2TxOR/iP3oyym635/+D1/07zn8RwggPvlHusSNyIMuwZtkbBIEY0ENIhEFMLajs2NL1xc99rxfMa3Y5eA68hqQjWiSkCVkEbKVIuoFtFwRA9vjINpfjFwErAaWAFUATfDg4GZCy5YddNhtnjc9vfXTHz9Yyev0KtH9FBNBTVFVYUSIXJTzKiolTsXOUuhGtz3lfdjrff8deOex/PI0HAJoxW1ckgdN9rv0Y7qobqiEY0RjapCVaGkijnpOSMVtCzmMrs9nczOOfYPv3l4b4jnoPERx5KRwU+QAIuOrvzcReW7v9t7aKrIWVy9owZo4L7TdGnuluZ7Lnp81/eGI6pGNHzq+ctPP98NB3abTZJckhxJLmf+2ocO+TVP/Gjjo//y8WjylrUvCpYN62BIUU2hpBARQgXT7zBbIHdH5qUINBarhi3CkOt+p/6ezzfueSJvxf24Y9EAZ1KouU518S+ASIGBQAGCGmBFZ7Jy6+bs8VuCk8475C/W8xzgI44lMPCAVUKqhlQJMFpR9TJVI6pHVIuoZLD5m73jltHRhlZq9NaYoZKqRVQJKQoQGAoNtCGliQyUJhEwg1nYglmYwQy2kjPSXOJUKqecXz/1vFZPjr744Hc+f+3Dv1CevOXkFWbVqCoPaQy5QV4KUXGeFxpgwApyIBfke4qF7T+6rxfmWbzn+ta9W4u4Y6yqVg6p48d2xx1VF3TUB94w91yClBEzFnJMZ53HUnnzV2sv9trx/MMLxxL44mevuv6zVxFQDqgWUTnASFmNVakaUlVLzfDKITVWUSMlqpYoNBQEpDVIEykiDVIgTaRBrgbpDtUCgCuZgBkicB2aQkesMINzsQmnPUlXnTt66nnTLX7Rmz94IBe87Z6N//HR15+6Sp+0XK9YbrSzeJYUSoRQQaG4ACcNTjJySMrsFMQKcoh7zEWsQKAUuQUJW7Zl7/tKh4CBdhw1PNAOs3pUV0YURjXqGlWFmipCGwhSRtdiPsfOLJZzSm/3hvTnHz5VWTKyqAIgQABZHvLqYbWsapZV1XCZwoAQkHK7ZPfSC/frXfWnAClgUftin248AYRFLCQTTjbbBzetSnjh2k+2Ozx24QfiVNQJ547sa7PJ1ns2fufKi05bZU50qjGqMaxRVagoaCpUwwUa7iVZIBfuctoVm4jTC1iRHGyFLdgKBFqT1tCaTl9hPv6W6gf+pZPk0oqJSAhcZCtERFitUFaDgc6ABpSCpmLgoAVyCSc2LfztxSO/5QulzzO8cBwMrsYxFOC0ZTh5jFbU9GhFDZcpDBUZUEAUkAqIDJGbCa76M9FdMcBl/v1BQMWPFvYQkQG0+MtSrGKUVIZSlkc/HSSS3fvJua/wbJOPfsMH1fHnVk85D8CTWzZ++yMXnXa0OXG5XrnC6JH+b/6KQqBgCOQkQwrtSAWxcIeTLicdzhMRW0QZeY7UIs0lzkWBQo1QU2hgNJ08oq58Q+XKb3TjXBC7Wg8T0cAedoxCqOH2cUMLlLgteAgYFYXcqExq2zbNffvjY68/+FzM89zjhWMJnLl23H0wWsI5x9JLV6lVNTVaVcMlCkOlDBAQOb0wRTwPUFFlVAIhECACIkjfKwWBDD7tRyK0p5T0E5r+o5BAu5/5TIJMKimPJcKPfTq775NzTZ572fu+8/mPnrHanLRcr1xp9KhBXaGmUVEIqK8aAAO5IBHEgh7bDieFcEjck8xKkkuSIe5XbTMLrRBqhIacdoSallfova8pf/qmXpJJf05aoRrum48ypE3fIaKBsgIRDEEUhgArJpXK/Z9KTzkvfJEvdjxv8DWOpXHRKeb1J6ufO0avGlZjFTVUUuWIlCFxgYYhclaIPTbN/kS4MTicj0X7nYrz6f0kYvA4+Mru2EN2//2Fw6JfpEjl8UfTr3+nc8Zqc/IqfdRKE4yZokJZxBqAIlhBJsUIrx6jy3mH0w7HXem0ea7FjViSXJJc4qxo96RWIAg0BRpBXzVCg9DQUIkmm/zZjbECSgHVy7SsSseM6JOW6xOXm+OX62XLtBo1GNUY6jdoDUCClNFjzOeYyuYfjkff/5MTGj1HKD7iWAKbbrzmd19ujq4XgcZIRYUhiQEMKdPPR1wgMPgRL37CZffPvJuRTmCIDI53aIIGKYIWaIJa/OiqA+jXU90CqP5/KYueRvDIQ+lXv9U+69jgRSv1yhUmWGZ29zVchjLoucaMHqPD6HDe4V5Heh2eb/J0y063uZMUgUaaS5wjySVnBGq3cAzkoxxQL6OxivrDV5c+9/04zopXqhVHAUWBjQwiQ8PGFifu3QshBUMIFAQY1shlNAk7N1xSfacvlD4/8MJxQDx858bb//6a7LGNx4yoZRU1VFaVEgUhISQy/WDBFSAKRBiWYa1oW/yA234J0oJc7qKA0nd66SOZftfw7uaLJnIF1MX9FwUEVCQaZrGI9AcKkTz4QPKvN8z/3LHmpJV65UoTLTcY0ahpVBVCVXyzFeSMhBEz2iwNm3a40+Zmi2ebPNXi6RbPtKWXSZGhWCS5sECTG3EmRiNQhXBEBkMRJTklOUbK9LuvjD6/KYlTISBQHBo41YgCGwRUNoPub7/YYQgBoaKRC/KgvG1T9+aPVy7wxY7nAV44Dohbrr86e3zj8SN6WVUNlVU5onJIFFDhDAUKc5RARITBjMQK51BWejkyRt7/FhJQ8Z0Y2hibjYkGOv9Po/FbQ0qT0lCatCKli/6F0kVPVwdEASHoK0ghIgJTKMiPvtddc4x50SqzcqUpLTcY7atGpAqVyQUZIxb0BG2RJnfmudm0833JmGrxRIObiSQ5Jppy3Oly4W/J1z9Hza1ktNuV62adiVEUGSkFlORIciQ5xxnVy3T52dH1tyVxLo0YRktkuBTYKKDQ2GMMjNOOQYdlUCitalioVIL7P52deF5woi92HOn4GsfT8+3/efX9/3TNCWPqmLpaXlPVsqpXKIr6VUZFkH7H1IowUiu9HLCwufRS6WbIuV+IELCIFTCjvMOe8S89A1wFfAsA8Ju/WnnFccZoMgpGk9HFo1YUBBSEFAakQ9IhUbinggT0D/97odKzLznaHH2UqTrVGNJ9xzdBE/J+RaPHaDHP2+6cnZ7Jpxd4qsVTLd7Z5PIp57/orPMeu/PmE/imky9G9XTMR7DNj5x71pUAtmze8MXPXnXvDzdEmiKDkkE5pEpA5ZCqIYYjGiqpepnmu/zlu9JAYyiiFUPq2BF90nJ90nJ9/HKzcrlWo7q4tppCWRUi4oodCzmm0+5jKd701copXjuOaHzE8TQ8fOfG2//+6hct1ytraqSiSpGqRBSEA+8WICIWeSaUSZajayXJwbnEGbqpdDNpp5LbgWpABFZgGSfemswD/xU4Gng1AOA7D2RjEWkFrWEUGYVAk9EUapRDqoRUCqkUUhRSEJIJSIdEESFUf/e1RpDwsavN2Kgp1w3qGsOmX4YkaCATpIKEkQi6bBvcm7e7dtknpu1Ew063eOjU8992+Yde8vJxAN/8vDRv3cexmjVrx9fcuN7Jx30/3JBZyqxkuaSWckuZRZJzklO9TD9/orn1ibyTIuhwqFAKUAooNDYyNOqCjkHcESkQEBCEMKSRB5VUkjs+AS8cRzZeOJ6GH9xw9aAaWo6oFFEpIrXoFKlYZJnYRLJEWmnRwuxm0svRTaURSzcVZ5hwZ1IyRm5FdnFtiv8MOHnwRMBbjtVb560iKEW6v3hBEQW6GG5aCakaUTWkSqTKfR25+YFua96ecbQeq+uhYaVqClWNMqHcV41ckHLRdu1yvsC9ebswZ5+YyR+esRMNe8455fFT7uSHP7Uw//2RCz8gezaF9mIgH++99HWpRWYptZLmSHJJc0pZgXDmarNtgScWuJmQ0RIGHBkbGUQBhQGqhXAsdna4lU6A1ciDcGJT6+8uGfoNXyg9cvHCsT++/b+u7jyy8aQxvaxKTjXKERmzu+EqgjyTNBFOpYsLz4wAACAASURBVNHj+Z70+qrRSaUZS6MnriWRMXKLjMUyMgvzQL4VCBY9V3aM2jpvF48RV8pteyp6n6UAkaFSsFs+qpGqRvTDR+IzVptVI7pe18EgBSj1D7y6DCURJCxdzhZsPGdbu/KtM/ahKWvH9K+/bfj0kwLEzO3b0+2bdv3ZJ/LuOU97Z9z6lfdc+rp7Nm9ILDKLjMmyCCRQCLW89czozzf2klwaMQLNkaEooMjYyNAxgY1ch0X3J6QPtKMK5EJ5UNm6KX/ye+aEc5+t/7WeZ4YXjqfkoTs33v2/rz5luV5WVZWSKoVUilQYLIo1gDyTJJEslV7Mcz2ZanGco5dJK5FmLAs9acTI2f2RjPGSl4+f9vLzc4buyJ+978oL+s/17RJeNEwTDVaKFEGRDM6bFo3P/qMzX0UGpZAqAe1YyFfX1TF1NTqiq8MKNYWaLo6iaAIJMpehsHQlXeDenO3O2e2z9qHp/Lhzq7/4q3Vw8Q2qyqW6jlYF6ls/APBXNyA8Du/8L/u7RdfduN5ph0Ck2DUjimA0hwb/6azwH+9O40wWek47UDIUBTYK+q6w3U0W2iNhsaKPMslXf4kv+bfQH589IvHC8ZRsuvGaFTVdDlVkyGgYQ0ZDOUOnQIA8lySRJJU04YWezLR5pi3dVFqpNGOZ6ch8jItee8HQi8/LGb/+rnV7/f0/6uHbV14J4KKPfGTLlVf+5AVs2bzh3h9uMApf+vOrQk2BloGIhJoCA6MwWsLqul4xooeHta5pDLkzbP02SibuD/ckWbC9ubw3Zydn84em7XFrKxe+pe7mh6KqUGZXBKEqqxGN1oHepYF2UCqqvxlTKwRaVg6pX3959OU7kk4K03XdWRsFiAyFgV3mzC+DYoebVOqcHUMGOaJUmv/wxvBPGgf9f9Dz7OG7KvvmG5+/+p5/uGZ1XR09rFYPq6GqqpWpVlGBU1qBtdKLC9Vo9mS6zVsXeKolrVQWejjreDN+ahh3ubfq53/2v33rkFzS9Z+9ShPuu23DfbdtCDUFGscO0xlH65cdY447JhhbZdRygzGDmkJZwwAEdBkdiy4nM7Y9nfdm85kZe//OvBPS771rOUKFkBD2J3QpdxCGv/GV+eZDje/OFRFH79vR2bXXBa/609JTW8KddpQMVUPUIqqFNFallUNq5ZD+2n3JtnkuGRop09Ej6vhRfdJyfcJyc/xyPbxMY8yZTdzxWWdFZ6SCjsVcjsm0y+dU3uGLHUccPuLYBw/esfE7f3v1scMq0OT6GlpBa1IDsyaBWdKMk0S6icz3ZKYjEw2ZastQmf74tRVjSEPCkBqPfe9QXdXlV+wRs1z7e68rT37vmBG9bFQP1bWquSPzhKjv9UoZmSCHdCVp2u68nd9lH57OM4Xfe/MIZi1KgjIhIkQKpX7BMtQI9jimG6wIhvTt+fq39Db/fHPkVavesA+Dlos77t28AUREQgTVg9FiNL/1zOhf7km2z3MzQdh2xQ5EhiKDIKCyc5TudnYApn8EzmrkQWn75njjtaXz33+obqPnkOD3quyDB+/YYBS0dvUFGOfFcoO/UbjJRWAt4lQWurKrw1NN3hXLz54YvvmsMoGUgtIUBlSN1NwDz8o22e4jt6yu66NH9XBdRzWFIYWy7vdfCVwkKUg4a9qkYTvz9pFp20rl9WsqrR1ZNpljKsd0jjmLhkXDos2IBXlR9/2Dd+LdfwgAqCkcH5qXlMq121fs/MzU1cPp47f85PVcfsU6AZJcuim6qXQSme/yfJcbPXnn2SUGkkwWejLT4qkm72jYnQ2eXrBZk9Hs76+OpbDWOjd6VaOu1Spj7v9U9sQ+ntFzGNFX7iu7foHzsd+5sF6mkTKNllW9pIZLKoooClVoqDiZBuSZxKk0OjLT4Z1teaIhL14VrhxS1ZBKAQWm2DkCKzJ03PCp+5iX8Uz4i3ddNJJuO2WlWb1Sjy4zatSgPkhSCArIimOv0rTxbN6ZtY/syB7dZVcvC7s97vWkG0sWi85EZ0KZFM5WFjAeeSBOdsVjL0a4ArGB7ZRPOKqCskJV0ZCujWrc96Xejzfa6vHB2AmDSzrq2BMJ2LJ5gxWgmMhRNJIjQy87JrhjW85MVoTcjm5CoBBqKhso1T8+qwB3k10orAmAUkhv/aJd8Wqz6Ok8hxcfcewDraAV9Y9ywXk39WBjSD/iEJbUymxHdjSlEumckVmxAgAKpDUZQ6WItn7t44f28h6+c2PjwY2rR/SqUT1c12bIhRtUWMtVf8xfJuixbdikwXNz9sc77Y427pnI7tqWb9mWPbAte2wie3Iim9qRdyZzuzPHdI4ZiwWLmPd4PkUoGwxpjBisNDgu1C8uVau362+/efOnf3HxN152xToALEgsEiuJlW4qnVQ6qayuqzecHmYsnQS7Ojzd4p1Nnmzw1IJtLDBaFm2Lrtsj6YabEgKFSGHYYJkpHxvSnZ84tLfR80zwNY59oJ0HovB9k3Ezr9SgEUsQFhYWZBa7OrKjLWNVyVkyS5aL2RpKQYGigEbKh1idb77+6tUj6phRXR9R5brGkEZFo9Q/yeYm9GSCmNHipMndhn18Jr97p80sygGVA65GNFxWy6pqxZBaUeOxYVUfUvUhXa4p01bo7Fkvd/NHSaEEhAoho6RQ0WFdnzN7Z/szI3LW+4ZeW9QgPn3j+vde+rrcSppTqtFN0Umkk0onkQt/Jnx01j48bVsxzWiO+kfgwsCGAdV2u8LcaBJVHIErK1iDTMKJTe0vXlLzi++PDHyqsg/+/W+urpdprEpjFVUv01CZwlAFIdFg0p+VNJE4kV0d3ryd52NEAQ2XVCmkakjVUJVC0oaUgiKSXJpdru9rut9B8OhdG+/6yjUnrzDHrzTLlptgTGPUjdvQxQ+eG+fVFbTY7so7s/m2ybyx4tUXv+fz9VUnbP7ezc6i1k2lHUujx81YurHEsSSJpIkglScnssymX9mMOx7Cma8ET5dOqJX6U0UIgSoOyJQUlXU4rM3O7ycPbpTKcXr0hKOOPXHL5g1TE09C4IrKgaJySKWAygG9/rTo4Zl8psU5g1DEcUYhUFTRMLqvHYr6CcvuaWmkoOef5GWvVvXjD8md9DwTfKqyN3//F1dpRWbxaRFFWkNRf9gfxM3SYEZmcf8su6HkaS65RcawIhAUznGDSqQ6jx6y2t5f/PGFIxU1VlXligoqfZPooCbqTsKkgh6jZdOGbczbR2fyt37822vWjl/67nVffSB/0+9/eFdHpluyo2G3ztlHpvMf7ci3bMvv3Zo9vC17Ynu20LR7PGVPsGDhVtKn4la4oawxZLDM4OhAvygqV26X9W9pfPGS7iO3uO5PzohzSS06mbT6QUcvlV8+q2QFSY65jky3eLrJOxs8tWBnGmybFk2LLqPHiLkYoewW39c0Row+KuCvvckXSo8EvHDsjSl+De4+nGo09OKhof1D8ZYltcgsLMMd1sitZFbyRdmKNhSFxE8emqbsv/yPq+tlGimroYoqVUg7yQj6FkxX3cjgJvRw03Yadvsue9Kb9hiJfvkV677xUP7WP/jwcS87f7otkw3eNmcfncl/PJnfvS3b8mQ229hTONoW0zl25ViwRQckEwjBuMaHwXKD1WF0ammodjt/802nJLe6DosbUxpn6CTSTqSTSjeVF6/QH31TLWfpZpht83Sbp1o82bBTC3ZuwXKT+9ohSKQYYRIQIkJNY8yEqwO5/ZOH5GZ6ngleOPbGGR9dxKEILGABxFVEFxVHWWx/yE3OklnpZZKzpDlyBosTDlKawpDqFfXoP1/zzK/tyS0b6yUarVKlQuWyc230B3M4+5YFYkZP0LJJg2fnbLb61WvfsY8NT5dfse4TN6y/+gvfPWHN+TNt3tnkbfP2sRn748l8Z3OP4mi3zd3JnF31dJdFg9FkdBm5QAihRs1g1GC5UceGtdPL4Y7PXJx+Bi7oyJDk0kmklRRxRzeV01aZd6wt51ZaCWZaPNOyUy3euWCnGtxuWDQZLS6O/2e8u1BaUhjSGNGmd2u88dpnfjM9zwRfHN0bN1xGE7naZ8pumoagvzcZCkKi3EpDCwCpRVb8kCCzkluxLOTWISgiQ7WS6h6KoGPbPRtOP1qPVFS5rIxLUkKFoD+O1K1NSgQdy01uzOdbd9mXXra/DSxr1o6vWbt+y+YNN3z2qvtu29AOqBFjKGAAf/BOVE/HPLDQsNu62fCwqtd1qc6qOxgdSigphARFKGkEhJARUVBWY6P60tfZG9f30tyd+qNB0BFnyK28Y23pRzuy+7bnC12EhkNDblBYZMgYWzGLBqPrRbPCSgpDWi0z6p5PJseeG/nhxocPH3HsjTtaZllSK5kVy0jdnqRBq0ETFMKAiJDmAjixQGolziRnpFZyBgbZSkDliNTE93fd/4ycYF/966vrZRqtqKGKKleUKhFK/XCD+nuV3NCNDvcadmrO2mNefczLnr4ou2bt+KduXH/tF9e/6Kzz5zrSSff4t5MLfO/W9PHt2faJbHYiT6YyTOWYybHAaFi0uGigKoWqxqjBmKEV5qxzynCt2RxxJr1Mem7usZXEwgque3v9pceZ1GKuIzNu/liTdy7YmYZzhfUbtD0uIilXR61q1E24KuDNvjt7OPHCsTeKkFtkFkWlkyVlt8OsDwGGjKFqSC7isIyMJbPoZZLm4qoewruzlSBS9arap+HywPn631xVL9FoRZUrqrQ43ND9PCV3wiHS5WbTPj5rX/qflrCGds3a8U/fuP4bD+ennz2++OuzLd6yLb9ra3b/tuzJiWz79nxuMsumcky5zMWiYRcVPjSGDUaDs15ZxmAPDCOzkllxB/ATt54OuOzcSs7SyzDT5pkWT7fsVNNOLfCuhrXNfkLkih2uJWwIoUJNYUyHvVvzQ1Q58hwEXjj25t7NG1KLxErGhXzkFjkvGm6jikHBlYh+4Xc+fObacQHSHKl1A36LUCVnKBQLmSigakXNf+fgM/MH7tg4UqZ6RdUrqlJWQZlQ6p9Pc72eYkkKo8tZh+eafMIbP3D8mQfTAz5r7R7C0Ux425x9aCq/e1t295Ppw9vTrduzHRNZczKzA9N60+5R+Chp1M3ll9cBiCCzEmfILNzNSS1SKyI464TgU5cNWyudGNMtO+3ijoadWrCNhkXLueBdscMFNQRDKGvUjF5u0n9840HfT88zxAvH3mzZvCFnJDlci8TtE8ncLgNXS6BiOHAppO1f+5jrPqZWMuvCciciyFhcXxYKFFAUqdEhtfXfPnZwV/XInRuGSzRaUdWKqlQIJYVoUbgBLA43ui2eWrA/+7aD3HrvFPKvbsCffw4AkhyzHdnR4Cd32ft32ru25lu2Zo9uy7ZOZDsnsu7OnKdyTFvM9eumMSMHlLrs98YA2MIpJ0kuaY40h7VILZgFwFknBGecYHKWRg8uYZlu8VSDZxq212K0WTqMWJAMurOEgFBVqJvK0UHr+osP7jV6niFeOPbGxQtpjmKwlQVz0SgpELcAhYzB8po6qkZnrh3PLZJMkkzaCbtRo3GO3LU1FcGQCqha1bLtIKPrb/7Pq+oVNVpRlQpFi/spi62iqSDmvGNbLUvHHbLZWe9897pf++MPN2OZacvEvH1sNr9vR37XtuxHW7PHtmdPbs9mdmTJzgzTOWbzwvHRtq6Zeuaakpu0mln0UslySXKxVjIXxAEArvuN+kuPNc6DO93imTbPtnm2ybuanLcs2iw9Rs9Z0V02RCgp1DTGdLm7KXtmCaDn4PDCsTenvWI861c6XbZirQhLzouM2LpYelKNKHvslrPWjgvQyxDn6KRox9xNxdU7hCEAFFGoyiVFO76/8OCSS6T//FdXD5eoXqahClUrSpf79o1BntIXDuly0uFdDa4e0mG/l1+x7pM3rH/Jy89vxDLVkm3z9uFpe+9EdvfW7P5t2ePbs60T2dyOLNuZYyrHrMVCYcc4a00JKKpFRR6XI7UiLJnF4PDPJ94xZFmSHLva7P7Mtnm2adstRouLhKWwhEmRsFQUhoxZaeQ2XyU9DHjh2JszzhnPuHijp/2cnFxT1n2Hy1c0QVMlVI/96zXucFeSSy+VXuoMC9zLJMmF3VZ7TQjIRFQfUvnjSw46HtuycbikRiuqVlGVPcINKhZB9U/Q2w73WrxjwZ6zL+/GM8GVTj9xw/pTf+78hZ5MNvjJXfbBqfye7dmWrdlD27LHt2cTE1lzZ26nssFp/ct+eRhAxsKMNEc3lcRKmkNskcK4+6kCdc1bq5alk2LWqUabZ1s82+S0bdFm6TJiQdy3hOndCYvpburd7G0dzzVeOPbmjHPG0xxFwSIXZycXhjD2GJZmiDSCACtqCsDlV6yzgm4mcS7tRDqxdFOJc+QZ4BRHE0IVVXRr6e/yrVs21Ms0WlXVigoW91Pcubu8GL0hPU463G7xib+0P+/GAbJ7HscinHy8/V3repns6sqOBj82a++fzO/elt+7LXt4e/b49mxyR94tMheLhr38V4ctDzxySDJxFltYcP+GksaZx5nTVmnLWOjJrg7v6hRBx1yTucXiEpZYiiopEYxCWaOm1XKj7vlk/JhPWJ5TvHDszZq144mVnCW1iHM4EbEsJIM3OgEETTCkNQ1F6ol+0BFn0k2lm0orlm7K3UySYpkKoEAhhREND+vJry+hRPqvf331cEQjFTVUUbXF9o2B7ysr8hTb5aRtpxu2fuqz64y6/Ip1334kf/u71rUTme3wtgV+dCb/0Y787m3ZfduyR7dnW3fkc5O5def0ewLnkbOIc+mkkuaS5gBD+mUOt6fuQxeWnPXWRRy72jzT4tmm7bQsWiydPc+wuBNxVYUhHa0ysunPntWX7NkLLxz74B3vXpdapLnEmcS5ZBapBVhk0TZpck1Zg2pEnUe+B+DMteMZw5kjW4m0+0GHdTO1yG06UOWa2vnNJUzo+Lf/cVWtRPWyqpZUtFe4oRZVN2JO2hy3edscH4jpawk8xVBaJx+nvWK8lchUi5+cKwofW7ZlD01kT+zIJndk8c7ssleWAViLnJHl6KUSZ0itsJt2W+yDgDIURfTut70278/smO0sqpK2GW3m3p5nWJyto6oxYsLOpsZ3D/HcE89+8MKxD844e1G2kklqJcsFDLEojGAEqGKLWrlE6WO3wM3OE3RT9DLpJtJ0wpFJ7v5bAJooorCkjl1hWg8fUGh9320bywGVAiqHFAVkDPorY/t5Sn+Oue1x0uZmi1/8lud0afN1N67/1A3rT3vFeKMnOxr8xC770FR+z0R2347s0cl86458YWcOt3ObAYAZliWTfpdK9W+mIROoV513wcvOGc8Z8x3Z1eZdHZ5p82zTLjQt2owOi6uS5gJGYUWvKNS0Xm7MXf7w23OHF459cOba8cSKC61dL6CXo5eKzYUXHRylUFGJgrI6uk6P/vM1a9aOn7l2PLXSTqSXSTuWbszdVNIcyF22QghIh6oyrCcOLFt54I4NoUZkqBxQGBAZEt2fSA632UWQi2SStjnp8NQ8jx6iwR8DH8fT4gofn7pxfZLLfFcmFvixGXvfRH7vRPbgZPb4juyUlZqKiE3coUFncy2cMQogUEDaUHvDtW8a3uQ6LIMq6XSbZ5vcbVlpMzsv6eKEJSA3nbR6tGl+wds6niO8cOyb014x7jYbxhnaibQTaaWSZcJZ//1OBEWqpKhEy0dMMPE9AGetHbeMjlsZm0izJ64va/cIOlRQUSNzPziQyzCEwBThRljEGv3jNOQmJgO5SCppxyZti+PPPX7NIZ5veoC43W4vPWe8ncp0W56csw9O5vdO5D+ezFcNaYGwwI1Hs9wXjuK0MYGINClD1uK8V5ff9vIwZ2knGFRJZ1p2rsm2tShhGUwY1IQSuWMy5e6mZ+jr9xwgXjj2zRnnjDtndDeVZiKtWFqJdBKxGThflPQHispKlWlk1w+e7JdIe5m0E+mm0oy5G3M3kzxHv0RKCCkoqaG6nj2ASsc/fu6qqJj3izDA7uF6rtLCxXhhySSPpdGU6smHeWfidTeu/7QLPXoy0eBHZ/L7JrLplpX+9ly4nEVk911UhYtfBVQrK1od/s4vV884TmcW8x0ZVElnmtxqDlqzjF7f1qEJmlBWGNLBCtO+8ZLD9+pfQHjh2DfvfPe61CLJ0UmlHTsJkFYqcSbWqQCKMJsiRSVVHdL5LdcCuPyKdTnDZSutWFo96aWSuEqEQIhgiCIV1vSu7zy9cJRMkadEAWlDYojcZD0HF0fpJWVOpdmzr3j7IbZvHARF6HH2eDuR6bY8MWeNcsOPkFsXd4hwf9AJiogDGmSoHNFjDyQ4KrzsjVXL0suwqy0uYZlp2dkmpy2WNtvuwIeO3VPCKhp1PbI68LaO5wAvHE/Jz7zi/CQvpki0YmnG0kuknUieChfLRwggBERlRWU6Zpl54DO/eObacRF0U2kn0s3QjLmbcC8TzgDbN4OFpCvqmJWm+8j+4ur7btsYaIoCKgWIArcwEbsLHABcr9fCJsKJ7Grzfv62pbJPH8eBc92N6z914/o4K6oexcw0KXxfzG4AI4B+fVQTBTABVaoKw/qsc8ovOzXIWVpJYetwJ2jnmpZbLK5K2uvbOoDCh17VaplRd38yPnSzGj37xAvHU/LSs8fjDD3XW02kFXM3LmoWnA3e9UX2QSUV1tTY3PdOGKEz146nOVpJ0Vtp96SbSpZLIRyKEJCKVFTX09/aX9Dx4O0b3F6SUkB94ejP8oU7sl5EHJyITfiMXzn84cZiXNH09LPHW7G43IrZNWJhBUqKVRJFfVQBhkxA7ckckUJVX/fBZSzI8kUJS9vONLnrKh2dxT70RVXSIROtNOxtHc8yXjiekpeePd7LJc6lFUs7lWYsjZ4kMbcTSQdVUpc0BIrKikpqdMR01l/rXKSdRDoptxNp9ribcJIJZSBnIdOEiHRFjy38YOLepzy6ohUCTU44QkNi3EyxwfhCKSKOTDjlNJFO+qysAX4mf+matePX3bj+nVes291MsXDZijPU9RsrfUNdqLKZHORSD3X5LxfTSec6MusqHW2ebdq8xdJhLhKWRT70kFBVGNFR+9aFA8gEPQeNF46nZM3acXdMvpehGUsnRTPmVk/SRLqpcC7F7Am4pQFEJaUramj2+8umbwHQS4ugo9GTbk+6qVi3MK3/FldlVRvR3f94yvf3P37uqtCgHCAyFATkTO7QtKgyClggY06k3ePlpx2efsrTcvkV65zJRcQNNxHLEAEtjjgI0KQMBRpI3TRTddnbh192WphbafZ96DMtnmnxfL81K7FbW9n3obsqaU3rZcbc9cnG0s8Teg4QLxz749J3r+vlEmfSjKUVcytBoydxzL1E4hTiqqTux9gQSkqVVGVY5xuvvfyKdblIO5Z26kqk3E04y/ruBXfUoqTUkF7ZunXmx/t+f4caYT/i0LvzFAAAofgNbkVS4USa3UNsGN3t4zgUcYwr/bAUXn4rEIYazFXr+0ehoDWh7cYREgJ92duG3TqF+a7MumylxbNN7jW5sHUMEhbu+9ArGnVTW2Vwq09Yni28cOyPy65Y9zOvGO/liDPMd6UdcyuRZk/yRHopW1eZc+99l2NXlK6olWPmlfwDEXTSwgPigo44dcW8/ls8IlT10JjeZxfgy395daApCooahw5Apm/9okUFjlwklTyV2UNXGX02Ep41a8f7Zv3dxwWLVTWggX8UCkYBTYsWIxHkOGtN+fJfG3Y+9LmO7GoXVdJdTWtbzM7WES+ydRhCpFBRGNWV9q3e1vEs4YXjaXjnu9f1Mokzaacy3xuoAOexxKmIK3m6qoMhhERlFQ3pkdnvvfUNr0lzacXSSaURczvmbsI27TufCDCEslJ1Pdq89SeHdIQagUbJUBRQ5PIUA+zRixW3I1YSyRM+YynjRQ8L7rqV20ZNEFVspi7UsK8dWpEUSxgseoxULntbXYDMSqMnsx1xXtKZNjddpaPTP3GfLxovWNEYMsFy07zB2zqeFbxwPA1r1o6ffvZ4N0ecSaMnCz1uJtLoSZZImkieCnJgUPI0hJLSFTVcN+fi+1bQduaxWJpuQXza/91YBB0KVVMb1cnGvYPqH9++MdBUCsltey9sTqpvtZS++ysTSbnbk07yrFRGDyUiAJQqggxnvi0+VsVEIiFoTZ1Za+fyYhBhj5HIpz6y3AriDAvdYlTHdItnWzZtMXecrYORuHnoNIj+UDdjRwc7/uoNh/uV/xTihePp+fSN6+NMehk6qcx1pRXzQk9aPckTTougo/+tgUJE+D/svXmcXFd1LvqtvfeZaupBLUuyLSwPeMK2TLAtBuNuEA6YIZDckNyLsUle8vi9vIDvezEkBBLZlpmD87sYwg0k3EtsBMmDDIQhEBBSy3iQ59nGk+axh5qHc87ee70/9jnVLVvGsixbsl3fr36to+rqqlPVXV+t9a1vrVUS/ohctlhdeKLspmjFthlzrWNbHdvqWHbc4RptFSESNCRLtZva+3o6Hr5tvYs4QkWeB+pbv5zZ3DIsoIGUbcKtrh099RAro30fx6EiJKacIrIkBTQXaOSlIgEpsX1K16dNMqNRN6hbdOzZrwzOOi3zoc9mJnS7t2lnG9a2rG0bdkFHmgeAGSlLMSpHOzf/ar/MAAeBwUKmA8LFH171na+sDhQaXZ5tczngWtdWIgpDNgErj7MkQgKeAEAWJcN/+DpsqvVmu1zv8GybZ9p2uGjLHRtEBJ2vRAkIJVkckTMbPjN/3p+n4KvMwaGyPAWQ+bft3D4EHXOja8/MB5pPTk6uX7/+qU/hfe+JrrjiigN5skFDv+34uf/+87c/+bVPHtB4vquuuupb/9Z96vXj4+MTExPgfFIgQRA4Czfy6Yfzjh/YFvdSf0kqyynClIVhaHHNx8Yu/MDORHO9h6htiwGVAioFphhS2SfrW6kIiiEIxFn0FwmUVThmZ2/4AtPCYQAAIABJREFUTOGQzlIcYEAcB4RLLlv1zWtXd1L4kqsdW4moHFK9y4WQU5+FYiEYMk+wQYiEYDlkcOWFwe9/p1ft2qEOzbRoQclWOtYvCgoZPmcN8pHAkCpsu7n7+A3RiW8E8K0vr5aUbXJXAsLZHGiewOHa2wwj4SS2rZDe957Ifef9v1U49/j9PIVH78H7f6twIE/2kY1ddHX/v2ed5h2z/IB+8NF7Prffh+5svfZ97+lUTvMY2A6UFuD6W+Ohclopiqs/MOSW0YM4d4JRs8vfu6+4u7GsFJX9MPKCgPzgig/87NJ3l6/7XrOboNblYqvPHTYMCL4lj4QCFEDCFXfhu4RFFp64ufnIhvLJR2i5+sWIAXEcKD6/Zu3HL10ZSDRjzLRtJaRKl4oBSQUh4TuThaspesJpGJIxavljE/6XbkqqIU+17FjLjhRtqWP9gpjbqOwLlGQ0Kn/51YtO+XwLfQURmRAwB9fywQwLGHapStJjOyze/1vBYXphDghP4qxz8l68z97evPehdEEkx0J5xe+UIECEnz7yzm/d+14gBCIgAALAW3f/W9d/7qN3Pxjf/2jS7GFW5cQR2lJICwNrfSKfSM3bGukSloIMR2V98jMD4jiEGBDHgWL5ivHTzxl/7K4NQeLmYnIxsIEipUgqlsoqKSDznMXPuMOzWHEaG8tr7tGzbZpu2QUlWylYr2QpJPgSICggEqjI447xdvzgU8e88xOizxrI7V7oiw0MS7D5ljTLbob4IfxFjh6jvvsdPHEz5BDOei3ectbz+Edy1mneWad57viK6xur3lOEgBRHA2cDEuhnaGLy/qW2YS65sPjRR5Mk5XoPUcsWfSoFphRQMTBFn8h3hhebabC5XI2yrGy6ufrwhpFDrQS9bDEgjmeB91+26mOXrOykCGNMt23gwVPkKfIUhCKhWEh2u5ogCIEALEoiYO+1p8BY/OhRM9WksZIdKdpi2/qRQMTZ9NCAUFbhqNW3fBbv/ESW7+dfc2s7ZxEHch+HBVsYy9ryIfxFjh3r/f7/O3ro7u8ZcN/D6X0P65pQ7351BAITKVEExjDndXMX/tGt5779nNvOOt67d1PaSVDv8nTLumylFFAQWPKJfBJKQHFGHCJTScMRyXtuxIA4DhEGxPEssHzF+Ps+tOq7//Nq91frS+tL8hV5CkqRlAgkSEpIzpovAgEGSgiNet3JvLPBmxo83bJjJVtpW1WyIhHwGR5BCkTAkFyyxJv68af6cYabcTMv6GCwCzcYzolpoQ3ueCDd8qDpyxxHLOZLp52i3y6G1vKysyqnvLUYt+3SpAvdhYASLtZwNOkyOgbMWWM3Nerir35v+K1XTKWaGz2EHhcD64KOUmBGAyKfhE/wGDKvkUtCKKgieePnMP7nh+3Jv7QwII5nh0suW/XNL61uJ1ASSsCTNlDwJLw8Z/GUhRT5onogFACogoLld5/N//uWdG/TLizzSMcW2tYvWoQEQ/ABn1CS/ojUGz9HR310frWhn6NkXzlfwmzBhrXhAvxTfe+aL3RJgiSRJCHdujksWGCe/tnsgwPhnf0WTfaL7nFD2fk6XzmDgXd/4ThjYS2sZWPZaGjNaWLT3twkVxCkSIEmsmEbKaABffqiO/bOasOSLT5/6dCfXlfvpWh07bQHp3SUIypFNgzJRiQ8gsfZKygBn1CQhRHZXvfp4pte0JmsL1UMiONZ4/PfXPvxS1cKcsTBvmJfWd8Rh4SQJJ3SIRm+K5oAAA2pssEl5+C796R7G3asJCptqzpWRAIBAIKEK6+MLTLV//zUnD8qb4VF/6vNjy3DtY1JJYG3nF0QPkmfhC+kR8IjUiQ8Eh4JJYRHpECKhCLnCsm+SiIFkvT1b01TVuBA/wD9kIcAgf969ckgsPtu7vV0Ha6cO7gyAZfmKbmccV2+gulXgqFtHdgMJEAMdIEu0P7ga//7pmnhZnksG5VnLlX3bdOtmKIez7TsUGSHCzRSsH5EFJLwBVyNHHmpKxRUkXbj5zAgjkOBAXE8ayxfMX7aOeO/vGOD7LES1pPwJQLpxA6SyoYKQuURh+dWBwGAGJHDht/zKv7ZY2a6JUaKImqzX2REDONWzwuUpDeqyhVJO20/RXlKxJH7OBhs2JgDs2g9063ee8lCyuIU6h9AgLL2M5pzkRxCzD8ryp5darYAP52YOHp8/OTrrl0tqfm64x7eURPM2eBSw3j3OeF921qp4VaMRo+rbVst0GzBViIRhWxDmwUdyCfCBwJFWRyRzZ9/uvzmAXc8VwyI42BwyWWrPnrxSkEkiT3JSrCvrO/BU/AUpKLAFQWdSdzLXGEA5AhGDd6Y8M27zMKSqLSMKgtRIPiUNWhFAkPyn26Nl1QEPakWiz5r5J/glplhDjQXeX7a1w4RslOzDMsf/4vXf+O3smV0v3nRpz968cpal1yglT11xqIRecoS9ctd2o0vmO3Y4bYYKdjRgg1CF3QQPGdxz2aaunZke/PnMCCO54yB5fxgsHzFuJuL10ww27HNnp1q2T11W23a2ZZttq3u5IPt3AYQV6ANBUrCG5WLjvFetQBTTdvqsG5ZdPMGLedZKklBhFwZzVRS98Ccawa5buiqKs/i1Ps/ewSCMuEmmRdD9V/qepd3N+zuht1eNVum9dSsXnmaDyA13I650eNqx8527GzH9rrMHWvdjJ+sIYAgkLUjj8jG2sGMn+eKAXEcJJavGH//Zau6KTd7mOlwo8t7W3ZP3daattqy7Q5bt6/QSXsABCEUiCQqMligTnqFGvPNbMv2+o3hrnQgCaEUGW+AcrFg7g2fF2Kz+eaWkwOPOI58MKzhRO9DbMtXjF9y2SrHHXsadqppt9fslmkzGtDxY9IwOglaMVc7ttrm2batd63pMnct4ryl0ORDxiIhKlLfNJjT8VwxII6DxyWXrTrjvPGuzuZT1bq8p2n31G29aast2+1Y7jBimy1boz53CFRkuECdeIziXtpq27Rl0bNIbD/omFeL3fch5+IFRzRsLXopb55KX/infwjAT/mvZWvxa//tL590w0suW3XGivFeyvUe727Y6ZbdXjNbZsxrl3mYF3TMtu1s21bbttu1tmNtz84FHe7V9AWKcmhE1gb7Ip8bBhrHc8I1a9Z+5OKVD942KbrwpPUE+dIEKhM7lKJA5VYCVxQkIJIggFSB6CTCtl1JuSQ+85/HUmEYQQEqvPIrJwCjQAkoAuFrl21be/lncmWUgbynngELa7ib8jdu+L+u/t3/dZhfi2fEM+ZHDLJ4Oq33mjVrL7945f23TgIALLOw1hwzLI8eEjvrtpOgHXOta6ttMVu0wwURBixCRsDwGAIwlHnzQiHLMr3xs3jLQOk4eAyI47niC2vWfuTilQ/fvmG2w1JYJYWvbOBlRZZRSUpZKEAKSEDl3CEIgiKJV0j6l1sWX/WdPwFCIAR8wHeCKqAAdcvm5Rd96bjJqz40l6c4U4RlWFiL7z30EeCjP3/gyxe+uni4X4znDMtaPy3B9LmDAJC1TJZx8lFqZz1x5ZVmz6mkNFKw5ZBUh0RI5AFSAM7Ry07pGB6WMz/59IK3DrjjIDEgjkOASy5b9ZGLV1JMkqwnoAR+/LAeLlAhOr8QRkEYXnHxjZmdlHLuCJ1JTIWCfvv8Hb768nvX/P281gx3ydpFNzzy5vUPnTfx+jv2sZyzS1XYsrNXvtjwVH5gwCLR+7ltH/PjDgIs25GCGC3SbJs7KVox1ztcbdvZgh2ORBhY0SXpjKT9QSCSEAlVlvEvPoMBcRwsBsRxCOAWiHz04pXNmKY79q9/cS7g2j/vBj4E+Ot++db1n1oFch3fBEUgQuhGeJAv8Z43PPA99aFVP/l/7tn9hv76g3mrpbHuwRUTr7sjq6oQ5pyjFswxUNvnhI7MosmBwCJ5+ojDwXHHA7dOukFozPaYITHbNqnmVoJmYqttqhZstWBLAXkdFgGTl7fMykzpoJIYG5W9J24ITxjM6TgYDMTRQ4Osaqj5J4+uyFkDwNnA3wHHTz741iuu/yDcDiE34thZqgKBksCoUkd573jdnT/8g//6a0tumccX6Zx7ktNs6ldfHM2HaElRB65686sOaGTGkYvcohKnz0x716xZ+6rzxjsJN3tc7zIBlZAMo5ugFXO9x7NtW+3YRs8mXWtdecUNBzN9T4f0yjK9YVBeOUgMiOOQYfmK8Xf84Spg6b5X7waGgcrqf/kTbtmMO5LctSEIvkRJYlTKRWrJMv8/Pvg75xzzc6AJ1IEaMAtMA3vHT74Zxg0onldbESQF/ebp13/gjd89PM/5ECG3xvIzpip9ZNyRZuOjF5YEgFhzO+ZmbKsdnm3bWofbXTZu/UpWXuHMLO8TFaU3fWP3icFUwYPBgDgOJao9Bo7b97rzgc+517nXsNyyaOXckfLc4J+ixIgSR3ljx/n/+UeXrFj6H8BWYBPwKPDw60/8wcQr78o+MF1frHurCQiBok/HL/SeejIvonxl8z3tbd/Z7f+yaS1XXnmgucM1a9a+6tzxTsrtmMFc9GEZrrzSmBd0xD22Xc6CDpfiicyk65dl8pQx0QMcCAYax6HE+Pg48NWncIcGOucsvbVWN8NA2G9BcXqHR9mxyIhgWOJnf3z5R//l1//21pPedfrdYyV91W/eZY0U2YrpeV32BCGp4D/J7JHjQJmjv8nyBcWPvrKbLY4mc6xn3v9rwZv/uIzdSfeJZPTUZyE6XHrZqo9cvLKdQgkMR6Kd2FhzK0Yr5lqHZ9t2uCBKAQeBFSGRJyA56ycUBE+IovB33th5/IbCiQOl49lhQByHEhMTE8Bf7EscW4GVwJ7TF/9sumbBGGaEAFHWfAES8CiblFkgEJGkkqBrfuen7z3zh4/V6ZTFKtXKmrzL3HJuJgWISMCXxGdepoH1//r5rKFeEgl65fH+ySeGh+FVyPHQzc0Hb2mh75JnqHXTiytiuCJlSfzow6MYlggICuhZ1AxSjnv2We156MvSkjAUUqjQ085Iahs9qnZstW3LIUU9kl0rPYLifD4SQxFCGZRMY/IzA+J4thgQxyHGlVdeeOWV84dWzAAjxw1/7/xlf7+jJjnfGBkwBCTA2ZDejDsIRafeoSDxeknlx9Ka4dRwqtnvRxz9X5oASfIUrrzySvfY889k/fr169evz+hmX+zZs3HP3o0Q2T4kEq6VnrIRp/sezBtBntngOZ9rCMLC6Jyx8DX7fSlWTkxc/dcTAO6/bcMX/2jl0lF59jnB8qXesUs9udiDyj/5nQtWMyfc7drSAacqDs6QvubLq1WCckA9zUkedFQ7PNuxQxGVAgp9ysorikAuSWT4JIrS33lj57EbBmPQnxUGxHGIccUVV6xff+n69U8AAHonjs4G8osXnHDzjqpwbZ0uhRhiBHMKk8i4wwOMQCHbnxJKOkti6zYdaxgD6DzisHlmQSCCJ/efaExMTExMTBzEU/jB165q33LlSW9H8XRUA/Smr3jTeVcexP308eBtk76kok+lgKKApO9mCGBuFa5haLYx19v21Fc96+l+l1y26u6Nkw/fPlkR5EukNgs6mj2qtu1IQZRDjgKrnKfDTRXE3JyOoCxr6wf7E54dBsRx6LFu3XXu4J6Nkx+5eGWgttW6YFibj7Rx7DGEnDucvwPINq246WECEAgELVM0tVtrLa1h4SKO/qZrEEkoiV33b1hyxpE7TdMT8BSKARUDCgIBP98p44jDEWLKOrYzB7sB95o1ay88SbUTFDzUekg02jG3Yq51ebZtKyGVQgq7HIaWXKTTVzp8IYoi2Hlj+7EbigPuOGAMqirPI1wGHmtu9LjW4T1Nu71qtsyarbN2d83U6iauWdMwcGXamKEBi2yZSiRRkRhT3mJv0dFee7pXr+k84sjLsQQSpCTNPLT/ffdHCB6+Y0PouYhDeAHBF9lsNJHZP6EZKSddPundnzjoR/nCmrU9zcaSJ2DB7QTthF3XbL3rVnBa2+WsnmUBNynJIwplWJadnw/a3p4FBsTx/MJxR2LQ6HGty3tbdnvVbJ3VW6tmV9XUayatGdMwmcUjttnHryJ41OcOucQ7+kQ/bSS9ejo3uxcAQAJSIlSHsizyzg9eAeD2e3Hr7QDwHPMUAI/csT70qBSKKCAVUMYaXk4cBjDMKfd6ttU7+CKyEzu6mj0JZiQardg6l0e1Yxtd2+5x3LUcWyTzPB0E+CQLIth743N8mi8rDIjjeYfjjtSi0eNqx3GH3TJjtlbNjpqp1u0cdziLR3+oj5ftBMECKY/xF54U2Hqy7a5mFnQAIAgiJcl/Hob63X4PNt52aO7Kl1TwUAooCEg64vAIEpnWYBiadWx7XS4+S2X0SbjkslWvOndcW0iCBbdjtGJuxTzbsbWubXZtu8emH3SYzEQHRRSKQlk2B732B4wBcbwQcNxx+rnjzR7XOjzV545Zs71qqjWb1oypG25btCy6FilDA0LAEwglKgojihZ7heOCxUfJxoOt5t4ku2sBJbPmzyMT3/nK1YGHYiBKAfl9ZVTlyqgFNENz2uNmxy5+9srok+DiOyn2CToaXa51uN7ldo97PcvZgB83pyNXOiKJ7YOg40BxBP/FvbSwfMW4c0k3Y57t8HTLbq8axx3bqmbWcUfNcNuibdG17u2UOcQCgbLEsMJC5S31SyPSbulOP94DACIhafrhI9c37UkUPKqEVI4oiAT8PFVxxGHYRRxJz043Dk2P7xfWrNUGYt+gozov6NB9567JlQ5Fwiexe0AcB4oBcbyguGbN2jPOG28nPNPh6Ta7MVZbZsz22Yw7dC3XOzr56DBLUMKNrsKQwqgSR/uVE4KiNTMPdwAIScmmQ08c55yF8845BPfzva+uHopoQVGUiiIsEKK8qpIJHAwDk3Lc41Pfc/DK6HwsXzF+xopxApiRmKy84vTpepfbPdvtcaZ0mHndKx55EdV/OshWDggD4nih4bijk/Bsm6dbvL1mtsxmocdM1aY1o6vGNi1c2uJas7SzSBMiF3pIWuRFxwWVhXLP5i4bO1I49L/Hc5ZjxbnP9U4evH1DOaDhiBYURVQQKhIIc43DvbO1Ezg46dp695C111yzZu2ZK8YJsMztOLvUu7betc0ut3ucxnn3inFj1QiKhC8aP//MoTqHlzYGxHEY4P6sOynPtHm6xTsy7tBbZvV01bi4w9QsNy1aJk9bABA8gUiiLFGRWKC8Y/0FJwXsIdb2sX/95OF+WvvBo3dOVkIaKYpKSURFIUJCKOC5uRhuQxsj5bRtk66d7RykiWO/eP+HV4HAjNhk2Uoz5lrH1ru23bWdHnPCnDDb3FkrSPqiUhbNR47cvO/IwYA4Dg+uWbPW+Q5mnVaaxx1bZszeqklmjZ41pma4aTOXR2KRAgaQAoFEUaIiMaLU0V7x+OD4U4KFrZvbjx5xf/H/nucpxQKFBYFIIJiXp2hGyhzbpGVmanbFxU+eUfxcsHzF+PIV4wCYuR1zK8kSFieRdnucptn+CjZggAUgyQuF3nzEvYxHIAbEcdjQt4dVu5hq2R0167hj07TZPm06s1rPGj1rbN2iZdByLg+Gm3PjCxQkShIVJY5S0XFByBvjf35ncuj+6Ps+joPGQ7dvqIQ0UhCjWZ5CCAnek/MU27Fp08pj3nCITnwO7//wKgAMJAadhDsJO0tYO+FuwnHCnDLrbHc3QPBIBaI+2LpyABgQx+FEZg/TXOvw3pw7Nk2bJ6b15ilTm9HprNGzOk9bLDp52mIBz3GHQFnSqAyO9csnBr3v/8bM/3r7ITm35+7jePTOyeGIRgpUKYqwKEQoEMzLUwyQMhI2bdtrGW/Z+c98j88Sy1eMn7Vi3LUIdRPuptxNnVZqu7HtxmxSIGE24KwuC6moXJaNR45oJ+6RgAFxHGb07WH1Lu9t2W1Vs2lab5o2m6b1pimzZ1rHM0bPGl01XJ9nTjeAZghCJFF0oYf0FnvF44PQbtyyqhIfAYOtfvh3q4dCGi2KYkEEBQEXcfjz8hTN6Nm0ZWaq9qzf+Yvn4xwuvcwFHRzrjDs6Cbd63Em4m3CSMufb9pgBQUKSHwr9PFSpXmIYEMfhR98e1ujx3iZvr9nN02bTjHliWm+aNtundXta21mTVo2pWW5YtJ1iCmiAKZM8ShJlKReowjL/qFOD1r++q35YCwQuTxkuiNGiCIukolwWVfPylNSiY5OWxbGHPk9x6Acd2qKboptwL+VWzO2YuzH3ErYps2Y2LlsBFCmPZn82qK08AwbEcUQgs4edO95KeLrNO+tm87TZNO3SFrN52sxMazNjzKw2NcONeYppP20pZvRBFRUd45dPCPiXfzV73TsaB1sjeI4+jsfvmhyOaLQoKkURFFyeQk+up/TYtG2nYZ+PPKWPszOJFL3UZSuZ0tFLuJtYncKNgLUWIEDCU1QuDbKVZ8CAOI4gXLNm7ZnnjfdSrnaxu2m3zmZBxxPTetOU2TWlezOGZ42u5oppO1dMndHDxR0libL0j/JKywKfN6bff9fjf3PRsz0Tfs4+jv/4+9UjRbGwJEolERQFIpqrpwAwjJTRs7Zl9tbMme99XvIUh0vybCXRcMTRS+GCjl7Msc4lUgNmck7cIKTkCMj1jmQMiOPIgivTpoabPd7b4u1V61hj07R+Ytpsm9L1KW1njHWKaeMpimkoUBIoCpSEGpXFZUHlleGi8Lbpzw41X8DM5ZE7NxxVFkvK4qhhEVWEKorMMNrPUwwjtujYXsvy81BPeRKybCWTSNF12Upiuwl3EzYpoJkNWyeRKvI8MfPTQbbyqzAgjiMOy1eM//Qx7Wb/z3R4Z91umtGPT2Wi6eZpPTWl0xnDs9pWjXWKaStXTA3By+OOkqSK9I5SxeP9oZNDevQLu1dXdvzwUy/AU/jiH61cXBFHD8tKRYZliT5xyLl2WPQYbdtsWP/45zFPccgkUuaekzk0dxNu9TKZI9HMCcPALcWDIE+iXBT1Xw6ylafFgDiOUFyzZu37P7wq1tzo8p4mb62ax6fME1Nm07TZPG12TOn2lOFZw1VjXbG2nXtMDSAEihLlLG2hYeUt8YonBqOnhkObr6lf/44DqbkctI/j37569ZIhsbgiFg6JQkWoIs35vrIGEkbPomtNy+ypmjN++3nMUxycEwxAatFN2XFH39DRS9loZs3WAEwQEJKCUAyylV+BAXEcubj0slWuUtuOM2f6E9P68b1m05TeNGW2TunZKW1mDGY170cxJQQZcbgLjUj/WK94UhDJW5N//42Z//321q90mh60j+Pn31i9uCyWDMlKRYYub4pcFZaAzLuBtkXL9JovRJ7icOllq5hh7ZzM0U7y2krKen62AghFvkdT/znIVp4Wg5mjRzTcR6VldFLWlhJjeyl3UtFJuJvKXsrdhMcSGaVAyqxBhmEFAiAgWIIkBBIeZ83sgaDA+kXhVWQ6e2v3e+/aVnzd0j/6j0N4wv/+tauXVMSiilg4JKKKkCWBQu77clMCE0bXom25bmaqJlj+vOcpDme52go41pRnK9SKuZvYbkIFn1UKkmSIBREEeZJctjJ0ypE7zPUwYhBxHOm49LJVglDwkRhudHlPi7dV7WNT+rG9+okps2Vab5/S9WltZw1mNWoWDYumyYaJuYFARAglSiqLPoYULfb8V/iVV4aL/FtnPzNUPXS95OtcuFER5YoIHWuEIgs3CEit00TRMJ2q2TxlXvX85ykOed8KUpMbOnTWNeuyFZ2CXd8KAwJSUhiI3uODbGX/GBDHkY6zVowbBkBLh4XvoZ3wTJt31u2mafPoXv34XrNlSm/dq/fu1em0wYzGjEHNomHQzOeYuu444egjT14WKFqi/GXByCvDwhNf2HlFec9/7EMfB+Hj+MHfZeHG2JAslKUsChTmFVNsrm60ramZ6RnTXfQC5SkOuUSaGTpizS5b6SXcSzjpN7xZACQk+Yr2/mSQrewfg1TlSIfzPj5022Q3pVcMy8Cje3ZobZBoG2vupNxJZCdBL+VeymOJLPZYdF1RlpEIhISQEYhsAZIUiBgeIRHwLUJLBRFUxJIhFT/+V/V/uNF7w8fchpFzlqN4OqrP5lTX/8PqM49WiyuiXBGBUzeycAMgIGbEFl3mhmnVzOYpc+r/fWgm9zwrMDg21E3ZvWKtmDsxd0MUNPspScnGqTECnkS5QLVfbhgeZCtPwSDieBHg0stWpRbuE9ITeMMJ3lhJNGPe2+IdVfvElH5kr358r9m8V2/eo3ft0Z0pzVMG0wZVg0aevHTddG+A3VyPvPIyorBQ0VIvPCGsyFv5+7+x5+/eXvCf9R/Gj/7+6qXDYumwOGpEFitC9kuwTt1wxo0eo22SmpmZMZ1Fbzhu+Qv6hrwkjzi04V7KPY2ezlpme6mNU05ThmGTjfaBkhQNspWnwSDieBHA5eex5m5KzZiHInrr6f4je/RNm7Q2SAz3NDoJN2NR73C9IxodMdrh4a4IegIu+igIJIwwH8AlCSKf/akYPiG0CC2VRLEio9lbJ44v7X4kSYcTHH9Aw3UeuXPDXf909fJj1HFjanhUhkMS5fyxnLoRW8SMnjUN06qaLVP6oq/95Hl+2Z4WDLietzigTl5b6fqIPPZSCCJLECCS5Cva+uNPL377YYiMjnDIK/ddODrAkQkC7rplUgoIgicp9OiVR6kzlni1nt1dt7FBorkdcydBnHKqOUmRaCbNSrN06yMZsJytZSHMrUGUjj4EPIJPCAUVRFCUI54qbfb0emU0nnFrwY+u+T8Xmm0nL1KLFqrymKIRhbJEUSIUEATL6DI6lpu2vUdP79Lh+R876vTDEP9/9yurtQURmOFJChUpSYGiyCffI19RIEhICLe8gdlqpJrF0vPDseOe+d5fThgQx4sDy1eMX3ftaiIIgpQUePAULS6LiVODx6fN7rqNdSZzdHJTU5oi1pxqlhrKsEhz1nDD8pizFdJAxh1FHO4YAAAgAElEQVQyn6juEUJBReGX5OiwVDt/Mf2jT2vD4Qn7p4+vXnYhtt5w8iJ17JgaWajkiMSQRFEiEhAEAcQWXYsOJzO6sUc/sjV97cd+/IK+fDm+/7WrO2l2rCQCj3xJvqTIo9CjQJEn4UmAKFvIq1kb6OLS8skDmWMfDIjjRQMC7r5lUgoSBCUo8khJCiUmTgtefZw31bTbq7aXupIB2jF3UyQJpyknGiZlqVkZkM4XwVnAsNsjOUcf7uIJZ/pw9KFKoliRctcvGj/99PT9G8TwccGCuY/fH3/96ulbrj/5KPWKhWpsTHmjEkMKRYmCgBSQQMroWHSsadnmXj27S0dv/Nii57w/5eDwb1+9OlTUSd2+bgoUfEWepEBR6JOvyJfwBZEkSSAGGEZzM+bRFe8/LCd8xGJAHC8m/OSfrxNERFCCAg+eJF+Sr3D0sHjHmQEJ3LlVJxo9jV6KTsqdmLspJymnGknKNoXSrEw2umYueUGevFAeevSjjyBLXmRRhiVR0NvTu9e0fnnD3m2bh0+54LG7Nqz74h+ecpRaNqYWjalogcKQzCQVT0AS2LnLGW3bmTGNPfrRLfr1Hz886sa3v7x6010byiFmuwDAgKMMJeErijwKFPmKPAElQAQFgNla1HdtHnvrxw/LOR+xGIijLxq4uuz9t04qQ+2EGz0u+LbuoxBQ4HHB4/edG/3+GwrX3dL55s29RHMnpXbMjZ6ttkW1zYvaotmxjY4c7YpKSfg9iS6jJFBgpI4gCJ7Id7gTJENxRh+RRZGpIr0Rq8aMrm8MNt+05S8+e+fj+vgF8tgROTYsoiGBkhtHLLKF0uAsSenatGHbM7o+axa/7c8P1wsoBfkKJ4yIR2cMAGMQa45T7qXkhnSUUu4lHCr4CpKIJYhICjq0q3lfGhhEHC8mLD522U/++ToBIoIgl5NTIOEp8iV5gjyJVy/zz1ymdlTttlkba8Saeym3Y+6k3EtZa6QpJ5rJCR+uH59z7cPmwke+aiSLPpRbEy0QEEVCFoVXksWKPHGRPLYsAklGUWWxh0ouiLof1Lkm2rCtvaaxRz+yLb3gLw5bMeXxuzb0Ht+wqCQij3Y0XB8s+QqeJE8iVBR6LlshT5IUWbbCzN2E7bFviAb66DwMIo4XE1xdNrUca2rH3Iw56nHR5yiwBY8ixZ5EJHD2Md7Z/03dsyW9/qbuAztML0U7MW6rSLVtF7Xloo5odXikI4Y7olgWoidR5KwbLWX4Ah6yN7/TY32GAjwLn+ALhJaK7A1JtcAGdRPXTVw1OzbFo34Yjansp3TWAou2jWdNe0bv3KuXXHTYAv5H7tywcc3VS4fEUEShyjY/pYZ7mmLNvZQ6aSYqx5rjFL6AAbnSkxTUeeyGkVMH+ugcBhHHiwwE3L1xkpjICRGSMqVDIpBw0qkkkKDFQ+LXT/cN8x1bdGKQaMQpnN/Jzel10YdJWWkow+SEDzcGWSMrwfQflghKQFE2N1QSFFEgRFF4JeGXpKeotzvddXtn7+a4OatHFil0LFrWVG1zr969W8+OvuGCD//d4Xrdrv6tk46tiAUFMVakXztW/eejGoBlKAFfkpLwJYUeBTKTSD1JzuxiLSeaxSvOLz1TTfplhQFxvMiwfMX4PRsnd2/fTERCkBJQMstTBJESIOTcQQBw9rHeJef5ccJ3bjeJQWI4Trmd2SWRpqw1pymsZk+z1EDCSPNZO5phOMtigKwEI3MGyRIZQR6JSHgl4ZdlVJYRwW+axn3dX97aCS2qe3Szbu/Zlr76g18bXnx4ov2/+eMLw9bWsQKNFsRIgUYL4vsPafctoqwE6wkKPAoV+SqryzoWNpa14dm2Xfi6QWFlDoNU5cWHa9asvfAkFRvuJmj04EsbSHgSgiBIAOwC8TAbgcEQ4vfeEJ66SPzjHcmjUzbWWcGl0eXZtljcFos7PNYRrYqotG2pIPyCoJAQCfRXvfr5wleFzJohCcI17FskhITJJxUKVRZBT9muNR1bPtqaji1ITmHOff04bb0BL6zH3OErH7qQt2w4aYwWFMVwJIYiGinQWUvkvbsMAG04NZRqJIYTjcRkl9RASwjKNst2HxsYz/fBIOJ4UWL5ivGf/PN1lkEA50KEEKDMTU7IIgNyFg0iLK7INy6TJ42JXXW7s8GJRmy4l6CVcCfmWCNNOI65l3AaM6UsExYxZ+0tuh+A9KOP/H6d5VTN2UCETzISqiS8ivTK0i/L0pAsme3+7hvrP/1085ENvemtPc2HUGu86qqrACxbtuxJ19/0zU9+/xMXHsPbjl8gjhmSSypicUWMlmQUiT0te+9OA4CAQJGf+0cjnwKnkkqonDiMRTfhRYdPoDkCMYg4XpRwpdl7N062E0gBSSyFVVnQAUFgt5gMCHxyOYanUCyKc4/3zjpa/tOdyb/crxODXmo7CbV6XOvw3gYtKIoFJTFcFJWiKBdEpSgKEXmRQCgQ5RMA+9HHXABC8F30wUiozzJkWBYgDSOxSNj2uNC1tnOrfviW5M7PbaqbBRd+ot6xS9918J0gk5OTP5+YuBLoTUxgYqJ//cZvffKB/+/qhSVx9tHSRRmVkMJQSI9IEiQor7BahrGsLVJDqUGaRRycGtImq00DkIJmHtqw4LSBPpqBOAtsB3jx4fKLV963cbLoUzmk4YiOKotFZbGgKMZKNFoUpZDKIZVCEfgAO485mDlNOUls2uNv3Rl//yETKCr4KPiU349w9DFSpKGcPkqR8CMSLnPZT/5CEMguzlTmxJF+kNL/b5qRCHfZdq3p2qRt201Ta9lOzMEJF4yedkGiuZNi6OQ3LjnjGd6lk5OTemJiJQDXtzYxsed/XHXXP32y/vDkWFEsKNJQJIYjKoUUhEL5RJJIusgId+8wH72+5e6nFFAloKGIFpbF4ooYLYiFJTESUTmkUJIUbDTX2ia84GPL3j3odsswII4XMe7ZOPmRi1dKQjmgYkAjES2qiIWljDuGC33uoMB9wBIDAMEaThOrE3v3VnPvHvPv92tfUeih4FHBp1JAlYhGC2JBUYyWxHBBlItUKYpyJKKCkCFlAYjrtXWtcR7mli31O/ItwzrKyNXWPpu4TfExI7bcs7bLumethtVsNKcpxwn3Eu4k3Oxx8aQ3jpw67maFGgunB0uBdVddOXaqLAUUeRSqzD/uS/iKlIQnEfrkB0IGJFUWaGRDSYgAXHhVNmwk8qgSUiWksaJYMiRGCmKsSKNFUQkoVPAEjOFWz0YX/NlzCY5eYhgQx4sb11+7+rprV/sSpYBKPo0W6aiyWFAQYyUxVqJKJBxxlEPy3RguAlwewzDa2oTZcmrxrbuS796V+hKBooKHgk/FgMqBGC7QgqJYUMzyl0pRVCIqRsKL8tDjqfmLRP5A+Vfk7jLD+2eQhJEwshlczBqs2Rq2mtk4NoHVnKTcTThOWSKjBiVJSkgBIUkIkCASIAGRHZCQEFn1xwm6AMidyYVX19yp+YoqIVUCGi3Q4ow4xGiRhkIRKfgS1nAvsc2x1736Tw+be+1Iw0DjeHHjkstW3b1x8t6Nk90EkrjehRRWwMmlgojhsgeLYoDQJyGRvZsFpCeEZDAU8Afnh7/3+vCe7frbtyUP7zatBFHMDY9rXZpu2UokRgtitEijRTGU00e5IPxIiNBmDBIK+JhzeUjMKQQZibhvMdS8YMTkW90cj1gmAzIMw9IAjkQMs2arOTQouVnkGmA8lSPcAeWl6OwfQhZlOLUne1CctVTeu80AsJatJW05tZQaaINEc2ooNewRZYUVoPkrh8K/3DAgjhc9XHW2p1kIEsSCIImJrMiqscJaGMPaUGqo4JNSRBJgQBAJIMtgSBDOOcl/zUn+PdvSe3eYb98UtyVaMTd8qnd5pmUrEY0UMgYZLopKwV0oioSMBEKLiNgX8EByXp1FISvf9qMPyiVVwZCAZXh5POICk3lfyYAsw0IahmE2YJNxB2FfpqD+vQMA5iLprAU4u0+TqTBnH6sy4mBYZmNJG04Na8OJodSwNqQFS5MVuD056FiZw4A4Xgr4wpq1H7l4ZS9lSSQEZMcKEoJYkLWM1JA2lGqkBlqjFMJTRArEuSljHgg4+3j/7BNw6UThH27oPrhNP7RVtxRFPho9qrbt3kAMF2i0IEaLYrhAQ0VRKYihgihE5EfC2dKtEz4USBHNZxCZy6jI0xnKr7TIRv4w7UMf3D8GLJPNecRd6TA/2+4f93NwpnmBBkMzEjYx65T7NzQWxsJVVVKL1HCiKTWcuv56d3ZiQBxzGPg4XgpYfOyy5SvGd2/fsmvbZiIAZJkNQ9vsLWEZzHl+YPtvXoKLA9xHtqS5cq4gSJx9gn/ha8LTjve2TputU3nLnOZOws2YmzG33aTfJNulmPbY9hgxU8zoMWK2MbNbB58ypbktVc8bKWQpa/B350BusjFlbf6if31+pWO67CTzg/ln3j92c0YyGsqt9Alzj9Oebfd46ZD43n3ZVB9PkjPgBh4iJZSkUMGTpASJfEJ7qrkd20FF1mEQcbxEsHzF+PI1az9y8coHbpt0BKGtTbIOLhFr6qUUa0qNSDW0QcUg9CFMVkYlCZJ58uLab93nq+Wzl6qzf78CwnU/6/7jhm47QcvjqEeNLs+0qBxZl78MRVQKqBhQ5FMhEAWfooCUT9IneMQ+kUfCg1AElyupXLBUefLiHtFFClk04MiCMxJhgmVYmotBMD/EwD5BiunnJnlJOLY65m7Mra5td7nZmWvFcdyqLaeatGVtEGtKDWsLbYgkLIME1CDoyDGIOF5S+PX/8gHLuOPGSQNyIYZzTxsLw9CGjM1CD8PZhCunGlgDo2ENWwtrYC2zZk7zqkfKlGL5UvW+14edHndT3l7jWHPes49Gj+tdrne50eNmj5td6y6drk26ll0Y0mOO2cRsY8uuhpKCUkaCbHFUVmpB1mLnLu56i7kgBf00J1dBHTvo/H7695kASXZsY+52udG2jRbXmnZvw+5t8q3b3BSjbJKrEvAVIk94kjyFQJFyqQqBLazl6MQ3DnpkHQbl2JcgnL8jUCj6VPCo4KEY0HBEw5EoB1QOaSikoYiKPgWKXAlWSchcgCBJJOYkiGy0IMMy0pR7Pdvu8R1b9X279B3bTagoVAg859RG5FHBp6IvygEVQyr6VPAzg1nBF0UfYSA8n6RH8El4EB4Jj4STQkT+YPNLuXOf8VkVOfsK52rLgwvD2YHr8dUMA5vLqMZwnHCna+sdnm3basfWulzr8N27zeYqA5CEUkAFn4ZCOqoshiIxFNGCApVDKijyJIhZa7u3bi66rvsC/zaPTAxSlZcglq8Y/8Katddfu/qB2yadxqEttEGc2l5EPU29lLophR5FigKFIP/qSyhFQnJWzsxlEWthma1FL+Fax8522Fo+piyi49A5+vxTXjP+j19e7SsKJLKvng2Vowxy5rSiT5FvCz4VfVvI2IR8n7x59EECRHmJROQc8iRLyPzSjIPmfjLCJjOAGAOj2Rg2BvSEHvp6C8DW3wx3DItqx1Y7PN22Y6eNLxrlzTeuR84/1kLbTBxNtROVoUWWRTFIDQorOQYRx0sZl1+88v6Nk5FPxSwWQDF/J7uBV5GHMLddztGHAlxqY2Es26zowIZR73C1a2sdO9Ph6Tav/L2/eNcHV7nHumfj5P23Tj5w2+RDt28IJHwFX2Z3GPpU8DIFxJlTn3pRCkKQ69NzPXtEBPemdZdceXFUklMbWwOr2RrWBlqzNkg1Z+98zanh07/QdLeNgR+83nsgpAWnXXDh7//lya+5wIVm7vyLPkUelXyMlcVwKCoRjRZoKBQFD4GEJFjLra5589c7h+M3ecRhQBwvcVx37errr10dKhQ8ijxEnpvKm8UXoUeBQqQo9CjMuUMIMpaNzfnCHTAnBtWOnWnzwtMu+PX/4y9Pfs3TZvvXX7taCvzj36wOpPOAOxKhQKHgU+TnKUxOIpFPnoTKxotACZIEKSDcfgVBWZ3EcUpGLiQIhjnV0FmAwKnm1CDVnGhODFLNJ/+wd/Quo/IAJQEe/cKVr7r8iv6pXnhSFnSHHhU8KvpYUBTDEVVCMRzRsEvoJJRgtujE9s1/335+f2EvEgyI42UBFw7849+szoILmXGEJzONI1Au9ICvyObxhas1GMvWQjOqXXv+GUExNa/5yE/KBzYOyz3ug7dNPnT7Bl/Bl1kY4qssUSr4iHzyFSmxD3EoMdeTokQ2MEgKSIIQWcmViFLDieFUI3ZkoeGu0QbaYuSB9JSH9EKgAsznDrFuncpbafvE4Usq+Ch4NFygkUhUQhqOaLggih5CRZ5gMHrJgDgyDIjj5YU5BsnewPAleRJ+HhrA6YzWfeW8Tom3vqnwrvMjbhlTM7M7ktKlP3K7qQ8c11272hP49pdXB1krGgKZzQqWAlLMBRpK5HyRM4gUpOTcNe5mDPTJQmelU6TWsQabWbv0Dn0csAQYA4aehjv6xKEEXBBUCWmkICohDYU0XKCST6GCL0HMScoD4nAYEMfLFPdsnPzWl1Y/dPtkRhkSUuS2bwvDmG7zsjP4zBV4S2X09FMCyHxxdMvohqnvTAuX/DA68WDGcN6zcfK+WyeVwLe/vNoVQR0R9CmjH1a4UeNCQAkI2jf6IOhsjgYcazjKMDa7nnbaRbvsCcB87vBy7tAArVsnJyb6xCEIBY8in0o+cuIQjjhcq5sAp5rf8vUBcQAD4hjgno2TH7tkZeTRwjItqcjFFXH0kOjYVn0pwpNw8vl43e2LURCZX8syYou20Q3T3JNGF/8wPCjueCru3Th5362TUkAA9906ef9tk57IIhHZZxYimW+V7BNEanHqOeOnnXNBvwB0+nnjZ5w7DuCv3/Sm2fXr+9yxcH/c8bY/fIs7AZoncwxHohLRUEiVkMoBFTwKJARxkti3fWMgjgID4hgAwD0bJ//s/SsjjxaUaHFFLK7IsaHOK9+J4umoBjhv/VEiElSgjDuYkTDaRjdNZ0p3fu3PFr/9+Z2p56TW/qoGMAzjd/941YH87F+/6U0zOXccDYwBw/tyx0Unyv6N+yMFhkKqhKISUmaH9RBIKEKc2HdcNyAOYEAcAzg47gg8Gi1QanHy0vQdl6J4Otbfg2NvHHrbWYGMiFzc4ZritUXHmqbpTOvdpde98r8fniXSB4K/ftObpp/CHT5AwD0hPnLMHHH4kgoeIo9KATnWGApFKYCTOSRxN7bv+ebAAAbgSa2RA7xcsXzF+Oe+ubaX8kybJfj+Td5H/0z96W978T8VThwRM3WjW5ZbFrFFwmCCEAiFLMniArWkffOWL110uJ/B0+JP1q0bm5h4HNgM7ACmgBqQAAzcG+3P0EXguaZc5nkuuLGB3zzHgDgGyLB8xfjnv7m2l3K1A1/wwiItHRajEe2c1lNVM123adNyy6LLSDjrgg+EKMnCqBpr3bTrb49o7lg4jzv2AlUg3rcdH31zfe5ld0d2Xlfx2OkD4sgwII4B5rB8xfhfrVnb1Vzv4f7d5u4denvNbJ21O6bN3qqZqpukZW3bcs8iYRiCIA4ESjJcoEZaN2/6aKl1pI7Jms8dO4G9QA1In3Sj+fEHA+iPI2Br2fAgrZ/DgDgG2Aeuz+WU11yQGDR7vKNmd9TMtqrZPmP2VM3emk1alluWe4yEWQMgUoSCVEPq6KO9+Pp3TP3404f7Sewfl69bd9TExOPAJmAnsAd4Orli/jCgvFUH1uUtAwAYEMcAT4XjjjPPG481TzXtjprZXrPbqmb7rNldM3tqpteytmV1x9qYkTCDSBCFgiqyOKaC2z+3628vmnlow+F+HvvB5evWLZrHHa393ojhGCJXN5hdG52FHfBGjgFxDLB/XPanq86/YKIZ83Sbd9XMjprZVrXbZs3OmtlVs42G0U2btm0SM8cMQwBJKURBeMOyVL2p/Y23t4/ItYmXr1u3OOeOxjPdmHku6HD9fgM4DIhjgP1jYmLi6//y89POHW/FPNPhXfU8Z6na7VWzvWqn6yZp2LRlez3WMUMDREIIFUhZUSMLVPMbb3/si2873M9jP7h83bolExOPA7NP+VY+TmBeYcVpHMzueACHAXEM8KtwzZq1p5873oq52uHdDbuzbrfOmi0zZnvVbK+aXTXTbtikads9G8dsYnaDdjwlZEEWh9Xw7E07/+dFjUeOuLTl8nXrjp6YqO175ZNqs8xg5vkyx+JXDaoqGQYGsAGeGZdfvPL+WyeLvmsAowVFMVYSC0titCiGQhopikJIFFLgUeAWIxGzYWs4SWzatvWm8cf//Nh3HnFr0N59jOhE2Wen2z4deQgVhR4qoSgHFCoUfYoUPAlYvvS7A/dXhkHEMcD+MTk5uX79end8zZq1Z5w33k643uWplt1RM9tmzZZZs71qdjfsjpqZqpu4Ydtt2+rZJGGTAiBB5HsiKMjhIcm/+Ozj1x5Zacv9t27oRk/798/opydss0bhwUfsHAbEMcD+sX79+j5xALhmzdqLP7yqk3Cjh2qXdzft9qrZOmu2Vc2eht1dt7vqptWwnbZtdG0n5iRha0BMnqQgkMWyjPbceN9lxcYjR4pies/G9ftlgr71a04ZZXa7KwfoY0AcAxwoLr1s1efXrO2m3Oxyvcszbd5Zt9uqZuus2d2wexp2Z93O1G27Zesd2+5xL4XWYEAKCj1RiOTCIbnzby/a8YNPHe6nAgDfvHb1Pv+fp3Bw7v7KDGA2uwzQx4A4BngWcBaPxKIVc6PHta7d07Tba2Zr1eyq271Nu6dhp+q21bL1jm12bTfhOIG1IMBXIgrESEnEGz7z2BffVvvl4VRMv/Xl1U/igacqo5bBzG46yaIp+95/j9vzQrCXOQZ7VQZ4WixbtmzZsmVPutJtjdu1fcv2rZuNJdcom2jEmk22CArauHHHZCy7mB/5O1MIkoLQ2Fbd+M3pBzfIkVdEY8e9wM8LwJ9fstJtbuqDCFJko0+lgK8oH0RGr3tMr7w7DYHeP/yDnZjwnvKavAwxqKoMcJBwY5A9gch3u1RQ8mm0mJVayu4SiMingoKvyC2QBbNlGMOJtnHKvcTSK9549Ds+PvoCNp7ef9uGP734zdruQxyCEEgKPLixrCWfAkWRwu/elZxc5X7vfQu4fd26iXxk6csWA+IY4ODh1gtIQuDWPvlU8GkoIrcRshKKcj5By1fI5phnw3jm6CPRiBOrlr3x2Hd+/IXZzPqJS99y5y3r9b65iiR4kkKVEUfBp0Bh4r709BqPAiVAAlcBPwEIuPFl/64ZLGQa4OCxfMX4Tx/Tl1+88r6Nk8aQsawttEWc2m5KvZR7qeilVPApVORLeJL9fMgoEcBEQijFloXe+otHvvg2//g3Hvcbnxh7Punjwds23LNx/X5Kq7SPzGEZlXvTTp1353WWDwGLgTcAxSuueMoPv+ww0DgG2D+uuuqq9evXH0hM/tb/8gEG7rxl0m2otZwtYUlNthgt0e6YU+vmknNqoRn57d0yehAorW7d/Ytv7n1gg7/guOLC50X7+NIn/mDnts1Pra1mika+nEEKaj9uLCAACfw5cCwA/P/t3d9rXncdwPHP93vOeRp6M9ykihdDUbRda+tot3hjnoyOuUsRxYtuQi8qkUFunBciKSS9UC+GLoqgDFai+wO8dR3hmVV5GMJSVBQUdGWwUOZsTJPnec45348X3+85z0lzlvarSdZs79dCSFvYnoblzffXc76yOj39/OXLe/HCDhbCgXa9Xk9E7nIyf2qy61dM37z+j8KFjUz/CPJh4ZdOpb7uJHcyKmVUSO6kcOGqaafG/ywbY0b/euPNq79c/VPv0Id3Mx9/+cOrs09+6vob/yy2vevEmtCLLAl3zaTWHLrfvL3qnMhfRd4WuU/kusiFF1/cvmD8AcR2LHaH36k9/kh3UOj6QNY2dW2gNwf6zoa7se7eWivfWnOr/3E31t07G7o2cGtDvbmp/97UtYFujHSz0GEpuTOlGDUmScz636++9v0v/ubSEzf+vAsbt7/6+aWF82fzsv3d8dYYI9WD1I34rw99yN73cHpd5NciD4r8TmSGZdEKaxzYTc+99MpKv/ftc2edmMJp4XQYrqSVQS7rQ/XX2R/OzESm4QK3cAmTJP7GafE7uMaJGGtu/u3q77/3ZF7qA0e/8MCxqSMPTX0k/p1mP/jG4yv9XuGk8P/ubcON8YcNz1L3+Zi43z6xvPz6Y4+tTk//dnl5175NBx+7Kth9K/3eLxYX/vhar2NNlkh1o3Xj0sksXEQwkYYr2sb3xRq/Gqn+je2qok4bj/CTotQjx6eOPDT10RNTHzuxU0SWL18alfJ6v3et36tnSbnT2/ZTwsENG16nf8GHU9NJ5Ojpqaeee3lPv1cHFOHAXllaXHjpxwvJ1h9L/5PZSSRLzKE0XILdScf3xVojIlLVo/4nvHOk8T531epe2zPn5uo76F5duhQWYksZlbI20vFiipPCSeG0uTJqqtWNTlJdSWkl3MudyIUfvfzgKd5K34JwYA/5aYu/cd7no5NW911bkyXSScOt1xOpZIlJE7EixoQHjof9Ua2HIKIqVUd8OPxB1XClW7g71oUNnUGpo8LHQvw8xTm97dyX71pmwgvLrHQSOZyZLJGjp6fO/5DhRjvCgT33rXNnr/V7trpxPuQjMZ1U0sT4X3YS00klscYaMSL+szEhIvUJC23MYpyTenBRVDdC+pGFU8md5kWYnvi9m3CNdnO4IeEW68xKPY3yV0x3EplZvPLxzzHcaEc40G5+fl5Vd2u3fqXfW1pc8PmwfmpgpVONONLEZFZ8OPz1sbZKhakLUo9EqmlLXo5LUVbvRvPVKJ36XvimtFZDql3YJMxTQsUmMsmsHDvTvfA8w413xa4K9sOpya7fcPH5cE4KK7kzo1I7iXRSSa0MS0mqrY1wZ73xU5bw496cv1SBCA/L8NUIn1XLu6iG+DQd7wsAAAN6SURBVHFNvYdiqmCpiMjj5+f27ZtzEBEO7J86H8+eO+tKKZ0285Emxhrdujmq1h+sqAcgIiKiKmX19OAqFmHbxQ9GSm1Uo4rLbawRY4yR8aqKqf5Dz/zkyieYpOyIA2DYb/4dLk/PXlSVvJRBoZuF3splY6Sbef0hG7lsjOTWSNeHemuom7kOcx0WOix0UOiwkGE4kCp5KUWpebVEmrst1SjbqlFPfMLZjcY8aPanVz75MNW4A9Y48F7y782XsC0q1hhbzR2sDeMO4092mmpmIeLGD9oRVd36S3Hir0GRUrWongbSZESsPyRqJTHiT5p3rJx4dPrZn7GucVcIB95743xU8wVrxhGxZrwY4cPRvPekjkU46FF94Qcad6xGZiWzkiXynRde+cxpBhp3i3DgXlHnw2tux1prrIQxyHhjpQ5H9ZRQDQ/1Utf4zaaWaiTy2Ue7X56Z+/Tp7v78Nd8fCAfuLbflQxrrEWLEiqkXSrU+1iHVIbHq2Rmt/1NXGyjG+umJlSyRr35z7kszF/fsb/O+RTjQbnfPccRaWlxY6feu9XvN3/QFkepzGGX4P9v6ANHtjAn7u9ZIZiW1cvLz3a/MzB09w0Djf8F2LO5FX58No4CVfs9/XOv36tmHURHTPqxoVa2PjKtxarL73Reu7M1r/0AgHLin+UcE+a+bEbnDAKPBn9TwOzWplZOT3a89M3eMgcb/h3DgwGhGZGlxQUS2r4ZItSDy1OxFaayPnJzsHn+EWOwa1jhw4C0tLhiRp2dZ49w/hANANI6cA4hGOABEIxxoNz8/z9UZeDeEA0A0wgEgGuEAEI3tWADRGHEAiEY4AEQjHACiEQ604xwHdkA4AEQjHACiEQ4A0TjHASAaIw4A0QgHgGiEA0A0woF2nOPADggHgGiEA0A0wgEgGuc4AERjxAEgGuEAEI1wAIhGONCOcxzYAeEAEI1wAIhGOABE4xwHgGiMOABEIxwAohEOANEIB9pxjgM7IBwAohEOANEIB4BonOMAEI0RB4BohANANMIBIBrhABCNcACIRjgARCMcAKIRDgDRCAeAaIQDQDTCASAa4QAQjXAAiEY4AEQjHACiEQ4A0QgHgGiEA0A0wgEgGuEAEI1wAIhGOABEIxwAohEOANEIB4BohANANMIBIBrhABCNcACIRjgARCMcAKIRDgDR/gt3ZrVi41QjDwAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70C36F4-3D9D-46F2-AC9D-06798F72DE0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27946350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3429000</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7C93E6-AA1B-4287-B9E0-B8EFE70E9226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27955875"/>
+          <a:ext cx="3429000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>103908</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>536863</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDED71C2-8BB8-433C-9E50-640EF280FAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="6469" t="16669" r="28756" b="23896"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="103908" y="33112364"/>
+          <a:ext cx="11793682" cy="6113318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>170105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE83BAA4-9E23-4F26-8D0D-2B67BD5CB8B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12192000" y="32709971"/>
+          <a:ext cx="10058400" cy="6075605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2981,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI110"/>
+  <dimension ref="A1:AI173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,8 +4058,87 @@
         <v>93</v>
       </c>
     </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>98</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>108</v>
+      </c>
+      <c r="O136" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>105</v>
+      </c>
+      <c r="O137" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M43:O46"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C44:E48"/>
+    <mergeCell ref="A68:E68"/>
     <mergeCell ref="A99:E99"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A101:E101"/>
@@ -3840,19 +4147,15 @@
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A38:E38"/>
-    <mergeCell ref="M43:O46"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C44:E48"/>
-    <mergeCell ref="A68:E68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A5" r:id="rId3" location=":~:text=than%20this%2C%20however.-,Relativistic%20(Einsteinian),near%20a%20large%20rotating%20mass." xr:uid="{B61D22E3-250D-44EE-B96D-97502284921D}"/>
+    <hyperlink ref="E113" r:id="rId4" xr:uid="{071ED97D-3E69-41AD-83A4-B29545476925}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB678694-DCCC-4DA8-951E-735001786E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -519,11 +518,227 @@
   <si>
     <t>The disc can spin about its main axis.</t>
   </si>
+  <si>
+    <t>7. The resistant Gyroscope</t>
+  </si>
+  <si>
+    <t>Summary:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in bullet 5 and 6, we have elements of modeling that can help to describe an operating gyroscope</t>
+  </si>
+  <si>
+    <t>New facts:</t>
+  </si>
+  <si>
+    <t>One of the issue is that the spinning Earth is subject to a cosmic torque caused by the combined action of gravity forces of other celestial bodies (mainly the Sun and the Moon). A reason why the spinning Earth precesses.</t>
+  </si>
+  <si>
+    <t>The torque caused by the two opposing forces Fg and −Fg causes a change in the angular momentum L in the direction of that torque. This causes the top to precess.</t>
+  </si>
+  <si>
+    <t>Here is a sketch of a spinning body, subject to the moment of the gravity, a cause of its own precession.</t>
+  </si>
+  <si>
+    <t>At this point, it is not clear if the spinning device has to be initially setup to certain operating conditions and constraints. We may think that it could mimic or model an Earth (https://en.wikipedia.org/wiki/File:AxialTiltObliquity.png).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in bullet 4, we have an initial idea that a rotating device could allow to point to a desired direction, either because it is calibrated in geometry and operating conditions or because it is isolated from external constraints</t>
+  </si>
+  <si>
+    <t>Linear momentum (p = m v)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <t>Torque (moment of a force)</t>
+  </si>
+  <si>
+    <t>kg⋅m/s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x m </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nutation</t>
+  </si>
+  <si>
+    <t>Here below, is a frame by frame view of a spinning disc rotating counter-clockwise on its main axis (1), subject to an angular momentum on a input axis (counterclockwise, green), for instance caused by a torque applied to the spinning axis, resulting to a resistant angular momentum on a output axis (blue) (2), subject to an angular momentum clockwise applied as an input on the green axis, resulting in a reaction on the blue axis (also clockwise).</t>
+  </si>
+  <si>
+    <t>Here below, is a conceptual sketch showing how a rotating disc is subject to a torque caused by the spinning Earth; an improvement of this sketch has to use gimbals (allowing the disc to position according to the applied torque).</t>
+  </si>
+  <si>
+    <t>i, j, k</t>
+  </si>
+  <si>
+    <t>j x k = i</t>
+  </si>
+  <si>
+    <t>i x j = k</t>
+  </si>
+  <si>
+    <t>k x i = j</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">F , τ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">F = τ </t>
+    </r>
+  </si>
+  <si>
+    <t>Below is the illustration of a so-called "counter-intuitive" effect of a torque applied to a rotating rigid body:
+(1) left, a non-rotating disc on its axis, will tilt in the plane of the applied forces -yellow arrows- (causing the torque);
+(2) right, the rotating disc, subject to a torque will tilt in the plane of the applied torque (arrow with gray head)</t>
+  </si>
+  <si>
+    <t>Thus, above the rotating disc subject to the torque as shown on the green axis (input), will tilt in the same plane (spinning axis, green axis) causing a rotation about the blue axis (output)</t>
+  </si>
+  <si>
+    <t>The 3D model is in the directory, and can be open with a glb viewer or online (https://gltf-viewer.donmccurdy.com/)</t>
+  </si>
+  <si>
+    <t>https://github.com/Frederic-jyrg/ouitoo/blob/main/info-plotting/gyro/rotating%20disc%20full.glb</t>
+  </si>
+  <si>
+    <t>https://gltf-viewer.donmccurdy.com/</t>
+  </si>
+  <si>
+    <t>viewer</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,12 +779,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -614,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -655,11 +876,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,13 +918,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>447676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>40005</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>153833</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -714,7 +942,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8983196" y="25145441"/>
+          <a:off x="8983196" y="26097941"/>
           <a:ext cx="178397" cy="277657"/>
           <a:chOff x="4953000" y="26117550"/>
           <a:chExt cx="652462" cy="990600"/>
@@ -874,13 +1102,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400286</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>390290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>68343</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>573170</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -898,7 +1126,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="18000000">
-          <a:off x="8356787" y="24090407"/>
+          <a:off x="8356787" y="25042907"/>
           <a:ext cx="182880" cy="273175"/>
           <a:chOff x="4953000" y="26117550"/>
           <a:chExt cx="652462" cy="990600"/>
@@ -1058,13 +1286,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>236934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1119,13 +1347,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>638175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1169,13 +1397,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1847850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1219,13 +1447,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1268,13 +1496,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1317,13 +1545,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1378,13 +1606,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>529590</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1448,7 +1676,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>300403</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>652096</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1719381" cy="264560"/>
@@ -1506,13 +1734,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>143608</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>81329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>238858</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>139211</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1528,7 +1756,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9265196" y="24779094"/>
+          <a:off x="9265196" y="25731594"/>
           <a:ext cx="913280" cy="1021588"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
@@ -1637,13 +1865,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>376604</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>570033</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1659,7 +1887,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8287957" y="23297589"/>
+          <a:off x="8287957" y="24250089"/>
           <a:ext cx="909831" cy="1017709"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
@@ -1768,13 +1996,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>432289</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>168520</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>197827</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1818,13 +2046,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>205154</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>395654</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1868,13 +2096,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>500177</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>411773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>525089</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>21248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1929,13 +2157,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>201972</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>74002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>509703</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>131884</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1951,7 +2179,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13604207" y="24771767"/>
+          <a:off x="13604207" y="25724267"/>
           <a:ext cx="912849" cy="1021588"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
@@ -2060,13 +2288,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>112951</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>101476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>522526</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>57514</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2082,7 +2310,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="3559629" flipH="1">
-          <a:off x="13562661" y="24751766"/>
+          <a:off x="13562661" y="25704266"/>
           <a:ext cx="919744" cy="1014693"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
@@ -2191,13 +2419,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>441813</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>222007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>243987</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>134084</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2213,7 +2441,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="12433185" y="25120400"/>
+          <a:off x="12433185" y="26072900"/>
           <a:ext cx="2018783" cy="1617527"/>
           <a:chOff x="14161477" y="24858785"/>
           <a:chExt cx="2014904" cy="1626577"/>
@@ -2296,13 +2524,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>67408</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>391258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>6447</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>92173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2366,7 +2594,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>826476</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>20514</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1719381" cy="264560"/>
@@ -2424,13 +2652,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>547550</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>436306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>174381</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>102931</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2498,13 +2726,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>415185</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>460485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>42015</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>127110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2572,13 +2800,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>428626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>134783</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2596,7 +2824,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13330518" y="25126391"/>
+          <a:off x="13330518" y="26078891"/>
           <a:ext cx="178397" cy="277657"/>
           <a:chOff x="4953000" y="26117550"/>
           <a:chExt cx="652462" cy="990600"/>
@@ -2756,13 +2984,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2804,13 +3032,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3429000</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2854,13 +3082,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>103908</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>536863</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2897,13 +3125,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>376518</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>170105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2935,6 +3163,336 @@
         <a:xfrm flipV="1">
           <a:off x="12192000" y="32709971"/>
           <a:ext cx="10058400" cy="6075605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2129118</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/PrecessionOfATop.svg/220px-PrecessionOfATop.svg.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40036D8-1F6F-4800-8C92-7A24E9B7ED85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="33618" y="40901471"/>
+          <a:ext cx="2095500" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>50426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>324969</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>173691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E52583-6343-4201-9F5E-C48ED4252440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123264" y="43618897"/>
+          <a:ext cx="4482352" cy="3361765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>414616</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41086</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2DC4DA-75C9-498D-9B62-8E40D82D9A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695263" y="43624501"/>
+          <a:ext cx="4467411" cy="3350558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>316096</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>164234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9256059" y="43624501"/>
+          <a:ext cx="4462272" cy="3346704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>163605</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>66975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44823" y="49137794"/>
+          <a:ext cx="10058400" cy="5199269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>68520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="31204" r="19140" b="8137"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="0" y="50280793"/>
+          <a:ext cx="4840941" cy="4629315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>436268</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>189929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4885765" y="49126588"/>
+          <a:ext cx="6095238" cy="4571429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3208,11 +3766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,55 +3781,55 @@
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3282,880 +3840,1055 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="H25">
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I30" t="s">
         <v>23</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K30" t="s">
         <v>25</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L30" t="s">
         <v>26</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="H26">
+      <c r="H31">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I31" t="s">
         <v>24</v>
       </c>
-      <c r="K26">
-        <f>H26*2*PI()</f>
+      <c r="K31">
+        <f>H31*2*PI()</f>
         <v>0.10471975511965977</v>
       </c>
-      <c r="L26">
+      <c r="L31">
         <f>1*1*1</f>
         <v>1</v>
       </c>
-      <c r="M26">
-        <f>K26*L26</f>
+      <c r="M31">
+        <f>K31*L31</f>
         <v>0.10471975511965977</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="H27">
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I32" t="s">
         <v>24</v>
       </c>
-      <c r="K27">
-        <f t="shared" ref="K27:K29" si="0">H27*2*PI()</f>
+      <c r="K32">
+        <f t="shared" ref="K32:K34" si="0">H32*2*PI()</f>
         <v>6.2831853071795862</v>
       </c>
-      <c r="L27">
-        <f t="shared" ref="L27:L29" si="1">1*1*1</f>
+      <c r="L32">
+        <f t="shared" ref="L32:L34" si="1">1*1*1</f>
         <v>1</v>
       </c>
-      <c r="M27">
-        <f t="shared" ref="M27:M29" si="2">K27*L27</f>
+      <c r="M32">
+        <f t="shared" ref="M32:M34" si="2">K32*L32</f>
         <v>6.2831853071795862</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H28">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H33">
         <v>10</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I33" t="s">
         <v>24</v>
       </c>
-      <c r="K28">
+      <c r="K33">
         <f t="shared" si="0"/>
         <v>62.831853071795862</v>
       </c>
-      <c r="L28">
+      <c r="L33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M28">
+      <c r="M33">
         <f t="shared" si="2"/>
         <v>62.831853071795862</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="H29">
+      <c r="H34">
         <v>100</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I34" t="s">
         <v>24</v>
       </c>
-      <c r="K29">
+      <c r="K34">
         <f t="shared" si="0"/>
         <v>628.31853071795865</v>
       </c>
-      <c r="L29">
+      <c r="L34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M29">
+      <c r="M34">
         <f t="shared" si="2"/>
         <v>628.31853071795865</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+    <row r="39" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="J34" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="J39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+    <row r="42" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="N37" s="21" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="N42" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O37" s="21"/>
-    </row>
-    <row r="38" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="O42" s="23"/>
+    </row>
+    <row r="43" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="47" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M43" s="20" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M48" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="20" t="s">
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+    </row>
+    <row r="49" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+    <row r="73" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+    <row r="77" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="8"/>
-      <c r="C76" s="7" t="s">
+    <row r="81" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
+      <c r="C81" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="11">
-        <v>1</v>
-      </c>
-      <c r="J76" s="8"/>
-      <c r="K76" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
-      <c r="C77" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="11">
-        <v>0</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
-      <c r="C78" s="5">
-        <v>0</v>
-      </c>
-      <c r="D78" s="5">
-        <v>0</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="11">
-        <v>0</v>
-      </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
-      <c r="C80" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N80" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M81" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N81" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P81" s="13"/>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
-      <c r="C82" s="5">
+      <c r="C82" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="9">
         <v>0</v>
-      </c>
-      <c r="D82" s="5">
-        <v>0</v>
-      </c>
-      <c r="E82" s="9">
-        <v>1</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="11">
         <v>0</v>
       </c>
+      <c r="I82" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="J82" s="8"/>
-      <c r="K82" s="11">
+      <c r="K82" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="5">
         <v>0</v>
       </c>
-      <c r="N82" s="11">
+      <c r="D83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="E83" s="9">
+        <v>1</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="J83" s="8"/>
+      <c r="K83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J85" s="8"/>
+      <c r="K85" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N85" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J86" s="8"/>
+      <c r="K86" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N86" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" s="13"/>
+    </row>
+    <row r="87" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B87" s="8"/>
+      <c r="C87" s="5">
+        <v>0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+      <c r="E87" s="9">
+        <v>1</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="11">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8"/>
+      <c r="K87" s="11">
+        <v>0</v>
+      </c>
+      <c r="N87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>63</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F89" s="11">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J89" t="s">
         <v>59</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K89" t="s">
         <v>60</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L89" s="11">
         <v>0</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M89" t="s">
         <v>62</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N89" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P84" s="14" t="s">
+      <c r="P89" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="T84" s="8"/>
-      <c r="U84" s="5" t="s">
+      <c r="T89" s="8"/>
+      <c r="U89" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="V84" s="7" t="s">
+      <c r="V89" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W84" s="17" t="s">
+      <c r="W89" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Y84" s="14" t="s">
+      <c r="Y89" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="F85" s="11">
+    <row r="90" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F90" s="11">
         <v>0</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H90" t="s">
         <v>58</v>
       </c>
-      <c r="L85" s="11" t="s">
+      <c r="L90" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N85" s="11">
+      <c r="N90" s="11">
         <v>0</v>
       </c>
-      <c r="T85" s="8"/>
-      <c r="U85" s="7" t="s">
+      <c r="T90" s="8"/>
+      <c r="U90" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V85" s="5" t="s">
+      <c r="V90" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="W85" s="17" t="s">
+      <c r="W90" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Y90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="F86" s="11" t="s">
+    <row r="91" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L91" s="11">
         <v>0</v>
       </c>
-      <c r="N86" s="11">
+      <c r="N91" s="11">
         <v>0</v>
       </c>
-      <c r="T86" s="8"/>
-      <c r="U86" s="7" t="s">
+      <c r="T91" s="8"/>
+      <c r="U91" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="V86" s="7" t="s">
+      <c r="V91" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="W86" s="9" t="s">
+      <c r="W91" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="92" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+    </row>
+    <row r="93" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>54</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C93" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F93" s="5">
         <v>0</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G93" s="9">
         <v>0</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I93" s="11">
         <v>0</v>
       </c>
-      <c r="M88" s="11">
+      <c r="M93" s="11">
         <v>0</v>
       </c>
-      <c r="Q88" s="11">
+      <c r="Q93" s="11">
         <v>0</v>
       </c>
-      <c r="S88" t="s">
+      <c r="S93" t="s">
         <v>78</v>
       </c>
-      <c r="AF88" s="15"/>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E89" s="16">
+      <c r="AF93" s="15"/>
+    </row>
+    <row r="94" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="E94" s="16">
         <v>0</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F94" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G94" s="9">
         <v>0</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I94" s="11">
         <v>0</v>
       </c>
-      <c r="K89" s="5" t="s">
+      <c r="K94" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="M89" s="11">
-        <v>0</v>
-      </c>
-      <c r="O89" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q89" s="11">
-        <v>0</v>
-      </c>
-      <c r="S89" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="T89" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF89" s="15"/>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E90" s="16">
-        <v>0</v>
-      </c>
-      <c r="F90" s="5">
-        <v>0</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M90" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q90" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF90" s="15"/>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AF91" s="15"/>
-      <c r="AI91" s="15"/>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D92" s="11">
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
-        <v>0</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M92" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C93" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D93" s="11">
-        <v>0</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G93" s="11">
-        <v>0</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J93" s="11">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>83</v>
-      </c>
-      <c r="L93" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M93" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI93" s="15"/>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D94" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J94" s="11">
-        <v>0</v>
       </c>
       <c r="M94" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="O94" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q94" s="11">
+        <v>0</v>
+      </c>
+      <c r="S94" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="T94" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF94" s="15"/>
+    </row>
+    <row r="95" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="E95" s="16">
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF95" s="15"/>
+    </row>
+    <row r="96" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AF96" s="15"/>
+      <c r="AI96" s="15"/>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C98" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>83</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M98" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI98" s="15"/>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D99" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J99" s="11">
+        <v>0</v>
+      </c>
+      <c r="M99" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+    <row r="104" spans="1:35" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-    </row>
-    <row r="100" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+    </row>
+    <row r="105" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-    </row>
-    <row r="101" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+    </row>
+    <row r="106" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G108" s="2" t="s">
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G113" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N108" s="2" t="s">
+      <c r="N113" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G109" t="s">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
         <v>90</v>
       </c>
-      <c r="N109" t="s">
+      <c r="N114" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G110" t="s">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>98</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>108</v>
       </c>
-      <c r="O136" t="s">
+      <c r="E141" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O141" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>105</v>
       </c>
-      <c r="O137" t="s">
+      <c r="O142" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>107</v>
       </c>
     </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+    </row>
+    <row r="202" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="24"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+    </row>
+    <row r="203" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N222" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O223" t="s">
+        <v>142</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O224" t="s">
+        <v>141</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B246" s="21"/>
+      <c r="C246" s="21"/>
+      <c r="D246" s="21"/>
+      <c r="E246" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="M43:O46"/>
-    <mergeCell ref="N37:O37"/>
+  <mergeCells count="16">
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A39:E39"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C44:E48"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A246:E246"/>
+    <mergeCell ref="M48:O51"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="C49:E53"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A221:E221"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A5" r:id="rId3" location=":~:text=than%20this%2C%20however.-,Relativistic%20(Einsteinian),near%20a%20large%20rotating%20mass." xr:uid="{B61D22E3-250D-44EE-B96D-97502284921D}"/>
-    <hyperlink ref="E113" r:id="rId4" xr:uid="{071ED97D-3E69-41AD-83A4-B29545476925}"/>
+    <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal."/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3" location=":~:text=than%20this%2C%20however.-,Relativistic%20(Einsteinian),near%20a%20large%20rotating%20mass."/>
+    <hyperlink ref="E118" r:id="rId4"/>
+    <hyperlink ref="B188" r:id="rId5" tooltip="Precess" display="https://en.wikipedia.org/wiki/Precess"/>
+    <hyperlink ref="E141" r:id="rId6"/>
+    <hyperlink ref="A140" r:id="rId7"/>
+    <hyperlink ref="P223" r:id="rId8"/>
+    <hyperlink ref="P224" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="171">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -734,12 +734,180 @@
   <si>
     <t>model</t>
   </si>
+  <si>
+    <t>torque free or torque neglected</t>
+  </si>
+  <si>
+    <t>body=disc</t>
+  </si>
+  <si>
+    <t>main symmetry axis inertia</t>
+  </si>
+  <si>
+    <t>perpendicular symmetry axes inertia</t>
+  </si>
+  <si>
+    <t>Ip = 0.25 x M x R^2 + 1/12 M x H^2</t>
+  </si>
+  <si>
+    <t>Is = 0.5 x M x R^2</t>
+  </si>
+  <si>
+    <r>
+      <t>tilt angle (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α)</t>
+    </r>
+  </si>
+  <si>
+    <t>Precession rate</t>
+  </si>
+  <si>
+    <r>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>= (Is/Ip/cos(α)) x ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>body=sphere</t>
+  </si>
+  <si>
+    <t>Is = 2/5 x M x R^2</t>
+  </si>
+  <si>
+    <t>Ip = 2/5 x M x R^2</t>
+  </si>
+  <si>
+    <t>Spinning speed</t>
+  </si>
+  <si>
+    <r>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>Ip</t>
+  </si>
+  <si>
+    <t>cos(α)</t>
+  </si>
+  <si>
+    <t>10 rev/s</t>
+  </si>
+  <si>
+    <t>torque induced</t>
+  </si>
+  <si>
+    <t>(α)=(moment of inertia, axis of symmetry)</t>
+  </si>
+  <si>
+    <t>(θ)=(spinning axis, precession axis)</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>kg⋅m/s²</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <r>
+      <t>sin(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>= m x g x r /Is/sin(θ) / ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +945,28 @@
       <color theme="1"/>
       <name val="Wide Latin"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -835,7 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -889,6 +1079,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1284,16 +1475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>236934</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488454</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9070</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>246530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1323,8 +1514,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12172950" y="4046934"/>
-          <a:ext cx="4438649" cy="2496740"/>
+          <a:off x="11840013" y="3742766"/>
+          <a:ext cx="7622469" cy="4325470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3174,67 +3365,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2129118</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/PrecessionOfATop.svg/220px-PrecessionOfATop.svg.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40036D8-1F6F-4800-8C92-7A24E9B7ED85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="33618" y="40901471"/>
-          <a:ext cx="2095500" cy="2447925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>123264</xdr:colOff>
       <xdr:row>201</xdr:row>
       <xdr:rowOff>50426</xdr:rowOff>
@@ -3259,7 +3389,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3309,7 +3439,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3353,7 +3483,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3397,7 +3527,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3441,7 +3571,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3484,7 +3614,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3493,6 +3623,50 @@
         <a:xfrm>
           <a:off x="4885765" y="49126588"/>
           <a:ext cx="6095238" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2204569</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41853971"/>
+          <a:ext cx="2204569" cy="2577353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3769,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X187" sqref="X187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4725,62 +4899,281 @@
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B190" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q190" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>144</v>
+      </c>
+      <c r="J191" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>145</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J192" t="s">
+        <v>145</v>
+      </c>
+      <c r="N192" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>146</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J193" t="s">
+        <v>146</v>
+      </c>
+      <c r="N193" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>149</v>
+      </c>
+      <c r="X194" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z194">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>150</v>
+      </c>
+      <c r="D195" t="s">
+        <v>151</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I195" t="s">
+        <v>158</v>
+      </c>
+      <c r="J195" t="s">
+        <v>5</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>150</v>
+      </c>
+      <c r="S195" t="s">
+        <v>151</v>
+      </c>
+      <c r="T195" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="X195" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B196" t="s">
+        <v>156</v>
+      </c>
+      <c r="D196" t="s">
+        <v>157</v>
+      </c>
+      <c r="E196">
+        <f>K198</f>
+        <v>62.831853071795862</v>
+      </c>
+      <c r="F196" t="s">
+        <v>8</v>
+      </c>
+      <c r="I196" t="s">
+        <v>159</v>
+      </c>
+      <c r="J196" t="s">
+        <v>5</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>156</v>
+      </c>
+      <c r="S196" t="s">
+        <v>157</v>
+      </c>
+      <c r="T196">
+        <f>Z198</f>
+        <v>62.831853071795862</v>
+      </c>
+      <c r="U196" t="s">
+        <v>8</v>
+      </c>
+      <c r="X196" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="D197" t="s">
+        <v>151</v>
+      </c>
+      <c r="E197">
+        <f>1/K197*K195/K196*K198</f>
+        <v>63.80113568319662</v>
+      </c>
+      <c r="F197" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" t="s">
+        <v>160</v>
+      </c>
+      <c r="J197">
+        <f>10*PI()/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="K197">
+        <f>COS(J197)</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="S197" t="s">
+        <v>151</v>
+      </c>
+      <c r="T197">
+        <f>Z194*Z195/Z196/Z197/Z198</f>
+        <v>2.2913419713100291E-2</v>
+      </c>
+      <c r="U197" t="s">
+        <v>8</v>
+      </c>
+      <c r="X197" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y197">
+        <f>10*PI()/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="Z197">
+        <f>SIN(Y197)</f>
+        <v>0.17364817766693033</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I198" t="s">
+        <v>161</v>
+      </c>
+      <c r="J198">
+        <v>10</v>
+      </c>
+      <c r="K198">
+        <f>J198*2*PI()</f>
+        <v>62.831853071795862</v>
+      </c>
+      <c r="X198" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y198">
+        <v>10</v>
+      </c>
+      <c r="Z198">
+        <f>Y198*2*PI()</f>
+        <v>62.831853071795862</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I199" t="s">
+        <v>163</v>
+      </c>
+      <c r="X199" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
         <v>128</v>
       </c>
@@ -4789,19 +5182,19 @@
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="24"/>
       <c r="B202" s="24"/>
       <c r="C202" s="24"/>
       <c r="D202" s="24"/>
       <c r="E202" s="24"/>
     </row>
-    <row r="203" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="209" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="210" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="211" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="187">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -902,12 +902,237 @@
       <t>s</t>
     </r>
   </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>[N]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">m </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <t>r sin(θ)</t>
+  </si>
+  <si>
+    <t>r cos(θ)</t>
+  </si>
+  <si>
+    <t>m g r sin(θ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">d </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  dt</t>
+    </r>
+  </si>
+  <si>
+    <t>m g r sin(θ) dt</t>
+  </si>
+  <si>
+    <t>- m g</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">d L = L sin(θ) sin (d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>f )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = L sin(θ) d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m g r sin(θ) dt = L sin(θ) d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = m g r /L =  m g r / Is / ω </t>
+    </r>
+  </si>
+  <si>
+    <t>hint: torque free precession derivation</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=derivation+of+precession+rate+with+no+torque&amp;sca_esv=b07fa04fa9278463&amp;rlz=1C1CHBD_enUS1144US1144&amp;ei=nrGCZ-2VDtmm5NoPjbe-iQk&amp;ved=0ahUKEwjt3PLVn-6KAxVZE1kFHY2bL5EQ4dUDCBA&amp;uact=5&amp;oq=derivation+of+precession+rate+with+no+torque&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiLGRlcml2YXRpb24gb2YgcHJlY2Vzc2lvbiByYXRlIHdpdGggbm8gdG9ycXVlMgUQIRigATIFECEYoAEyBRAhGKABMgUQIRifBTIFECEYnwVI7WVQ5whYlE9wAngBkAEAmAFZoAHfCaoBAjIwuAEDyAEA-AEBmAIWoAK1CsICChAAGLADGNYEGEfCAgUQIRirAsICBxAhGKABGAqYAwCIBgGQBgiSBwIyMqAHkZAB&amp;sclient=gws-wiz-serp&amp;safe=active&amp;ssui=on</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,6 +1193,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1025,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1067,19 +1299,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1475,10 +1709,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>488454</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
@@ -1514,8 +1748,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11840013" y="3742766"/>
-          <a:ext cx="7622469" cy="4325470"/>
+          <a:off x="12348882" y="4031530"/>
+          <a:ext cx="7113600" cy="4036706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3321,7 +3555,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>376518</xdr:colOff>
+      <xdr:colOff>29135</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>170105</xdr:rowOff>
     </xdr:to>
@@ -3641,8 +3875,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2204569</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3943,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X187" sqref="X187"/>
+    <sheetView tabSelected="1" topLeftCell="C166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC184" sqref="AC184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3953,6 +4187,8 @@
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4091,13 +4327,13 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -4237,13 +4473,13 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
       <c r="J39" t="s">
         <v>36</v>
       </c>
@@ -4259,26 +4495,26 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="N42" s="23" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="N42" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="23"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -4291,56 +4527,56 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M48" s="22" t="s">
+      <c r="M48" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
     </row>
     <row r="49" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
@@ -4368,13 +4604,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -4382,13 +4618,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -4785,31 +5021,31 @@
       </c>
     </row>
     <row r="104" spans="1:35" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
     </row>
     <row r="105" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
     </row>
     <row r="106" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G113" s="2" t="s">
@@ -4899,78 +5135,162 @@
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB181" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB182" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB184" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC184" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE184" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF184" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH184" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI184" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB185" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC185" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE185" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF185" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH185" s="8"/>
+      <c r="AI185" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB186" s="8"/>
+      <c r="AC186" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE186" s="8"/>
+      <c r="AF186" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH186" s="8"/>
+      <c r="AI186" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B190" s="25" t="s">
+      <c r="AB188" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC188" s="8"/>
+      <c r="AD188" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF188" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC189" s="8"/>
+      <c r="AD189" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+      <c r="B190" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="Q190" s="25" t="s">
+      <c r="Q190" s="22" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AC190" s="8"/>
+      <c r="AD190" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>144</v>
       </c>
       <c r="J191" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AF191" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>145</v>
       </c>
@@ -4984,7 +5304,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>146</v>
       </c>
@@ -4997,8 +5317,11 @@
       <c r="N193" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB193" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>149</v>
       </c>
@@ -5012,10 +5335,13 @@
         <v>168</v>
       </c>
       <c r="Z194">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+        <v>0.05</v>
+      </c>
+      <c r="AB194" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>150</v>
       </c>
@@ -5031,8 +5357,8 @@
       <c r="J195" t="s">
         <v>5</v>
       </c>
-      <c r="K195">
-        <v>1</v>
+      <c r="K195" s="26">
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="Q195" t="s">
         <v>150</v>
@@ -5050,10 +5376,10 @@
         <v>166</v>
       </c>
       <c r="Z195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>156</v>
       </c>
@@ -5073,8 +5399,8 @@
       <c r="J196" t="s">
         <v>5</v>
       </c>
-      <c r="K196">
-        <v>1</v>
+      <c r="K196" s="26">
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="Q196" t="s">
         <v>156</v>
@@ -5084,7 +5410,7 @@
       </c>
       <c r="T196">
         <f>Z198</f>
-        <v>62.831853071795862</v>
+        <v>125.66370614359172</v>
       </c>
       <c r="U196" t="s">
         <v>8</v>
@@ -5095,11 +5421,11 @@
       <c r="Y196" t="s">
         <v>5</v>
       </c>
-      <c r="Z196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z196" s="26">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="D197" t="s">
         <v>151</v>
       </c>
@@ -5124,9 +5450,9 @@
       <c r="S197" t="s">
         <v>151</v>
       </c>
-      <c r="T197">
-        <f>Z194*Z195/Z196/Z197/Z198</f>
-        <v>2.2913419713100291E-2</v>
+      <c r="T197" s="26">
+        <f>Z194*Z195/Z196/Z198</f>
+        <v>3.1830988618379075</v>
       </c>
       <c r="U197" t="s">
         <v>8</v>
@@ -5143,7 +5469,7 @@
         <v>0.17364817766693033</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I198" t="s">
         <v>161</v>
       </c>
@@ -5158,14 +5484,14 @@
         <v>161</v>
       </c>
       <c r="Y198">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z198">
         <f>Y198*2*PI()</f>
-        <v>62.831853071795862</v>
-      </c>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+        <v>125.66370614359172</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I199" t="s">
         <v>163</v>
       </c>
@@ -5173,28 +5499,40 @@
         <v>164</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="21" t="s">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X200" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z200">
+        <f>Z195*Z194*Z197</f>
+        <v>2.6047226650039553E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-    </row>
-    <row r="202" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="24"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="24"/>
-      <c r="D202" s="24"/>
-      <c r="E202" s="24"/>
-    </row>
-    <row r="203" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+    </row>
+    <row r="202" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="21"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+    </row>
+    <row r="203" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="209" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="210" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="211" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5211,14 +5549,14 @@
         <v>137</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="22" t="s">
+    <row r="221" spans="1:16" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
+      <c r="B221" s="23"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="23"/>
+      <c r="E221" s="23"/>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N222" t="s">
@@ -5242,21 +5580,16 @@
       </c>
     </row>
     <row r="246" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="21" t="s">
+      <c r="A246" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B246" s="21"/>
-      <c r="C246" s="21"/>
-      <c r="D246" s="21"/>
-      <c r="E246" s="21"/>
+      <c r="B246" s="24"/>
+      <c r="C246" s="24"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A201:E201"/>
     <mergeCell ref="A246:E246"/>
     <mergeCell ref="M48:O51"/>
     <mergeCell ref="N42:O42"/>
@@ -5268,6 +5601,11 @@
     <mergeCell ref="A106:E106"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A201:E201"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal."/>
@@ -5279,6 +5617,7 @@
     <hyperlink ref="A140" r:id="rId7"/>
     <hyperlink ref="P223" r:id="rId8"/>
     <hyperlink ref="P224" r:id="rId9"/>
+    <hyperlink ref="AB194"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>

--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E58606-8669-42DE-8E43-EC4C6DDFA983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="219">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -474,9 +475,6 @@
     <t>5. Euler angles</t>
   </si>
   <si>
-    <t>Here, I want to compare, so-called Euler angles (see wikipedia article) to this online:</t>
-  </si>
-  <si>
     <t>https://demonstrations.wolfram.com/Gyroscope/</t>
   </si>
   <si>
@@ -1127,11 +1125,110 @@
   <si>
     <t>https://www.google.com/search?q=derivation+of+precession+rate+with+no+torque&amp;sca_esv=b07fa04fa9278463&amp;rlz=1C1CHBD_enUS1144US1144&amp;ei=nrGCZ-2VDtmm5NoPjbe-iQk&amp;ved=0ahUKEwjt3PLVn-6KAxVZE1kFHY2bL5EQ4dUDCBA&amp;uact=5&amp;oq=derivation+of+precession+rate+with+no+torque&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiLGRlcml2YXRpb24gb2YgcHJlY2Vzc2lvbiByYXRlIHdpdGggbm8gdG9ycXVlMgUQIRigATIFECEYoAEyBRAhGKABMgUQIRifBTIFECEYnwVI7WVQ5whYlE9wAngBkAEAmAFZoAHfCaoBAjIwuAEDyAEA-AEBmAIWoAK1CsICChAAGLADGNYEGEfCAgUQIRirAsICBxAhGKABGAqYAwCIBgGQBgiSBwIyMqAHkZAB&amp;sclient=gws-wiz-serp&amp;safe=active&amp;ssui=on</t>
   </si>
+  <si>
+    <t>8. The eight shape</t>
+  </si>
+  <si>
+    <t>Here is a 8 shape described by a user handling a mobile device for the calibration of attitude angles.</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>8 shape figure described in user's front view with the right hand</t>
+  </si>
+  <si>
+    <t>9. Attitude angles</t>
+  </si>
+  <si>
+    <t>A user describes a circle with one's right hand [Deg] ------&gt;</t>
+  </si>
+  <si>
+    <t>model: inversion of the Y component while the Y component accounts for two times the X component  ---------&gt;</t>
+  </si>
+  <si>
+    <t>-----------&gt;</t>
+  </si>
+  <si>
+    <t>horizontal -------------------------------------------------&gt;</t>
+  </si>
+  <si>
+    <t>vertical ---------------------------------------------&gt;</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Euler_angles</t>
+  </si>
+  <si>
+    <t>Here, I want to compare, so-called Euler angles (see wikipedia article, ref 9 above) to this online:</t>
+  </si>
+  <si>
+    <t>The ref 9 proposes definitions for attitude angles, euler angles: α, β, γ, or ψ, θ, φ or Yaw, Pitch, Roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this gyroscope demonstration, the third gimbal (inner) relates to the roll (spin 3), the second gimbal relates to the pitch (spin 2), the outer gimbal relates to the yaw (spin1). </t>
+  </si>
+  <si>
+    <t>Here is the continuation of bullet 5 about attitude angles.</t>
+  </si>
+  <si>
+    <t>They describe the position of a mobile device.</t>
+  </si>
+  <si>
+    <t>yaw</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>2 (right)</t>
+  </si>
+  <si>
+    <t>5 (left)</t>
+  </si>
+  <si>
+    <t>in degrees</t>
+  </si>
+  <si>
+    <t>illustration 1 (user view -front-)</t>
+  </si>
+  <si>
+    <t>illustration 2 (from front right)</t>
+  </si>
+  <si>
+    <t>Illustrations on the right show the mobile phone in various positions in a 8 shape figure described by a user (there is a x -blue-, y -red- and z, -black- basis for reference.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>pyr</t>
+  </si>
+  <si>
+    <t>According to ref 9 the final position seen in the illustrations can be achieved by following the order of chained rotations given in the table.</t>
+  </si>
+  <si>
+    <t>https://github.com/Frederic-jyrg/ouitoo/blob/main/info-plotting/gyro/mobile-attitude.glb</t>
+  </si>
+  <si>
+    <t>Viewer:</t>
+  </si>
+  <si>
+    <t>3D Model (to manipulate):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1215,7 +1312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1252,12 +1349,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1303,17 +1424,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1337,6 +1471,1163 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0555555555555555E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.89814814814814814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$281:$CL$281</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96592582628906831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90630778703664994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8191520442889918</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70710678118654757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64278760968653936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57357643635104616</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42261826174069944</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34202014332566882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25881904510252074</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17364817766693041</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.7155742747658138E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1257422745431001E-17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.7155742747658235E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.1736481776669303</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.25881904510252085</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34202014332566871</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.42261826174069933</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.49999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.57357643635104583</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.64278760968653936</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.7660444431189779</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.81915204428899158</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.90630778703664994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.9659258262890682</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.96592582628906842</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.90630778703665005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.81915204428899202</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.70710678118654768</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.64278760968653947</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.57357643635104638</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.42261826174069994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.34202014332566938</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.25881904510252063</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.17364817766693033</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.7155742747658249E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.83772268236293E-16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.7155742747657888E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.17364817766692997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.25881904510252113</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.34202014332566816</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.42261826174069961</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.70710678118654735</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.76604444311897779</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.81915204428899158</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.86602540378443837</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.90630778703664971</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.96592582628906831</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98480775301220791</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$282:$CL$282</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17364817766693033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34202014332566871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64278760968653947</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34202014332566888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17364817766693028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.22514845490862E-16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17364817766693047</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34202014332566866</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7660444431189779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86602540378443837</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93969262078590821</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98480775301220813</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93969262078590854</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76604444311897812</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64278760968653958</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3420201433256686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17364817766693127</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.45029690981724E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.17364817766692991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.34202014332566893</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.49999999999999928</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.64278760968653914</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.76604444311897779</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.86602540378443882</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.93969262078590809</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.98480775301220813</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.93969262078590865</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.86602540378443915</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.76604444311897879</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.64278760968654036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.49999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.34202014332566871</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.1736481776669305</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.67544536472586E-16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.17364817766692978</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.34202014332566799</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.50000000000000067</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.64278760968653836</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.76604444311897824</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.98480775301220813</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.93969262078590865</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.86602540378443915</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.76604444311897879</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.64278760968653903</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.34202014332567049</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.17364817766693064</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-4.90059381963448E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B546-4FBE-9619-CF0D53C9F663}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1897458991"/>
+        <c:axId val="1897557039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1897458991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1897557039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1897557039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1897458991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1357,7 +2648,7 @@
         <xdr:cNvPr id="53" name="Group 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE26C9D-D3A0-75D7-0E3C-F27EC90267D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,8 +2658,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8983196" y="26097941"/>
-          <a:ext cx="178397" cy="277657"/>
+          <a:off x="9117666" y="26097941"/>
+          <a:ext cx="178398" cy="277657"/>
           <a:chOff x="4953000" y="26117550"/>
           <a:chExt cx="652462" cy="990600"/>
         </a:xfrm>
@@ -1378,7 +2669,7 @@
           <xdr:cNvPr id="50" name="Oval 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FD70AB-B583-1ED4-8C17-627291CD856C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1423,7 +2714,7 @@
           <xdr:cNvPr id="51" name="Oval 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D5483B-F141-C065-2F74-C805F11D29A0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1474,7 +2765,7 @@
           <xdr:cNvPr id="52" name="Isosceles Triangle 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C22A15E-8033-F7CF-342E-FDA3EFE23C9A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1541,7 +2832,7 @@
         <xdr:cNvPr id="58" name="Group 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583D23FD-42FB-48AC-8D72-FFB04FF3B769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,8 +2842,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="18000000">
-          <a:off x="8356787" y="25042907"/>
-          <a:ext cx="182880" cy="273175"/>
+          <a:off x="8491257" y="25042908"/>
+          <a:ext cx="182880" cy="273174"/>
           <a:chOff x="4953000" y="26117550"/>
           <a:chExt cx="652462" cy="990600"/>
         </a:xfrm>
@@ -1562,7 +2853,7 @@
           <xdr:cNvPr id="59" name="Oval 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CA0F1F-4A06-C46A-E714-95773F6EB059}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1607,7 +2898,7 @@
           <xdr:cNvPr id="60" name="Oval 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6FA8E1C-7D08-63AE-1D68-8D89248D9C83}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1658,7 +2949,7 @@
           <xdr:cNvPr id="61" name="Isosceles Triangle 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736D2E48-9468-58F9-5B68-FF610645DA1A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1716,7 +3007,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>9070</xdr:colOff>
+      <xdr:colOff>9071</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>246530</xdr:rowOff>
     </xdr:to>
@@ -1725,7 +3016,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="What is Moment of Inertia? (with Practice Problems)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7962DA08-721F-4AC9-8187-A3650DED30D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +3077,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6411A8-2B05-434D-90C2-C0DA961F91BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +3127,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72112DE3-E815-4B7D-8705-E5220CD208B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +3177,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86509F3F-7B87-40E7-9591-1937720D5835}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +3226,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151DA2F8-E8A2-4125-BCF3-148F5F0CE057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +3275,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1A50F7-E836-6EE2-33D7-7A24CDE0FE37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +3336,7 @@
         <xdr:cNvPr id="9" name="Arc 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E6401E-6398-942E-3E74-94C2E52A7CE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +3401,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4ADC6A-D1B8-4920-5BAF-60F435C5BDB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +3464,7 @@
         <xdr:cNvPr id="15" name="Group 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BEE3AB-66ED-84BB-7BB1-C61D2509C7E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,8 +3472,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9265196" y="25731594"/>
-          <a:ext cx="913280" cy="1021588"/>
+          <a:off x="9399667" y="25731594"/>
+          <a:ext cx="913279" cy="1021588"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
         </a:xfrm>
@@ -2192,7 +3483,7 @@
           <xdr:cNvPr id="5" name="Oval 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F7A708-C512-477C-98D9-F1F037BE6397}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2240,7 +3531,7 @@
           <xdr:cNvPr id="14" name="Smiley Face 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEFEDDE-816E-5D5A-4694-49B6EB1B1820}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2304,7 +3595,7 @@
         <xdr:cNvPr id="16" name="Group 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974342F0-59CB-42C7-8A4D-606B8689FEC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +3603,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8287957" y="24250089"/>
+          <a:off x="8422428" y="24250089"/>
           <a:ext cx="909831" cy="1017709"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
@@ -2323,7 +3614,7 @@
           <xdr:cNvPr id="17" name="Oval 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D9C304-1196-74A5-DF18-3161001BBABB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2371,7 +3662,7 @@
           <xdr:cNvPr id="18" name="Smiley Face 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FEF9390-557B-B0BA-C453-E0390096E6C5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2435,7 +3726,7 @@
         <xdr:cNvPr id="20" name="Straight Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9558ED45-1378-02FE-ADDF-82C09AD94619}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +3776,7 @@
         <xdr:cNvPr id="25" name="Straight Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90ADDE28-9DCF-471B-A75E-4023DE15AACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +3826,7 @@
         <xdr:cNvPr id="30" name="Oval 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33739BF-2717-4281-9A33-6F11D7421882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +3887,7 @@
         <xdr:cNvPr id="32" name="Group 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8096D5-5F67-4B94-B9FE-7FC8FDE45198}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +3895,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13604207" y="25724267"/>
+          <a:off x="13738678" y="25724267"/>
           <a:ext cx="912849" cy="1021588"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
@@ -2615,7 +3906,7 @@
           <xdr:cNvPr id="33" name="Oval 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F00F2E-10D3-2959-318E-F7C469D9F03E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2663,7 +3954,7 @@
           <xdr:cNvPr id="34" name="Smiley Face 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4359ED1-9A28-C91C-636E-503D54E45DE2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2727,7 +4018,7 @@
         <xdr:cNvPr id="35" name="Group 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1D9625-4DB0-413B-AC2F-89A0FFC6ECFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +4026,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="3559629" flipH="1">
-          <a:off x="13562661" y="25704266"/>
+          <a:off x="13697132" y="25704266"/>
           <a:ext cx="919744" cy="1014693"/>
           <a:chOff x="9265627" y="24860983"/>
           <a:chExt cx="915865" cy="1017709"/>
@@ -2746,7 +4037,7 @@
           <xdr:cNvPr id="36" name="Oval 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C5FD94-24A4-65F6-214F-CE14E0E76691}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2794,7 +4085,7 @@
           <xdr:cNvPr id="37" name="Smiley Face 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F195ED-247E-02D4-B909-1B1EC4764751}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2858,7 +4149,7 @@
         <xdr:cNvPr id="46" name="Group 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED05E9E-014C-C41F-3F0C-A85CBFB92F83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +4157,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="12433185" y="26072900"/>
+          <a:off x="12567656" y="26072900"/>
           <a:ext cx="2018783" cy="1617527"/>
           <a:chOff x="14161477" y="24858785"/>
           <a:chExt cx="2014904" cy="1626577"/>
@@ -2877,7 +4168,7 @@
           <xdr:cNvPr id="44" name="Straight Connector 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D1AA26-E9FD-4729-8D65-0B2D736AE209}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2912,7 +4203,7 @@
           <xdr:cNvPr id="45" name="Straight Connector 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B42B74-090F-43AE-8B1E-7FE93800A388}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2963,7 +4254,7 @@
         <xdr:cNvPr id="47" name="Arc 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EAEF97-6D45-4A8D-B79D-67307D40CFC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +4319,7 @@
         <xdr:cNvPr id="48" name="TextBox 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE141673-A2D1-45C8-91D2-B2D9D1AEC6BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +4382,7 @@
         <xdr:cNvPr id="49" name="Circle: Hollow 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B06D0E6-E8E3-402A-86DC-796A999A2255}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +4456,7 @@
         <xdr:cNvPr id="12" name="Circle: Hollow 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1F249D-E8AE-E2D2-F0E6-9399B578BD58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,7 +4530,7 @@
         <xdr:cNvPr id="54" name="Group 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE989FE-1BE5-4717-B3D0-56ABB7551577}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,8 +4540,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13330518" y="26078891"/>
-          <a:ext cx="178397" cy="277657"/>
+          <a:off x="13464988" y="26078891"/>
+          <a:ext cx="178398" cy="277657"/>
           <a:chOff x="4953000" y="26117550"/>
           <a:chExt cx="652462" cy="990600"/>
         </a:xfrm>
@@ -3260,7 +4551,7 @@
           <xdr:cNvPr id="55" name="Oval 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6198A6A-57ED-04CA-F8F5-AA3650AEE558}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3305,7 +4596,7 @@
           <xdr:cNvPr id="56" name="Oval 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AEE413-A558-4C4F-62A4-058A03E3B2D3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3356,7 +4647,7 @@
           <xdr:cNvPr id="57" name="Isosceles Triangle 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FD39D0-7A09-5704-6DE2-BAB4E5535FFB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3423,7 +4714,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAWgAAAFoCAIAAAD1h/aCAAAACXBIWXMAAAsSAAALEgHS3X78AAAgAElEQVR4nOy9eZxlVXnv/XvWWnvvM1WdquoJmlkQAyJNotBGgUIFE8E4JDcxipA5N4Py3vfqjXFqEVDigPd9TfKam3hvDILxmuTNoMaxA92odMvYIDJP3V1dXUNX1Zn3tJ7n/rH2OV3dNk1X09CNrC/9OZ+qouizz+bUr57ht56HRAQej8ezFNThvgCPx/P8wwuHx+NZMl44PB7PkvHC4fF4lowXDo/Hs2S8cHg8niXjhcPj8SwZLxwej2fJeOHweDxLxguHx+NZMl44PB7PkvHC4fF4lowXDo/Hs2S8cHg8niXjhcPj8SwZLxwej2fJeOHweDxLxguHx+NZMl44PB7PkvHC4fF4lowXDo/Hs2S8cHg8niXjhcPj8SwZLxwej2fJeOHweDxLxguHx+NZMl44PB7PkvHC4dk3GzZsuPnmmw/3VXiOULxwePbNzTff7IXD81R44fB4PEvGC4fH41ky5nBfgOcIZXx8/HBfgufIhUTkcF+Dx+N5nuFTFY/Hs2S8cHg8niXjhcOzb7yPw7MfvHB49o33cXj2gxcOj8ezZLxweDyeJeN9HJ59430cnv3gfRwej2fJ+FTF4/EsGS8cHo9nyXjh8Owb7+Pw7AcvHJ59430cnv3ghcPj8SwZLxwej2fJeB+HZ994H4dnP3gfh8fjWTI+VfF4PEvGC4fH41kyXjg8+8b7ODz7wQuHZ994H4dnP3jh8Hg8S8YLh8fjWTLex+HZN97H4dkP3sfh8XiWjE9VPB7PkvHC4fF4lowXDs++8T4Oz37wwuHZN97H4dkPXjg8Hs+S8cLh8XiWjPdxePaN93F49oP3cRx+Zu6/Zfb+jYPYj0VO+5UPHc4L8nieDi8czzV3fvkaIhDRvf9wjSIoglZkFIyCVtAEAghgllN/5UMiOPktHzzcl+zx7I0XjmeX7fds3HbvRiLc/qWriUgRlCIiKAIRCDCajEKgYRQFCkbDKBiCVlAECAhiGSe9+UMscvwveRHxHBF44Xi2eHLLxi+99yJFIAVFVCgFgUAAiABAKwS60ItQU6AQGhhFgYZRCDRpBaOgAE0CACKWZfUbP8SMoy/+wLN6/Rs2bBCRCy644Fl9Fs/zFF8cfVZ4/O6NX/ivF7mYghjUVwoQACHA6UegKWTJNQUCK5IrygWBFisUagghAIhAikiR0dAERej8x58R5NGbPp7lEpx0XnjSecc9C5HIzTff7IXD81R44Tj0/M3/ddFDd25wsUVfIwTFBwAIEACKyGgJNdyfQFOgJWTKGTlLxhRYCQ1FjMBAACGIokBBKWhFBESh2Mnvx1u/d9c3P7bsFz/oExnPc4YXjkPM59590f23bxCASJxMUF8+AIig/w8UictEjEKoERqEGpFxH1BoJNCUyUBBEGkKjYiTHyGjoRRpSBCgVFLZLdc++eQty37hg7UXn3dYb4DnBYGvcRwyHr1r4zc+f/WPb9+Qc1H4pN1iAbgwo/8xUPRTXCdFq6K0EWhEhiKN0FBkKCw+QKgpMCgZKgUoBVQyFBoEGloXXRgRsVbSlNWx547+wgeHnrF8OL+5T1U8+8QLx6HhkTs3/r9/dGFqkTMYADC4r4tVY/GnTi+KR0X9D2AUGY1COzSFBpEpHishVUJUQooCKgcUmUJrVF8+WMTmnMXMx5w7+voPDJ96/nN+JzwvCLxwHAIevnPjZ/7gwoyRMyyLXSQQWBxu9D+VIlWBIiccVJg4XABSGDqKNm2hGprKIVVDqoSohlSNqBRSKaBSQJFBoMlokAaJOPngjJMe56vPrV/0gZGXePnwHGK8cDxT/vsfXnT/bRtylpxhBe7xJ+ML6UsG+h8TFV2SvnwUwmHUYimBVhQoBLrQi1pI1YgqYfFBFFIUUimgSCMwUIpICwkgYGFJJe5y+YL3j1z07PZuPS80vHA8I677zxfef/uGjGH7qpEzctmtGrsLHNIXkz3LHIUrrC8fSkETzCIFGRRQo4CqIdX62lENqRLSUIRKpKKIwoBKASLTDz1cRVaErUjC3Q5H4+8fff0S5MP7ODz7wXdVDp5P/ucLf3zbBruXajC4UA3BIMQAsKjqMYAFgDhvmCIigrJQCoqkXzFFXzgos5LmSHJJLaVMmaWMKWdKLQ8xgZ1lBCVQQKQ1oEFE2ghCFZSZ7/zEzg3XBue/f9kvHJB8eB+HZz944ThIHrhj4482b7Cyh2pYgYjsGWg8/V/FAgisUxBAMVEhJbsVJFDIDDKLzCLJkWRIS0ht8ZXUIs0xZIESIGBAiEICaSJDREKBRqSWldne/YnJDdcu+91/D1/ku7aeg8cLx0Hy49s2ZAweSEZR2pDFtYyl4kIVFnGJhotBcoKySJVkjEwjY+QWaS7djOKM0pxSqzKLnJFaGbI0bBUxIJCAIncoRhMZEIgC0iW1qsL5P76xvfLV5rz3l0728uE5GHyN4yB528sCFtiBajwzydgnzglCBIXiXJyzirk+S6ipFKAaUb2khss0FFEtKoogwyWqlVQpoiCkIKTAQBkiDVIgEbAgE46507bNsVcd80ff3Oezex+HZz/4iONg+KfPXV3oBcOKsOxRBz1w1qwdP3Pt+ODjLZs3bNm84Z7NG9xXChkSMMQJB0vfkG6LzCXJEWe2m6leiRIXfTBSi9TysKWqJWJFEYIifnH9G4EWZTBkyLRu3fX5i8Pz/3ToJxwfXjI8+8FHHAfDr50RJDlygZUDDTQIUISzXjn+jnevO/Ocpxmu5RRksYg4+v0X0s6lrgtTaRTABRrDJVUv01CpCECGS2q4RNUSBREFIemISBNM4RWDZcSc9nh+zg7/5r+XfdriOWC8cCyZ+2/f+MHLX5dYyflpJKPoiaLosL7j3R/+9T9et9Snu/6zVwH44mevGnxlIB+7MxeN0FA5hNOO4RLVyzRcUkMRDZdpuETDZVUqkYnIlIhMP+5gwDIStj1uNizW/umot3t4DgwvHEvmyt+68M5bN6S2yFCeCk3FcVhNFChcc/13X3r2M53ief1nrxqEIQP5CPr+9FCjFFC1CD2K6GO4RPWKGqnQSEVVShREypSIAoIBNOBKHglLzN0Wd+s/v+L3v+Gey/s4PPvB1ziWzD2bN1gRxlOqhqK+swswCme9cvzKv/3uIXnqy69YB2DL5g3Xf/aqezZvYIEiYUHOlFnJDHJGmkucUS+jXoZeRt2MMoZlZYWtqBpYSBlAuXBIK2iBJgqoash0Nk1+qFb/zW9UTjnP+zg8+8ELx9L4yv93dd+vsY9/S4UBtKhCGsLLXzX+gc8fGtUYsGbt+HU3rl8sH1bEMjKmzEpkKLPiiqa9TCU5WUbOwqIskEPVwYAygFIEBShCUFxuZGhFSM0vX6Lf8fVDe82enzJ8qrI0fvn0ILVIeR+3zUmG84xrQqBQDvCFu7Jn9Xqu/+xVg/IHAUbBaAr7Z/PLIY1UaKyiRqtqWZWWV9VwTdWrql6hUkkFEalSXzW0QADL6DH3uNuwX78juf8l77vyyiuf1ev3PE/xC5mWwH23bcy56KQshmj3cfhAIdQoGZQC/MoffvjZvqTLr1j3nUfyy65YB0CAjBHn0svQSaWdSqMns22eafNsm6dbPNXi+SYvtHlXRzo9zhKxsSArrKbQhFChptWwri4zb35V6f8+8YfP9vV7nqd44VgCX/7Lq1gKf+diBi1SdxDeDR8OFE57xQXPzYU5+XCWEBGkVnqZdDN0UmnFmG3zTMs67djZ4tmGbbV4riPNHmex2FiQMizAgFIIFCqa6ro0osvxpvmrh+NHb3luXoXneYRPVZbAm34myFhy3uOLxSAvKs6wGgV3Cv5l51zwXz73nef4CgeFD/epUQg1lQOUQxop07KqGq2qsQotq6oVQ6o2pGpVVa+oMCJTIpTdXgZAofDSd63tcrwrtz/7vuELfafWsxtfHD1QvvyXV7MI/0SSovrn4gczeIwio/DG33/W85SfZK+6ac5gERayIszImS3DMjnP6woBGCwYFlUGNJhKqjCfBMV4Mh1yOaD8/k/Pb/3e6G//+3P/ijxHJj5VOVBEYH8iTxmM0jC7VQNG44yzx0/52cM2d8vJhyt8sCDOpZeinchCV3Y27UyLZ9o83eLJBZ5rcqfJjQ63Y8ljkUHJgwlaIVKoalU34Qo9lG+Kv3RJ7xGftngALxwHDmPvcEP1w41idgY5rxcFCj/zisM/rW9x3TSx0suknUijh6kmTzd5ps0zbZ5csLMN22lwq8WtnmQxS0+QOo0EFCFUqGjUjVlmgnSz/P9vzB732uHxqcqBs49wg4qZXf1pXYFCoFAyuOi3D0Oesk8uv2LdmrXj7730dRmDM3HFXctcTC1j5/LAChGwMOsaOIIq9jmQggFCOF3UgS0HlH/1TfGZf1K64P2H+5V5Die+OHqgXHyqyRaVRdWiAX9unZJRCBVKBr/0+x++8LeOFOEY8J5LX3fP5g2KEGkqBaiEVC/TiiG1vKpGq2pFTa0aVsM1VRpS1aoqlxWVCSWFkKAB48qlgoSlbTFve+W1lct8yeOFi09VDpTF+koErUiporphikGhCDRKBsEReVOvu3H9mWvHWdDLpZuiFctcVyYbvLPJMy3e2bQTC3a+yXGTOy3udNn2BD1GunfJg0YMLTeVZPPsR4aaD2083C/Lc3jwqcqBsjgyW1wTHQwlDxRCTZHur4k98nANl/de+rrEFjkLMyxzZiVn5VotOctyBjHAKEEZMKCKmULaLbNVAEBYDkzdcIlc+vW6X7/wwuOI/OV4RDLQDVpUE108iNx5RrU6ou/pmrXjn75xPYCM4cqlC12ebvKOBZ5q8lSTJxZ4Z8O2mzZu2rjFuYs74n65lBQCQllhSGOZWXV82L3hkvkHfNzxguNIfpMfoVB/Ko/p71IyixREqyM34nCsWTvubKZWEOfSTdGIZbbNOxbsZIOnmrxj3u5Y4EaT44aNmzbvMGJG4nIWASkECmWFYY3l5ugTwu4Nl8zd77XjhYVPVQ6IK1/72sWpChXrpKEAhUVL2Aha4cjWjYLrblzvyqW9XFiIi/O1NrOSW1WspGOMCQCUFIwiEKOs3IgRBH2rGOEYQvfOT+A0n7C8gPBdlafnv732te+96aZ3nqzdp5pgNAUKbmyfG5/jPq0YlAz+5FvJ4b3gA8eVPAAE/YVPwyVaVlUrh4s+y9HDavmIrgyraFjrmkJFoUQwBAOIIBfEFi2LmbxbemXlUn8Y/4WCT1Weho9+9KPn33TTzsVf6m+i32023708idTz6o7uUfJIpRXLQpenWzyxYHc0rEte5hoctzhtWe4wei5nkf6JOEJZY9hgRVCJN3VuvORwvyDPc8Tz6m1+mHgIuLW0+At9exT11xeoPbKV5xd7lTzaCRZ6PNviHQs82eDJpp1s2l1Npx0sHUYsSGTRaVpCWaGusSKoeu14weCF42kYHx//AXBHebceLFp30j/bRsVyea2c6fL5x8DlEefSSdCIZa7Dk02eXOAdDd7ZsHNNTpx2tC16goSLPovu10pHNFYG1WRT22vHCwAvHE/DBRdc8PGbbmr+xNfdwle3b031Yw1DUEd4T+Wpue7G9Z++cb0AiZVOIo1Y5rtOO+xEgycbPNe0SZuzFqPDcEdaWGD7tdKydtpRSza1b/Da8VOOF46n5yUXXPDGj145+JR21zh2b5nXbiqHIkXP42Lz4pJHN5VmT+a7vLPJkwt2R8NONni+4bTDYne9A2BAE0LarR2p146fcrxwHBh7jeFYnLAsOlCvFV556RF3SmVJDEoeeV87dnV4Z2HusDsaPN/gpMV2d9zhpocRtNpLO1peO3568cKxZAYtFfeoqT8ETEErTNz702CFciWPjNHJpBnLrg5PNnliwe5YsJNNu9DkpGVtk9FhdBfnLAohoaIxarAqqKWbWl/02vHTiTeALQ1XwNhdHFVQfcu5VnjFg/mT0zcd5kt8xnz+Mx/95hevfKwH6tJYRXVSIYDAxavu96FHiSKCch44pRD14w4SEABDQG1qU+uLlwxd5v0dP214A9iBctEpBgABYX/zQNmgFFA1pFpIp7T41zelAFJA3XSTeT7vMfrW5z/auPXK78whPA75BD22RYUa1ZBGKmpZlVbX9XFj+tgxfcyIGq3raFjRiEZNoaoQKRjAAFaQMbqMhVx2Zu1g7ZA/g//ThU9VDga3yYicAUzh9benv7QpdcM6QoBf85r85psP7xUeKn7zUzJ6AqcWnVQaPd7Vkcmm3T5vd8zbyQY3mpy2WBqDnIXBgCW42SRVjVFDRwXVbHPz+osP90vxHEq8cCyZ3WVRglZ40V0pz/Ms0AMG2iHPZ+2ohKQy/dtrzR+9WQF4z6WvO3PteGrRTlBoR8Nun7cT83ZHwzaanLUtmozuoh4tuwnr5LRDHR3Wcq8dP1X4GseBcuba8cHagYFw5FvtxIJUAQEEWA5UAAUEQP6a19ibbtLPk5zlvn+4phrRA/90zbKaGovouGPKpS6F38cJm0jrH57xUnxoq/rRJLcTIjBBEdmiG62gFOpEAQ26TYNR6f16B0EhrO3c3Lz+4uHLfc7y04AXjgPlrLXj92ze4ARCpGjQRieaXU1+cKHYQS3Air52mCNeO+788jUjZZr6xsdWDKllZRVE9KqXRsZQYKAUSBOUEwEC4b//Ru09X+rcs9W2EwIxkSLYgemeCCME7QqlxdwBBQsEBFKFdlBYm9zc/LuLh3/Da8fzHi8cS0ak0AgGiLDs7GjhjvShOe6LCZYD1b522Ne8hm+6SR1h2jH5o43fufKik5frsRF9+nFBqaqCilKh87H1x40McB8Krvvd4ff8r9Y9T+RIiNxJFeKiyQJSRMMEXQRjAsWIFLg/NIwAQFFY27G5+YWLh3/Ta8fzGy8cS4al0A4UYTiOe1U0uSl5aJbRjzsAVAANaIBf85rGlVfWP/KRw3rVBU9u2Xj/P33MbL/llSeFK4ZVtaZMVamyQkSICJp2TxOR/iP3oyym635/+D1/07zn8RwggPvlHusSNyIMuwZtkbBIEY0ENIhEFMLajs2NL1xc99rxfMa3Y5eA68hqQjWiSkCVkEbKVIuoFtFwRA9vjINpfjFwErAaWAFUATfDg4GZCy5YddNhtnjc9vfXTHz9Yyev0KtH9FBNBTVFVYUSIXJTzKiolTsXOUuhGtz3lfdjrff8deOex/PI0HAJoxW1ckgdN9rv0Y7qobqiEY0RjapCVaGkijnpOSMVtCzmMrs9nczOOfYPv3l4b4jnoPERx5KRwU+QAIuOrvzcReW7v9t7aKrIWVy9owZo4L7TdGnuluZ7Lnp81/eGI6pGNHzq+ctPP98NB3abTZJckhxJLmf+2ocO+TVP/Gjjo//y8WjylrUvCpYN62BIUU2hpBARQgXT7zBbIHdH5qUINBarhi3CkOt+p/6ezzfueSJvxf24Y9EAZ1KouU518S+ASIGBQAGCGmBFZ7Jy6+bs8VuCk8475C/W8xzgI44lMPCAVUKqhlQJMFpR9TJVI6pHVIuoZLD5m73jltHRhlZq9NaYoZKqRVQJKQoQGAoNtCGliQyUJhEwg1nYglmYwQy2kjPSXOJUKqecXz/1vFZPjr744Hc+f+3Dv1CevOXkFWbVqCoPaQy5QV4KUXGeFxpgwApyIBfke4qF7T+6rxfmWbzn+ta9W4u4Y6yqVg6p48d2xx1VF3TUB94w91yClBEzFnJMZ53HUnnzV2sv9trx/MMLxxL44mevuv6zVxFQDqgWUTnASFmNVakaUlVLzfDKITVWUSMlqpYoNBQEpDVIEykiDVIgTaRBrgbpDtUCgCuZgBkicB2aQkesMINzsQmnPUlXnTt66nnTLX7Rmz94IBe87Z6N//HR15+6Sp+0XK9YbrSzeJYUSoRQQaG4ACcNTjJySMrsFMQKcoh7zEWsQKAUuQUJW7Zl7/tKh4CBdhw1PNAOs3pUV0YURjXqGlWFmipCGwhSRtdiPsfOLJZzSm/3hvTnHz5VWTKyqAIgQABZHvLqYbWsapZV1XCZwoAQkHK7ZPfSC/frXfWnAClgUftin248AYRFLCQTTjbbBzetSnjh2k+2Ozx24QfiVNQJ547sa7PJ1ns2fufKi05bZU50qjGqMaxRVagoaCpUwwUa7iVZIBfuctoVm4jTC1iRHGyFLdgKBFqT1tCaTl9hPv6W6gf+pZPk0oqJSAhcZCtERFitUFaDgc6ABpSCpmLgoAVyCSc2LfztxSO/5QulzzO8cBwMrsYxFOC0ZTh5jFbU9GhFDZcpDBUZUEAUkAqIDJGbCa76M9FdMcBl/v1BQMWPFvYQkQG0+MtSrGKUVIZSlkc/HSSS3fvJua/wbJOPfsMH1fHnVk85D8CTWzZ++yMXnXa0OXG5XrnC6JH+b/6KQqBgCOQkQwrtSAWxcIeTLicdzhMRW0QZeY7UIs0lzkWBQo1QU2hgNJ08oq58Q+XKb3TjXBC7Wg8T0cAedoxCqOH2cUMLlLgteAgYFYXcqExq2zbNffvjY68/+FzM89zjhWMJnLl23H0wWsI5x9JLV6lVNTVaVcMlCkOlDBAQOb0wRTwPUFFlVAIhECACIkjfKwWBDD7tRyK0p5T0E5r+o5BAu5/5TIJMKimPJcKPfTq775NzTZ572fu+8/mPnrHanLRcr1xp9KhBXaGmUVEIqK8aAAO5IBHEgh7bDieFcEjck8xKkkuSIe5XbTMLrRBqhIacdoSallfova8pf/qmXpJJf05aoRrum48ypE3fIaKBsgIRDEEUhgArJpXK/Z9KTzkvfJEvdjxv8DWOpXHRKeb1J6ufO0avGlZjFTVUUuWIlCFxgYYhclaIPTbN/kS4MTicj0X7nYrz6f0kYvA4+Mru2EN2//2Fw6JfpEjl8UfTr3+nc8Zqc/IqfdRKE4yZokJZxBqAIlhBJsUIrx6jy3mH0w7HXem0ea7FjViSXJJc4qxo96RWIAg0BRpBXzVCg9DQUIkmm/zZjbECSgHVy7SsSseM6JOW6xOXm+OX62XLtBo1GNUY6jdoDUCClNFjzOeYyuYfjkff/5MTGj1HKD7iWAKbbrzmd19ujq4XgcZIRYUhiQEMKdPPR1wgMPgRL37CZffPvJuRTmCIDI53aIIGKYIWaIJa/OiqA+jXU90CqP5/KYueRvDIQ+lXv9U+69jgRSv1yhUmWGZ29zVchjLoucaMHqPD6HDe4V5Heh2eb/J0y063uZMUgUaaS5wjySVnBGq3cAzkoxxQL6OxivrDV5c+9/04zopXqhVHAUWBjQwiQ8PGFifu3QshBUMIFAQY1shlNAk7N1xSfacvlD4/8MJxQDx858bb//6a7LGNx4yoZRU1VFaVEgUhISQy/WDBFSAKRBiWYa1oW/yA234J0oJc7qKA0nd66SOZftfw7uaLJnIF1MX9FwUEVCQaZrGI9AcKkTz4QPKvN8z/3LHmpJV65UoTLTcY0ahpVBVCVXyzFeSMhBEz2iwNm3a40+Zmi2ebPNXi6RbPtKWXSZGhWCS5sECTG3EmRiNQhXBEBkMRJTklOUbK9LuvjD6/KYlTISBQHBo41YgCGwRUNoPub7/YYQgBoaKRC/KgvG1T9+aPVy7wxY7nAV44Dohbrr86e3zj8SN6WVUNlVU5onJIFFDhDAUKc5RARITBjMQK51BWejkyRt7/FhJQ8Z0Y2hibjYkGOv9Po/FbQ0qT0lCatCKli/6F0kVPVwdEASHoK0ghIgJTKMiPvtddc4x50SqzcqUpLTcY7atGpAqVyQUZIxb0BG2RJnfmudm0833JmGrxRIObiSQ5Jppy3Oly4W/J1z9Hza1ktNuV62adiVEUGSkFlORIciQ5xxnVy3T52dH1tyVxLo0YRktkuBTYKKDQ2GMMjNOOQYdlUCitalioVIL7P52deF5woi92HOn4GsfT8+3/efX9/3TNCWPqmLpaXlPVsqpXKIr6VUZFkH7H1IowUiu9HLCwufRS6WbIuV+IELCIFTCjvMOe8S89A1wFfAsA8Ju/WnnFccZoMgpGk9HFo1YUBBSEFAakQ9IhUbinggT0D/97odKzLznaHH2UqTrVGNJ9xzdBE/J+RaPHaDHP2+6cnZ7Jpxd4qsVTLd7Z5PIp57/orPMeu/PmE/imky9G9XTMR7DNj5x71pUAtmze8MXPXnXvDzdEmiKDkkE5pEpA5ZCqIYYjGiqpepnmu/zlu9JAYyiiFUPq2BF90nJ90nJ9/HKzcrlWo7q4tppCWRUi4oodCzmm0+5jKd701copXjuOaHzE8TQ8fOfG2//+6hct1ytraqSiSpGqRBSEA+8WICIWeSaUSZajayXJwbnEGbqpdDNpp5LbgWpABFZgGSfemswD/xU4Gng1AOA7D2RjEWkFrWEUGYVAk9EUapRDqoRUCqkUUhRSEJIJSIdEESFUf/e1RpDwsavN2Kgp1w3qGsOmX4YkaCATpIKEkQi6bBvcm7e7dtknpu1Ew063eOjU8992+Yde8vJxAN/8vDRv3cexmjVrx9fcuN7Jx30/3JBZyqxkuaSWckuZRZJzklO9TD9/orn1ibyTIuhwqFAKUAooNDYyNOqCjkHcESkQEBCEMKSRB5VUkjs+AS8cRzZeOJ6GH9xw9aAaWo6oFFEpIrXoFKlYZJnYRLJEWmnRwuxm0svRTaURSzcVZ5hwZ1IyRm5FdnFtiv8MOHnwRMBbjtVb560iKEW6v3hBEQW6GG5aCakaUTWkSqTKfR25+YFua96ecbQeq+uhYaVqClWNMqHcV41ckHLRdu1yvsC9ebswZ5+YyR+esRMNe8455fFT7uSHP7Uw//2RCz8gezaF9mIgH++99HWpRWYptZLmSHJJc0pZgXDmarNtgScWuJmQ0RIGHBkbGUQBhQGqhXAsdna4lU6A1ciDcGJT6+8uGfoNXyg9cvHCsT++/b+u7jyy8aQxvaxKTjXKERmzu+EqgjyTNBFOpYsLz4wAACAASURBVNHj+Z70+qrRSaUZS6MnriWRMXKLjMUyMgvzQL4VCBY9V3aM2jpvF48RV8pteyp6n6UAkaFSsFs+qpGqRvTDR+IzVptVI7pe18EgBSj1D7y6DCURJCxdzhZsPGdbu/KtM/ahKWvH9K+/bfj0kwLEzO3b0+2bdv3ZJ/LuOU97Z9z6lfdc+rp7Nm9ILDKLjMmyCCRQCLW89czozzf2klwaMQLNkaEooMjYyNAxgY1ch0X3J6QPtKMK5EJ5UNm6KX/ye+aEc5+t/7WeZ4YXjqfkoTs33v2/rz5luV5WVZWSKoVUilQYLIo1gDyTJJEslV7Mcz2ZanGco5dJK5FmLAs9acTI2f2RjPGSl4+f9vLzc4buyJ+978oL+s/17RJeNEwTDVaKFEGRDM6bFo3P/qMzX0UGpZAqAe1YyFfX1TF1NTqiq8MKNYWaLo6iaAIJMpehsHQlXeDenO3O2e2z9qHp/Lhzq7/4q3Vw8Q2qyqW6jlYF6ls/APBXNyA8Du/8L/u7RdfduN5ph0Ck2DUjimA0hwb/6azwH+9O40wWek47UDIUBTYK+q6w3U0W2iNhsaKPMslXf4kv+bfQH589IvHC8ZRsuvGaFTVdDlVkyGgYQ0ZDOUOnQIA8lySRJJU04YWezLR5pi3dVFqpNGOZ6ch8jItee8HQi8/LGb/+rnV7/f0/6uHbV14J4KKPfGTLlVf+5AVs2bzh3h9uMApf+vOrQk2BloGIhJoCA6MwWsLqul4xooeHta5pDLkzbP02SibuD/ckWbC9ubw3Zydn84em7XFrKxe+pe7mh6KqUGZXBKEqqxGN1oHepYF2UCqqvxlTKwRaVg6pX3959OU7kk4K03XdWRsFiAyFgV3mzC+DYoebVOqcHUMGOaJUmv/wxvBPGgf9f9Dz7OG7KvvmG5+/+p5/uGZ1XR09rFYPq6GqqpWpVlGBU1qBtdKLC9Vo9mS6zVsXeKolrVQWejjreDN+ahh3ubfq53/2v33rkFzS9Z+9ShPuu23DfbdtCDUFGscO0xlH65cdY447JhhbZdRygzGDmkJZwwAEdBkdiy4nM7Y9nfdm85kZe//OvBPS771rOUKFkBD2J3QpdxCGv/GV+eZDje/OFRFH79vR2bXXBa/609JTW8KddpQMVUPUIqqFNFallUNq5ZD+2n3JtnkuGRop09Ej6vhRfdJyfcJyc/xyPbxMY8yZTdzxWWdFZ6SCjsVcjsm0y+dU3uGLHUccPuLYBw/esfE7f3v1scMq0OT6GlpBa1IDsyaBWdKMk0S6icz3ZKYjEw2ZastQmf74tRVjSEPCkBqPfe9QXdXlV+wRs1z7e68rT37vmBG9bFQP1bWquSPzhKjv9UoZmSCHdCVp2u68nd9lH57OM4Xfe/MIZi1KgjIhIkQKpX7BMtQI9jimG6wIhvTt+fq39Db/fHPkVavesA+Dlos77t28AUREQgTVg9FiNL/1zOhf7km2z3MzQdh2xQ5EhiKDIKCyc5TudnYApn8EzmrkQWn75njjtaXz33+obqPnkOD3quyDB+/YYBS0dvUFGOfFcoO/UbjJRWAt4lQWurKrw1NN3hXLz54YvvmsMoGUgtIUBlSN1NwDz8o22e4jt6yu66NH9XBdRzWFIYWy7vdfCVwkKUg4a9qkYTvz9pFp20rl9WsqrR1ZNpljKsd0jjmLhkXDos2IBXlR9/2Dd+LdfwgAqCkcH5qXlMq121fs/MzU1cPp47f85PVcfsU6AZJcuim6qXQSme/yfJcbPXnn2SUGkkwWejLT4qkm72jYnQ2eXrBZk9Hs76+OpbDWOjd6VaOu1Spj7v9U9sQ+ntFzGNFX7iu7foHzsd+5sF6mkTKNllW9pIZLKoooClVoqDiZBuSZxKk0OjLT4Z1teaIhL14VrhxS1ZBKAQWm2DkCKzJ03PCp+5iX8Uz4i3ddNJJuO2WlWb1Sjy4zatSgPkhSCArIimOv0rTxbN6ZtY/syB7dZVcvC7s97vWkG0sWi85EZ0KZFM5WFjAeeSBOdsVjL0a4ArGB7ZRPOKqCskJV0ZCujWrc96Xejzfa6vHB2AmDSzrq2BMJ2LJ5gxWgmMhRNJIjQy87JrhjW85MVoTcjm5CoBBqKhso1T8+qwB3k10orAmAUkhv/aJd8Wqz6Ok8hxcfcewDraAV9Y9ywXk39WBjSD/iEJbUymxHdjSlEumckVmxAgAKpDUZQ6WItn7t44f28h6+c2PjwY2rR/SqUT1c12bIhRtUWMtVf8xfJuixbdikwXNz9sc77Y427pnI7tqWb9mWPbAte2wie3Iim9qRdyZzuzPHdI4ZiwWLmPd4PkUoGwxpjBisNDgu1C8uVau362+/efOnf3HxN152xToALEgsEiuJlW4qnVQ6qayuqzecHmYsnQS7Ojzd4p1Nnmzw1IJtLDBaFm2Lrtsj6YabEgKFSGHYYJkpHxvSnZ84tLfR80zwNY59oJ0HovB9k3Ezr9SgEUsQFhYWZBa7OrKjLWNVyVkyS5aL2RpKQYGigEbKh1idb77+6tUj6phRXR9R5brGkEZFo9Q/yeYm9GSCmNHipMndhn18Jr97p80sygGVA65GNFxWy6pqxZBaUeOxYVUfUvUhXa4p01bo7Fkvd/NHSaEEhAoho6RQ0WFdnzN7Z/szI3LW+4ZeW9QgPn3j+vde+rrcSppTqtFN0Umkk0onkQt/Jnx01j48bVsxzWiO+kfgwsCGAdV2u8LcaBJVHIErK1iDTMKJTe0vXlLzi++PDHyqsg/+/W+urpdprEpjFVUv01CZwlAFIdFg0p+VNJE4kV0d3ryd52NEAQ2XVCmkakjVUJVC0oaUgiKSXJpdru9rut9B8OhdG+/6yjUnrzDHrzTLlptgTGPUjdvQxQ+eG+fVFbTY7so7s/m2ybyx4tUXv+fz9VUnbP7ezc6i1k2lHUujx81YurHEsSSJpIkglScnssymX9mMOx7Cma8ET5dOqJX6U0UIgSoOyJQUlXU4rM3O7ycPbpTKcXr0hKOOPXHL5g1TE09C4IrKgaJySKWAygG9/rTo4Zl8psU5g1DEcUYhUFTRMLqvHYr6CcvuaWmkoOef5GWvVvXjD8md9DwTfKqyN3//F1dpRWbxaRFFWkNRf9gfxM3SYEZmcf8su6HkaS65RcawIhAUznGDSqQ6jx6y2t5f/PGFIxU1VlXligoqfZPooCbqTsKkgh6jZdOGbczbR2fyt37822vWjl/67nVffSB/0+9/eFdHpluyo2G3ztlHpvMf7ci3bMvv3Zo9vC17Ynu20LR7PGVPsGDhVtKn4la4oawxZLDM4OhAvygqV26X9W9pfPGS7iO3uO5PzohzSS06mbT6QUcvlV8+q2QFSY65jky3eLrJOxs8tWBnGmybFk2LLqPHiLkYoewW39c0Row+KuCvvckXSo8EvHDsjSl+De4+nGo09OKhof1D8ZYltcgsLMMd1sitZFbyRdmKNhSFxE8emqbsv/yPq+tlGimroYoqVUg7yQj6FkxX3cjgJvRw03Yadvsue9Kb9hiJfvkV677xUP7WP/jwcS87f7otkw3eNmcfncl/PJnfvS3b8mQ229hTONoW0zl25ViwRQckEwjBuMaHwXKD1WF0ammodjt/802nJLe6DosbUxpn6CTSTqSTSjeVF6/QH31TLWfpZpht83Sbp1o82bBTC3ZuwXKT+9ohSKQYYRIQIkJNY8yEqwO5/ZOH5GZ6ngleOPbGGR9dxKEILGABxFVEFxVHWWx/yE3OklnpZZKzpDlyBosTDlKawpDqFfXoP1/zzK/tyS0b6yUarVKlQuWyc230B3M4+5YFYkZP0LJJg2fnbLb61WvfsY8NT5dfse4TN6y/+gvfPWHN+TNt3tnkbfP2sRn748l8Z3OP4mi3zd3JnF31dJdFg9FkdBm5QAihRs1g1GC5UceGtdPL4Y7PXJx+Bi7oyJDk0kmklRRxRzeV01aZd6wt51ZaCWZaPNOyUy3euWCnGtxuWDQZLS6O/2e8u1BaUhjSGNGmd2u88dpnfjM9zwRfHN0bN1xGE7naZ8pumoagvzcZCkKi3EpDCwCpRVb8kCCzkluxLOTWISgiQ7WS6h6KoGPbPRtOP1qPVFS5rIxLUkKFoD+O1K1NSgQdy01uzOdbd9mXXra/DSxr1o6vWbt+y+YNN3z2qvtu29AOqBFjKGAAf/BOVE/HPLDQsNu62fCwqtd1qc6qOxgdSigphARFKGkEhJARUVBWY6P60tfZG9f30tyd+qNB0BFnyK28Y23pRzuy+7bnC12EhkNDblBYZMgYWzGLBqPrRbPCSgpDWi0z6p5PJseeG/nhxocPH3HsjTtaZllSK5kVy0jdnqRBq0ETFMKAiJDmAjixQGolziRnpFZyBgbZSkDliNTE93fd/4ycYF/966vrZRqtqKGKKleUKhFK/XCD+nuV3NCNDvcadmrO2mNefczLnr4ou2bt+KduXH/tF9e/6Kzz5zrSSff4t5MLfO/W9PHt2faJbHYiT6YyTOWYybHAaFi0uGigKoWqxqjBmKEV5qxzynCt2RxxJr1Mem7usZXEwgque3v9pceZ1GKuIzNu/liTdy7YmYZzhfUbtD0uIilXR61q1E24KuDNvjt7OPHCsTeKkFtkFkWlkyVlt8OsDwGGjKFqSC7isIyMJbPoZZLm4qoewruzlSBS9arap+HywPn631xVL9FoRZUrqrQ43ND9PCV3wiHS5WbTPj5rX/qflrCGds3a8U/fuP4bD+ennz2++OuzLd6yLb9ra3b/tuzJiWz79nxuMsumcky5zMWiYRcVPjSGDUaDs15ZxmAPDCOzkllxB/ATt54OuOzcSs7SyzDT5pkWT7fsVNNOLfCuhrXNfkLkih2uJWwIoUJNYUyHvVvzQ1Q58hwEXjj25t7NG1KLxErGhXzkFjkvGm6jikHBlYh+4Xc+fObacQHSHKl1A36LUCVnKBQLmSigakXNf+fgM/MH7tg4UqZ6RdUrqlJWQZlQ6p9Pc72eYkkKo8tZh+eafMIbP3D8mQfTAz5r7R7C0Ux425x9aCq/e1t295Ppw9vTrduzHRNZczKzA9N60+5R+Chp1M3ll9cBiCCzEmfILNzNSS1SKyI464TgU5cNWyudGNMtO+3ijoadWrCNhkXLueBdscMFNQRDKGvUjF5u0n9840HfT88zxAvH3mzZvCFnJDlci8TtE8ncLgNXS6BiOHAppO1f+5jrPqZWMuvCciciyFhcXxYKFFAUqdEhtfXfPnZwV/XInRuGSzRaUdWKqlQIJYVoUbgBLA43ui2eWrA/+7aD3HrvFPKvbsCffw4AkhyzHdnR4Cd32ft32ru25lu2Zo9uy7ZOZDsnsu7OnKdyTFvM9eumMSMHlLrs98YA2MIpJ0kuaY40h7VILZgFwFknBGecYHKWRg8uYZlu8VSDZxq212K0WTqMWJAMurOEgFBVqJvK0UHr+osP7jV6niFeOPbGxQtpjmKwlQVz0SgpELcAhYzB8po6qkZnrh3PLZJMkkzaCbtRo3GO3LU1FcGQCqha1bLtIKPrb/7Pq+oVNVpRlQpFi/spi62iqSDmvGNbLUvHHbLZWe9897pf++MPN2OZacvEvH1sNr9vR37XtuxHW7PHtmdPbs9mdmTJzgzTOWbzwvHRtq6Zeuaakpu0mln0UslySXKxVjIXxAEArvuN+kuPNc6DO93imTbPtnm2ybuanLcs2iw9Rs9Z0V02RCgp1DTGdLm7KXtmCaDn4PDCsTenvWI861c6XbZirQhLzouM2LpYelKNKHvslrPWjgvQyxDn6KRox9xNxdU7hCEAFFGoyiVFO76/8OCSS6T//FdXD5eoXqahClUrSpf79o1BntIXDuly0uFdDa4e0mG/l1+x7pM3rH/Jy89vxDLVkm3z9uFpe+9EdvfW7P5t2ePbs60T2dyOLNuZYyrHrMVCYcc4a00JKKpFRR6XI7UiLJnF4PDPJ94xZFmSHLva7P7Mtnm2adstRouLhKWwhEmRsFQUhoxZaeQ2XyU9DHjh2JszzhnPuHijp/2cnFxT1n2Hy1c0QVMlVI/96zXucFeSSy+VXuoMC9zLJMmF3VZ7TQjIRFQfUvnjSw46HtuycbikRiuqVlGVPcINKhZB9U/Q2w73WrxjwZ6zL+/GM8GVTj9xw/pTf+78hZ5MNvjJXfbBqfye7dmWrdlD27LHt2cTE1lzZ26nssFp/ct+eRhAxsKMNEc3lcRKmkNskcK4+6kCdc1bq5alk2LWqUabZ1s82+S0bdFm6TJiQdy3hOndCYvpburd7G0dzzVeOPbmjHPG0xxFwSIXZycXhjD2GJZmiDSCACtqCsDlV6yzgm4mcS7tRDqxdFOJc+QZ4BRHE0IVVXRr6e/yrVs21Ms0WlXVigoW91Pcubu8GL0hPU463G7xib+0P+/GAbJ7HscinHy8/V3repns6sqOBj82a++fzO/elt+7LXt4e/b49mxyR94tMheLhr38V4ctDzxySDJxFltYcP+GksaZx5nTVmnLWOjJrg7v6hRBx1yTucXiEpZYiiopEYxCWaOm1XKj7vlk/JhPWJ5TvHDszZq144mVnCW1iHM4EbEsJIM3OgEETTCkNQ1F6ol+0BFn0k2lm0orlm7K3UySYpkKoEAhhREND+vJry+hRPqvf331cEQjFTVUUbXF9o2B7ysr8hTb5aRtpxu2fuqz64y6/Ip1334kf/u71rUTme3wtgV+dCb/0Y787m3ZfduyR7dnW3fkc5O5def0ewLnkbOIc+mkkuaS5gBD+mUOt6fuQxeWnPXWRRy72jzT4tmm7bQsWiydPc+wuBNxVYUhHa0ysunPntWX7NkLLxz74B3vXpdapLnEmcS5ZBapBVhk0TZpck1Zg2pEnUe+B+DMteMZw5kjW4m0+0GHdTO1yG06UOWa2vnNJUzo+Lf/cVWtRPWyqpZUtFe4oRZVN2JO2hy3edscH4jpawk8xVBaJx+nvWK8lchUi5+cKwofW7ZlD01kT+zIJndk8c7ssleWAViLnJHl6KUSZ0itsJt2W+yDgDIURfTut70278/smO0sqpK2GW3m3p5nWJyto6oxYsLOpsZ3D/HcE89+8MKxD844e1G2kklqJcsFDLEojGAEqGKLWrlE6WO3wM3OE3RT9DLpJtJ0wpFJ7v5bAJooorCkjl1hWg8fUGh9320bywGVAiqHFAVkDPorY/t5Sn+Oue1x0uZmi1/8lud0afN1N67/1A3rT3vFeKMnOxr8xC770FR+z0R2347s0cl86458YWcOt3ObAYAZliWTfpdK9W+mIROoV513wcvOGc8Z8x3Z1eZdHZ5p82zTLjQt2owOi6uS5gJGYUWvKNS0Xm7MXf7w23OHF459cOba8cSKC61dL6CXo5eKzYUXHRylUFGJgrI6uk6P/vM1a9aOn7l2PLXSTqSXSTuWbszdVNIcyF22QghIh6oyrCcOLFt54I4NoUZkqBxQGBAZEt2fSA632UWQi2SStjnp8NQ8jx6iwR8DH8fT4gofn7pxfZLLfFcmFvixGXvfRH7vRPbgZPb4juyUlZqKiE3coUFncy2cMQogUEDaUHvDtW8a3uQ6LIMq6XSbZ5vcbVlpMzsv6eKEJSA3nbR6tGl+wds6niO8cOyb014x7jYbxhnaibQTaaWSZcJZ//1OBEWqpKhEy0dMMPE9AGetHbeMjlsZm0izJ64va/cIOlRQUSNzPziQyzCEwBThRljEGv3jNOQmJgO5SCppxyZti+PPPX7NIZ5veoC43W4vPWe8ncp0W56csw9O5vdO5D+ezFcNaYGwwI1Hs9wXjuK0MYGINClD1uK8V5ff9vIwZ2knGFRJZ1p2rsm2tShhGUwY1IQSuWMy5e6mZ+jr9xwgXjj2zRnnjDtndDeVZiKtWFqJdBKxGThflPQHispKlWlk1w+e7JdIe5m0E+mm0oy5G3M3kzxHv0RKCCkoqaG6nj2ASsc/fu6qqJj3izDA7uF6rtLCxXhhySSPpdGU6smHeWfidTeu/7QLPXoy0eBHZ/L7JrLplpX+9ly4nEVk911UhYtfBVQrK1od/s4vV884TmcW8x0ZVElnmtxqDlqzjF7f1qEJmlBWGNLBCtO+8ZLD9+pfQHjh2DfvfPe61CLJ0UmlHTsJkFYqcSbWqQCKMJsiRSVVHdL5LdcCuPyKdTnDZSutWFo96aWSuEqEQIhgiCIV1vSu7zy9cJRMkadEAWlDYojcZD0HF0fpJWVOpdmzr3j7IbZvHARF6HH2eDuR6bY8MWeNcsOPkFsXd4hwf9AJiogDGmSoHNFjDyQ4KrzsjVXL0suwqy0uYZlp2dkmpy2WNtvuwIeO3VPCKhp1PbI68LaO5wAvHE/Jz7zi/CQvpki0YmnG0kuknUieChfLRwggBERlRWU6Zpl54DO/eObacRF0U2kn0s3QjLmbcC8TzgDbN4OFpCvqmJWm+8j+4ur7btsYaIoCKgWIArcwEbsLHABcr9fCJsKJ7Grzfv62pbJPH8eBc92N6z914/o4K6oexcw0KXxfzG4AI4B+fVQTBTABVaoKw/qsc8ovOzXIWVpJYetwJ2jnmpZbLK5K2uvbOoDCh17VaplRd38yPnSzGj37xAvHU/LSs8fjDD3XW02kFXM3LmoWnA3e9UX2QSUV1tTY3PdOGKEz146nOVpJ0Vtp96SbSpZLIRyKEJCKVFTX09/aX9Dx4O0b3F6SUkB94ejP8oU7sl5EHJyITfiMXzn84cZiXNH09LPHW7G43IrZNWJhBUqKVRJFfVQBhkxA7ckckUJVX/fBZSzI8kUJS9vONLnrKh2dxT70RVXSIROtNOxtHc8yXjiekpeePd7LJc6lFUs7lWYsjZ4kMbcTSQdVUpc0BIrKikpqdMR01l/rXKSdRDoptxNp9ribcJIJZSBnIdOEiHRFjy38YOLepzy6ohUCTU44QkNi3EyxwfhCKSKOTDjlNJFO+qysAX4mf+matePX3bj+nVes291MsXDZijPU9RsrfUNdqLKZHORSD3X5LxfTSec6MusqHW2ebdq8xdJhLhKWRT70kFBVGNFR+9aFA8gEPQeNF46nZM3acXdMvpehGUsnRTPmVk/SRLqpcC7F7Am4pQFEJaUramj2+8umbwHQS4ugo9GTbk+6qVi3MK3/FldlVRvR3f94yvf3P37uqtCgHCAyFATkTO7QtKgyClggY06k3ePlpx2efsrTcvkV65zJRcQNNxHLEAEtjjgI0KQMBRpI3TRTddnbh192WphbafZ96DMtnmnxfL81K7FbW9n3obsqaU3rZcbc9cnG0s8Teg4QLxz749J3r+vlEmfSjKUVcytBoydxzL1E4hTiqqTux9gQSkqVVGVY5xuvvfyKdblIO5Z26kqk3E04y/ruBXfUoqTUkF7ZunXmx/t+f4caYT/i0LvzFAAAofgNbkVS4USa3UNsGN3t4zgUcYwr/bAUXn4rEIYazFXr+0ehoDWh7cYREgJ92duG3TqF+a7MumylxbNN7jW5sHUMEhbu+9ArGnVTW2Vwq09Yni28cOyPy65Y9zOvGO/liDPMd6UdcyuRZk/yRHopW1eZc+99l2NXlK6olWPmlfwDEXTSwgPigo44dcW8/ls8IlT10JjeZxfgy395daApCooahw5Apm/9okUFjlwklTyV2UNXGX02Ep41a8f7Zv3dxwWLVTWggX8UCkYBTYsWIxHkOGtN+fJfG3Y+9LmO7GoXVdJdTWtbzM7WES+ydRhCpFBRGNWV9q3e1vEs4YXjaXjnu9f1Mokzaacy3xuoAOexxKmIK3m6qoMhhERlFQ3pkdnvvfUNr0lzacXSSaURczvmbsI27TufCDCEslJ1Pdq89SeHdIQagUbJUBRQ5PIUA+zRixW3I1YSyRM+YynjRQ8L7rqV20ZNEFVspi7UsK8dWpEUSxgseoxULntbXYDMSqMnsx1xXtKZNjddpaPTP3GfLxovWNEYMsFy07zB2zqeFbxwPA1r1o6ffvZ4N0ecSaMnCz1uJtLoSZZImkieCnJgUPI0hJLSFTVcN+fi+1bQduaxWJpuQXza/91YBB0KVVMb1cnGvYPqH9++MdBUCsltey9sTqpvtZS++ysTSbnbk07yrFRGDyUiAJQqggxnvi0+VsVEIiFoTZ1Za+fyYhBhj5HIpz6y3AriDAvdYlTHdItnWzZtMXecrYORuHnoNIj+UDdjRwc7/uoNh/uV/xTihePp+fSN6+NMehk6qcx1pRXzQk9aPckTTougo/+tgUJE+D/svXmcXFd1LvqtvfeZaupBLUuyLSwPeMK2TLAtBuNuEA6YIZDckNyLsUle8vi9vIDvezEkBBLZlpmD87sYwg0k3EtsBMmDDIQhEBBSy3iQ59nGk+axh5qHc87ee70/9jnVLVvGsixbsl3fr36to+rqqlPVXV+t9a1vrVUS/ohctlhdeKLspmjFthlzrWNbHdvqWHbc4RptFSESNCRLtZva+3o6Hr5tvYs4QkWeB+pbv5zZ3DIsoIGUbcKtrh099RAro30fx6EiJKacIrIkBTQXaOSlIgEpsX1K16dNMqNRN6hbdOzZrwzOOi3zoc9mJnS7t2lnG9a2rG0bdkFHmgeAGSlLMSpHOzf/ar/MAAeBwUKmA8LFH171na+sDhQaXZ5tczngWtdWIgpDNgErj7MkQgKeAEAWJcN/+DpsqvVmu1zv8GybZ9p2uGjLHRtEBJ2vRAkIJVkckTMbPjN/3p+n4KvMwaGyPAWQ+bft3D4EHXOja8/MB5pPTk6uX7/+qU/hfe+JrrjiigN5skFDv+34uf/+87c/+bVPHtB4vquuuupb/9Z96vXj4+MTExPgfFIgQRA4Czfy6Yfzjh/YFvdSf0kqyynClIVhaHHNx8Yu/MDORHO9h6htiwGVAioFphhS2SfrW6kIiiEIxFn0FwmUVThmZ2/4AtPCYQAAIABJREFUTOGQzlIcYEAcB4RLLlv1zWtXd1L4kqsdW4moHFK9y4WQU5+FYiEYMk+wQYiEYDlkcOWFwe9/p1ft2qEOzbRoQclWOtYvCgoZPmcN8pHAkCpsu7n7+A3RiW8E8K0vr5aUbXJXAsLZHGiewOHa2wwj4SS2rZDe957Ifef9v1U49/j9PIVH78H7f6twIE/2kY1ddHX/v2ed5h2z/IB+8NF7Prffh+5svfZ97+lUTvMY2A6UFuD6W+Ohclopiqs/MOSW0YM4d4JRs8vfu6+4u7GsFJX9MPKCgPzgig/87NJ3l6/7XrOboNblYqvPHTYMCL4lj4QCFEDCFXfhu4RFFp64ufnIhvLJR2i5+sWIAXEcKD6/Zu3HL10ZSDRjzLRtJaRKl4oBSQUh4TuThaspesJpGJIxavljE/6XbkqqIU+17FjLjhRtqWP9gpjbqOwLlGQ0Kn/51YtO+XwLfQURmRAwB9fywQwLGHapStJjOyze/1vBYXphDghP4qxz8l68z97evPehdEEkx0J5xe+UIECEnz7yzm/d+14gBCIgAALAW3f/W9d/7qN3Pxjf/2jS7GFW5cQR2lJICwNrfSKfSM3bGukSloIMR2V98jMD4jiEGBDHgWL5ivHTzxl/7K4NQeLmYnIxsIEipUgqlsoqKSDznMXPuMOzWHEaG8tr7tGzbZpu2QUlWylYr2QpJPgSICggEqjI447xdvzgU8e88xOizxrI7V7oiw0MS7D5ljTLbob4IfxFjh6jvvsdPHEz5BDOei3ectbz+Edy1mneWad57viK6xur3lOEgBRHA2cDEuhnaGLy/qW2YS65sPjRR5Mk5XoPUcsWfSoFphRQMTBFn8h3hhebabC5XI2yrGy6ufrwhpFDrQS9bDEgjmeB91+26mOXrOykCGNMt23gwVPkKfIUhCKhWEh2u5ogCIEALEoiYO+1p8BY/OhRM9WksZIdKdpi2/qRQMTZ9NCAUFbhqNW3fBbv/ESW7+dfc2s7ZxEHch+HBVsYy9ryIfxFjh3r/f7/O3ro7u8ZcN/D6X0P65pQ7351BAITKVEExjDndXMX/tGt5779nNvOOt67d1PaSVDv8nTLumylFFAQWPKJfBJKQHFGHCJTScMRyXtuxIA4DhEGxPEssHzF+Ps+tOq7//Nq91frS+tL8hV5CkqRlAgkSEpIzpovAgEGSgiNet3JvLPBmxo83bJjJVtpW1WyIhHwGR5BCkTAkFyyxJv68af6cYabcTMv6GCwCzcYzolpoQ3ueCDd8qDpyxxHLOZLp52i3y6G1vKysyqnvLUYt+3SpAvdhYASLtZwNOkyOgbMWWM3Nerir35v+K1XTKWaGz2EHhcD64KOUmBGAyKfhE/wGDKvkUtCKKgieePnMP7nh+3Jv7QwII5nh0suW/XNL61uJ1ASSsCTNlDwJLw8Z/GUhRT5onogFACogoLld5/N//uWdG/TLizzSMcW2tYvWoQEQ/ABn1CS/ojUGz9HR310frWhn6NkXzlfwmzBhrXhAvxTfe+aL3RJgiSRJCHdujksWGCe/tnsgwPhnf0WTfaL7nFD2fk6XzmDgXd/4ThjYS2sZWPZaGjNaWLT3twkVxCkSIEmsmEbKaABffqiO/bOasOSLT5/6dCfXlfvpWh07bQHp3SUIypFNgzJRiQ8gsfZKygBn1CQhRHZXvfp4pte0JmsL1UMiONZ4/PfXPvxS1cKcsTBvmJfWd8Rh4SQJJ3SIRm+K5oAAA2pssEl5+C796R7G3asJCptqzpWRAIBAIKEK6+MLTLV//zUnD8qb4VF/6vNjy3DtY1JJYG3nF0QPkmfhC+kR8IjUiQ8Eh4JJYRHpECKhCLnCsm+SiIFkvT1b01TVuBA/wD9kIcAgf969ckgsPtu7vV0Ha6cO7gyAZfmKbmccV2+gulXgqFtHdgMJEAMdIEu0P7ga//7pmnhZnksG5VnLlX3bdOtmKIez7TsUGSHCzRSsH5EFJLwBVyNHHmpKxRUkXbj5zAgjkOBAXE8ayxfMX7aOeO/vGOD7LES1pPwJQLpxA6SyoYKQuURh+dWBwGAGJHDht/zKv7ZY2a6JUaKImqzX2REDONWzwuUpDeqyhVJO20/RXlKxJH7OBhs2JgDs2g9063ee8lCyuIU6h9AgLL2M5pzkRxCzD8ryp5darYAP52YOHp8/OTrrl0tqfm64x7eURPM2eBSw3j3OeF921qp4VaMRo+rbVst0GzBViIRhWxDmwUdyCfCBwJFWRyRzZ9/uvzmAXc8VwyI42BwyWWrPnrxSkEkiT3JSrCvrO/BU/AUpKLAFQWdSdzLXGEA5AhGDd6Y8M27zMKSqLSMKgtRIPiUNWhFAkPyn26Nl1QEPakWiz5r5J/glplhDjQXeX7a1w4RslOzDMsf/4vXf+O3smV0v3nRpz968cpal1yglT11xqIRecoS9ctd2o0vmO3Y4bYYKdjRgg1CF3QQPGdxz2aaunZke/PnMCCO54yB5fxgsHzFuJuL10ww27HNnp1q2T11W23a2ZZttq3u5IPt3AYQV6ANBUrCG5WLjvFetQBTTdvqsG5ZdPMGLedZKklBhFwZzVRS98Ccawa5buiqKs/i1Ps/ewSCMuEmmRdD9V/qepd3N+zuht1eNVum9dSsXnmaDyA13I650eNqx8527GzH9rrMHWvdjJ+sIYAgkLUjj8jG2sGMn+eKAXEcJJavGH//Zau6KTd7mOlwo8t7W3ZP3daattqy7Q5bt6/QSXsABCEUiCQqMligTnqFGvPNbMv2+o3hrnQgCaEUGW+AcrFg7g2fF2Kz+eaWkwOPOI58MKzhRO9DbMtXjF9y2SrHHXsadqppt9fslmkzGtDxY9IwOglaMVc7ttrm2batd63pMnct4ryl0ORDxiIhKlLfNJjT8VwxII6DxyWXrTrjvPGuzuZT1bq8p2n31G29aast2+1Y7jBimy1boz53CFRkuECdeIziXtpq27Rl0bNIbD/omFeL3fch5+IFRzRsLXopb55KX/infwjAT/mvZWvxa//tL590w0suW3XGivFeyvUe727Y6ZbdXjNbZsxrl3mYF3TMtu1s21bbttu1tmNtz84FHe7V9AWKcmhE1gb7Ip8bBhrHc8I1a9Z+5OKVD942KbrwpPUE+dIEKhM7lKJA5VYCVxQkIJIggFSB6CTCtl1JuSQ+85/HUmEYQQEqvPIrJwCjQAkoAuFrl21be/lncmWUgbynngELa7ib8jdu+L+u/t3/dZhfi2fEM+ZHDLJ4Oq33mjVrL7945f23TgIALLOw1hwzLI8eEjvrtpOgHXOta6ttMVu0wwURBixCRsDwGAIwlHnzQiHLMr3xs3jLQOk4eAyI47niC2vWfuTilQ/fvmG2w1JYJYWvbOBlRZZRSUpZKEAKSEDl3CEIgiKJV0j6l1sWX/WdPwFCIAR8wHeCKqAAdcvm5Rd96bjJqz40l6c4U4RlWFiL7z30EeCjP3/gyxe+uni4X4znDMtaPy3B9LmDAJC1TJZx8lFqZz1x5ZVmz6mkNFKw5ZBUh0RI5AFSAM7Ry07pGB6WMz/59IK3DrjjIDEgjkOASy5b9ZGLV1JMkqwnoAR+/LAeLlAhOr8QRkEYXnHxjZmdlHLuCJ1JTIWCfvv8Hb768nvX/P281gx3ydpFNzzy5vUPnTfx+jv2sZyzS1XYsrNXvtjwVH5gwCLR+7ltH/PjDgIs25GCGC3SbJs7KVox1ztcbdvZgh2ORBhY0SXpjKT9QSCSEAlVlvEvPoMBcRwsBsRxCOAWiHz04pXNmKY79q9/cS7g2j/vBj4E+Ot++db1n1oFch3fBEUgQuhGeJAv8Z43PPA99aFVP/l/7tn9hv76g3mrpbHuwRUTr7sjq6oQ5pyjFswxUNvnhI7MosmBwCJ5+ojDwXHHA7dOukFozPaYITHbNqnmVoJmYqttqhZstWBLAXkdFgGTl7fMykzpoJIYG5W9J24ITxjM6TgYDMTRQ4Osaqj5J4+uyFkDwNnA3wHHTz741iuu/yDcDiE34thZqgKBksCoUkd573jdnT/8g//6a0tumccX6Zx7ktNs6ldfHM2HaElRB65686sOaGTGkYvcohKnz0x716xZ+6rzxjsJN3tc7zIBlZAMo5ugFXO9x7NtW+3YRs8mXWtdecUNBzN9T4f0yjK9YVBeOUgMiOOQYfmK8Xf84Spg6b5X7waGgcrqf/kTbtmMO5LctSEIvkRJYlTKRWrJMv8/Pvg75xzzc6AJ1IEaMAtMA3vHT74Zxg0onldbESQF/ebp13/gjd89PM/5ECG3xvIzpip9ZNyRZuOjF5YEgFhzO+ZmbKsdnm3bWofbXTZu/UpWXuHMLO8TFaU3fWP3icFUwYPBgDgOJao9Bo7b97rzgc+517nXsNyyaOXckfLc4J+ixIgSR3ljx/n/+UeXrFj6H8BWYBPwKPDw60/8wcQr78o+MF1frHurCQiBok/HL/SeejIvonxl8z3tbd/Z7f+yaS1XXnmgucM1a9a+6tzxTsrtmMFc9GEZrrzSmBd0xD22Xc6CDpfiicyk65dl8pQx0QMcCAYax6HE+Pg48NWncIcGOucsvbVWN8NA2G9BcXqHR9mxyIhgWOJnf3z5R//l1//21pPedfrdYyV91W/eZY0U2YrpeV32BCGp4D/J7JHjQJmjv8nyBcWPvrKbLY4mc6xn3v9rwZv/uIzdSfeJZPTUZyE6XHrZqo9cvLKdQgkMR6Kd2FhzK0Yr5lqHZ9t2uCBKAQeBFSGRJyA56ycUBE+IovB33th5/IbCiQOl49lhQByHEhMTE8Bf7EscW4GVwJ7TF/9sumbBGGaEAFHWfAES8CiblFkgEJGkkqBrfuen7z3zh4/V6ZTFKtXKmrzL3HJuJgWISMCXxGdepoH1//r5rKFeEgl65fH+ySeGh+FVyPHQzc0Hb2mh75JnqHXTiytiuCJlSfzow6MYlggICuhZ1AxSjnv2We156MvSkjAUUqjQ085Iahs9qnZstW3LIUU9kl0rPYLifD4SQxFCGZRMY/IzA+J4thgQxyHGlVdeeOWV84dWzAAjxw1/7/xlf7+jJjnfGBkwBCTA2ZDejDsIRafeoSDxeknlx9Ka4dRwqtnvRxz9X5oASfIUrrzySvfY889k/fr169evz+hmX+zZs3HP3o0Q2T4kEq6VnrIRp/sezBtBntngOZ9rCMLC6Jyx8DX7fSlWTkxc/dcTAO6/bcMX/2jl0lF59jnB8qXesUs9udiDyj/5nQtWMyfc7drSAacqDs6QvubLq1WCckA9zUkedFQ7PNuxQxGVAgp9ysorikAuSWT4JIrS33lj57EbBmPQnxUGxHGIccUVV6xff+n69U8AAHonjs4G8osXnHDzjqpwbZ0uhRhiBHMKk8i4wwOMQCHbnxJKOkti6zYdaxgD6DzisHlmQSCCJ/efaExMTExMTBzEU/jB165q33LlSW9H8XRUA/Smr3jTeVcexP308eBtk76kok+lgKKApO9mCGBuFa5haLYx19v21Fc96+l+l1y26u6Nkw/fPlkR5EukNgs6mj2qtu1IQZRDjgKrnKfDTRXE3JyOoCxr6wf7E54dBsRx6LFu3XXu4J6Nkx+5eGWgttW6YFibj7Rx7DGEnDucvwPINq246WECEAgELVM0tVtrLa1h4SKO/qZrEEkoiV33b1hyxpE7TdMT8BSKARUDCgIBP98p44jDEWLKOrYzB7sB95o1ay88SbUTFDzUekg02jG3Yq51ebZtKyGVQgq7HIaWXKTTVzp8IYoi2Hlj+7EbigPuOGAMqirPI1wGHmtu9LjW4T1Nu71qtsyarbN2d83U6iauWdMwcGXamKEBi2yZSiRRkRhT3mJv0dFee7pXr+k84sjLsQQSpCTNPLT/ffdHCB6+Y0PouYhDeAHBF9lsNJHZP6EZKSddPundnzjoR/nCmrU9zcaSJ2DB7QTthF3XbL3rVnBa2+WsnmUBNynJIwplWJadnw/a3p4FBsTx/MJxR2LQ6HGty3tbdnvVbJ3VW6tmV9XUayatGdMwmcUjttnHryJ41OcOucQ7+kQ/bSS9ejo3uxcAQAJSIlSHsizyzg9eAeD2e3Hr7QDwHPMUAI/csT70qBSKKCAVUMYaXk4cBjDMKfd6ttU7+CKyEzu6mj0JZiQardg6l0e1Yxtd2+5x3LUcWyTzPB0E+CQLIth743N8mi8rDIjjeYfjjtSi0eNqx3GH3TJjtlbNjpqp1u0cdziLR3+oj5ftBMECKY/xF54U2Hqy7a5mFnQAIAgiJcl/Hob63X4PNt52aO7Kl1TwUAooCEg64vAIEpnWYBiadWx7XS4+S2X0SbjkslWvOndcW0iCBbdjtGJuxTzbsbWubXZtu8emH3SYzEQHRRSKQlk2B732B4wBcbwQcNxx+rnjzR7XOjzV545Zs71qqjWb1oypG25btCy6FilDA0LAEwglKgojihZ7heOCxUfJxoOt5t4ku2sBJbPmzyMT3/nK1YGHYiBKAfl9ZVTlyqgFNENz2uNmxy5+9srok+DiOyn2CToaXa51uN7ldo97PcvZgB83pyNXOiKJ7YOg40BxBP/FvbSwfMW4c0k3Y57t8HTLbq8axx3bqmbWcUfNcNuibdG17u2UOcQCgbLEsMJC5S31SyPSbulOP94DACIhafrhI9c37UkUPKqEVI4oiAT8PFVxxGHYRRxJz043Dk2P7xfWrNUGYt+gozov6NB9567JlQ5Fwiexe0AcB4oBcbyguGbN2jPOG28nPNPh6Ta7MVZbZsz22Yw7dC3XOzr56DBLUMKNrsKQwqgSR/uVE4KiNTMPdwAIScmmQ08c55yF8845BPfzva+uHopoQVGUiiIsEKK8qpIJHAwDk3Lc41Pfc/DK6HwsXzF+xopxApiRmKy84vTpepfbPdvtcaZ0mHndKx55EdV/OshWDggD4nih4bijk/Bsm6dbvL1mtsxmocdM1aY1o6vGNi1c2uJas7SzSBMiF3pIWuRFxwWVhXLP5i4bO1I49L/Hc5ZjxbnP9U4evH1DOaDhiBYURVQQKhIIc43DvbO1Ezg46dp695C111yzZu2ZK8YJsMztOLvUu7betc0ut3ucxnn3inFj1QiKhC8aP//MoTqHlzYGxHEY4P6sOynPtHm6xTsy7tBbZvV01bi4w9QsNy1aJk9bABA8gUiiLFGRWKC8Y/0FJwXsIdb2sX/95OF+WvvBo3dOVkIaKYpKSURFIUJCKOC5uRhuQxsj5bRtk66d7RykiWO/eP+HV4HAjNhk2Uoz5lrH1ru23bWdHnPCnDDb3FkrSPqiUhbNR47cvO/IwYA4Dg+uWbPW+Q5mnVaaxx1bZszeqklmjZ41pma4aTOXR2KRAgaQAoFEUaIiMaLU0V7x+OD4U4KFrZvbjx5xf/H/nucpxQKFBYFIIJiXp2hGyhzbpGVmanbFxU+eUfxcsHzF+PIV4wCYuR1zK8kSFieRdnucptn+CjZggAUgyQuF3nzEvYxHIAbEcdjQt4dVu5hq2R0167hj07TZPm06s1rPGj1rbN2iZdByLg+Gm3PjCxQkShIVJY5S0XFByBvjf35ncuj+6Ps+joPGQ7dvqIQ0UhCjWZ5CCAnek/MU27Fp08pj3nCITnwO7//wKgAMJAadhDsJO0tYO+FuwnHCnDLrbHc3QPBIBaI+2LpyABgQx+FEZg/TXOvw3pw7Nk2bJ6b15ilTm9HprNGzOk9bLDp52mIBz3GHQFnSqAyO9csnBr3v/8bM/3r7ITm35+7jePTOyeGIRgpUKYqwKEQoEMzLUwyQMhI2bdtrGW/Z+c98j88Sy1eMn7Vi3LUIdRPuptxNnVZqu7HtxmxSIGE24KwuC6moXJaNR45oJ+6RgAFxHGb07WH1Lu9t2W1Vs2lab5o2m6b1pimzZ1rHM0bPGl01XJ9nTjeAZghCJFF0oYf0FnvF44PQbtyyqhIfAYOtfvh3q4dCGi2KYkEEBQEXcfjz8hTN6Nm0ZWaq9qzf+Yvn4xwuvcwFHRzrjDs6Cbd63Em4m3CSMufb9pgBQUKSHwr9PFSpXmIYEMfhR98e1ujx3iZvr9nN02bTjHliWm+aNtundXta21mTVo2pWW5YtJ1iCmiAKZM8ShJlKReowjL/qFOD1r++q35YCwQuTxkuiNGiCIukolwWVfPylNSiY5OWxbGHPk9x6Acd2qKboptwL+VWzO2YuzH3ErYps2Y2LlsBFCmPZn82qK08AwbEcUQgs4edO95KeLrNO+tm87TZNO3SFrN52sxMazNjzKw2NcONeYppP20pZvRBFRUd45dPCPiXfzV73TsaB1sjeI4+jsfvmhyOaLQoKkURFFyeQk+up/TYtG2nYZ+PPKWPszOJFL3UZSuZ0tFLuJtYncKNgLUWIEDCU1QuDbKVZ8CAOI4gXLNm7ZnnjfdSrnaxu2m3zmZBxxPTetOU2TWlezOGZ42u5oppO1dMndHDxR0libL0j/JKywKfN6bff9fjf3PRsz0Tfs4+jv/4+9UjRbGwJEolERQFIpqrpwAwjJTRs7Zl9tbMme99XvIUh0vybCXRcMTRS+GCjl7Msc4lUgNmck7cIKTkCMj1jmQMiOPIgivTpoabPd7b4u1V61hj07R+Ytpsm9L1KW1njHWKaeMpimkoUBIoCpSEGpXFZUHlleGi8Lbpzw41X8DM5ZE7NxxVFkvK4qhhEVWEKorMMNrPUwwjtujYXsvy81BPeRKybCWTSNF12Upiuwl3EzYpoJkNWyeRKvI8MfPTQbbyqzAgjiMOy1eM//Qx7Wb/z3R4Z91umtGPT2Wi6eZpPTWl0xnDs9pWjXWKaStXTA3By+OOkqSK9I5SxeP9oZNDevQLu1dXdvzwUy/AU/jiH61cXBFHD8tKRYZliT5xyLl2WPQYbdtsWP/45zFPccgkUuaekzk0dxNu9TKZI9HMCcPALcWDIE+iXBT1Xw6ylafFgDiOUFyzZu37P7wq1tzo8p4mb62ax6fME1Nm07TZPG12TOn2lOFZw1VjXbG2nXtMDSAEihLlLG2hYeUt8YonBqOnhkObr6lf/44DqbkctI/j37569ZIhsbgiFg6JQkWoIs35vrIGEkbPomtNy+ypmjN++3nMUxycEwxAatFN2XFH39DRS9loZs3WAEwQEJKCUAyylV+BAXEcubj0slWuUtuOM2f6E9P68b1m05TeNGW2TunZKW1mDGY170cxJQQZcbgLjUj/WK94UhDJW5N//42Z//321q90mh60j+Pn31i9uCyWDMlKRYYub4pcFZaAzLuBtkXL9JovRJ7icOllq5hh7ZzM0U7y2krKen62AghFvkdT/znIVp4Wg5mjRzTcR6VldFLWlhJjeyl3UtFJuJvKXsrdhMcSGaVAyqxBhmEFAiAgWIIkBBIeZ83sgaDA+kXhVWQ6e2v3e+/aVnzd0j/6j0N4wv/+tauXVMSiilg4JKKKkCWBQu77clMCE0bXom25bmaqJlj+vOcpDme52go41pRnK9SKuZvYbkIFn1UKkmSIBREEeZJctjJ0ypE7zPUwYhBxHOm49LJVglDwkRhudHlPi7dV7WNT+rG9+okps2Vab5/S9WltZw1mNWoWDYumyYaJuYFARAglSiqLPoYULfb8V/iVV4aL/FtnPzNUPXS95OtcuFER5YoIHWuEIgs3CEit00TRMJ2q2TxlXvX85ykOed8KUpMbOnTWNeuyFZ2CXd8KAwJSUhiI3uODbGX/GBDHkY6zVowbBkBLh4XvoZ3wTJt31u2mafPoXv34XrNlSm/dq/fu1em0wYzGjEHNomHQzOeYuu444egjT14WKFqi/GXByCvDwhNf2HlFec9/7EMfB+Hj+MHfZeHG2JAslKUsChTmFVNsrm60ramZ6RnTXfQC5SkOuUSaGTpizS5b6SXcSzjpN7xZACQk+Yr2/mSQrewfg1TlSIfzPj5022Q3pVcMy8Cje3ZobZBoG2vupNxJZCdBL+VeymOJLPZYdF1RlpEIhISQEYhsAZIUiBgeIRHwLUJLBRFUxJIhFT/+V/V/uNF7w8fchpFzlqN4OqrP5lTX/8PqM49WiyuiXBGBUzeycAMgIGbEFl3mhmnVzOYpc+r/fWgm9zwrMDg21E3ZvWKtmDsxd0MUNPspScnGqTECnkS5QLVfbhgeZCtPwSDieBHg0stWpRbuE9ITeMMJ3lhJNGPe2+IdVfvElH5kr358r9m8V2/eo3ft0Z0pzVMG0wZVg0aevHTddG+A3VyPvPIyorBQ0VIvPCGsyFv5+7+x5+/eXvCf9R/Gj/7+6qXDYumwOGpEFitC9kuwTt1wxo0eo22SmpmZMZ1Fbzhu+Qv6hrwkjzi04V7KPY2ezlpme6mNU05ThmGTjfaBkhQNspWnwSDieBHA5eex5m5KzZiHInrr6f4je/RNm7Q2SAz3NDoJN2NR73C9IxodMdrh4a4IegIu+igIJIwwH8AlCSKf/akYPiG0CC2VRLEio9lbJ44v7X4kSYcTHH9Aw3UeuXPDXf909fJj1HFjanhUhkMS5fyxnLoRW8SMnjUN06qaLVP6oq/95Hl+2Z4WDLietzigTl5b6fqIPPZSCCJLECCS5Cva+uNPL377YYiMjnDIK/ddODrAkQkC7rplUgoIgicp9OiVR6kzlni1nt1dt7FBorkdcydBnHKqOUmRaCbNSrN06yMZsJytZSHMrUGUjj4EPIJPCAUVRFCUI54qbfb0emU0nnFrwY+u+T8Xmm0nL1KLFqrymKIRhbJEUSIUEATL6DI6lpu2vUdP79Lh+R876vTDEP9/9yurtQURmOFJChUpSYGiyCffI19RIEhICLe8gdlqpJrF0vPDseOe+d5fThgQx4sDy1eMX3ftaiIIgpQUePAULS6LiVODx6fN7rqNdSZzdHJTU5oi1pxqlhrKsEhz1nDD8pizFdJAxh1FHO4YAAAgAElEQVQyn6juEUJBReGX5OiwVDt/Mf2jT2vD4Qn7p4+vXnYhtt5w8iJ17JgaWajkiMSQRFEiEhAEAcQWXYsOJzO6sUc/sjV97cd+/IK+fDm+/7WrO2l2rCQCj3xJvqTIo9CjQJEn4UmAKFvIq1kb6OLS8skDmWMfDIjjRQMC7r5lUgoSBCUo8khJCiUmTgtefZw31bTbq7aXupIB2jF3UyQJpyknGiZlqVkZkM4XwVnAsNsjOUcf7uIJZ/pw9KFKoliRctcvGj/99PT9G8TwccGCuY/fH3/96ulbrj/5KPWKhWpsTHmjEkMKRYmCgBSQQMroWHSsadnmXj27S0dv/Nii57w/5eDwb1+9OlTUSd2+bgoUfEWepEBR6JOvyJfwBZEkSSAGGEZzM+bRFe8/LCd8xGJAHC8m/OSfrxNERFCCAg+eJF+Sr3D0sHjHmQEJ3LlVJxo9jV6KTsqdmLspJymnGknKNoXSrEw2umYueUGevFAeevSjjyBLXmRRhiVR0NvTu9e0fnnD3m2bh0+54LG7Nqz74h+ecpRaNqYWjalogcKQzCQVT0AS2LnLGW3bmTGNPfrRLfr1Hz886sa3v7x6010byiFmuwDAgKMMJeErijwKFPmKPAElQAQFgNla1HdtHnvrxw/LOR+xGIijLxq4uuz9t04qQ+2EGz0u+LbuoxBQ4HHB4/edG/3+GwrX3dL55s29RHMnpXbMjZ6ttkW1zYvaotmxjY4c7YpKSfg9iS6jJFBgpI4gCJ7Id7gTJENxRh+RRZGpIr0Rq8aMrm8MNt+05S8+e+fj+vgF8tgROTYsoiGBkhtHLLKF0uAsSenatGHbM7o+axa/7c8P1wsoBfkKJ4yIR2cMAGMQa45T7qXkhnSUUu4lHCr4CpKIJYhICjq0q3lfGhhEHC8mLD522U/++ToBIoIgl5NTIOEp8iV5gjyJVy/zz1ymdlTttlkba8Saeym3Y+6k3EtZa6QpJ5rJCR+uH59z7cPmwke+aiSLPpRbEy0QEEVCFoVXksWKPHGRPLYsAklGUWWxh0ouiLof1Lkm2rCtvaaxRz+yLb3gLw5bMeXxuzb0Ht+wqCQij3Y0XB8s+QqeJE8iVBR6LlshT5IUWbbCzN2E7bFviAb66DwMIo4XE1xdNrUca2rH3Iw56nHR5yiwBY8ixZ5EJHD2Md7Z/03dsyW9/qbuAztML0U7MW6rSLVtF7Xloo5odXikI4Y7olgWoidR5KwbLWX4Ah6yN7/TY32GAjwLn+ALhJaK7A1JtcAGdRPXTVw1OzbFo34Yjansp3TWAou2jWdNe0bv3KuXXHTYAv5H7tywcc3VS4fEUEShyjY/pYZ7mmLNvZQ6aSYqx5rjFL6AAbnSkxTUeeyGkVMH+ugcBhHHiwwE3L1xkpjICRGSMqVDIpBw0qkkkKDFQ+LXT/cN8x1bdGKQaMQpnN/Jzel10YdJWWkow+SEDzcGWSMrwfQflghKQFE2N1QSFFEgRFF4JeGXpKeotzvddXtn7+a4OatHFil0LFrWVG1zr969W8+OvuGCD//d4Xrdrv6tk46tiAUFMVakXztW/eejGoBlKAFfkpLwJYUeBTKTSD1JzuxiLSeaxSvOLz1TTfplhQFxvMiwfMX4PRsnd2/fTERCkBJQMstTBJESIOTcQQBw9rHeJef5ccJ3bjeJQWI4Trmd2SWRpqw1pymsZk+z1EDCSPNZO5phOMtigKwEI3MGyRIZQR6JSHgl4ZdlVJYRwW+axn3dX97aCS2qe3Szbu/Zlr76g18bXnx4ov2/+eMLw9bWsQKNFsRIgUYL4vsPafctoqwE6wkKPAoV+SqryzoWNpa14dm2Xfi6QWFlDoNU5cWHa9asvfAkFRvuJmj04EsbSHgSgiBIAOwC8TAbgcEQ4vfeEJ66SPzjHcmjUzbWWcGl0eXZtljcFos7PNYRrYqotG2pIPyCoJAQCfRXvfr5wleFzJohCcI17FskhITJJxUKVRZBT9muNR1bPtqaji1ITmHOff04bb0BL6zH3OErH7qQt2w4aYwWFMVwJIYiGinQWUvkvbsMAG04NZRqJIYTjcRkl9RASwjKNst2HxsYz/fBIOJ4UWL5ivGf/PN1lkEA50KEEKDMTU7IIgNyFg0iLK7INy6TJ42JXXW7s8GJRmy4l6CVcCfmWCNNOI65l3AaM6UsExYxZ+0tuh+A9KOP/H6d5VTN2UCETzISqiS8ivTK0i/L0pAsme3+7hvrP/1085ENvemtPc2HUGu86qqrACxbtuxJ19/0zU9+/xMXHsPbjl8gjhmSSypicUWMlmQUiT0te+9OA4CAQJGf+0cjnwKnkkqonDiMRTfhRYdPoDkCMYg4XpRwpdl7N062E0gBSSyFVVnQAUFgt5gMCHxyOYanUCyKc4/3zjpa/tOdyb/crxODXmo7CbV6XOvw3gYtKIoFJTFcFJWiKBdEpSgKEXmRQCgQ5RMA+9HHXABC8F30wUiozzJkWBYgDSOxSNj2uNC1tnOrfviW5M7PbaqbBRd+ot6xS9918J0gk5OTP5+YuBLoTUxgYqJ//cZvffKB/+/qhSVx9tHSRRmVkMJQSI9IEiQor7BahrGsLVJDqUGaRRycGtImq00DkIJmHtqw4LSBPpqBOAtsB3jx4fKLV963cbLoUzmk4YiOKotFZbGgKMZKNFoUpZDKIZVCEfgAO485mDlNOUls2uNv3Rl//yETKCr4KPiU349w9DFSpKGcPkqR8CMSLnPZT/5CEMguzlTmxJF+kNL/b5qRCHfZdq3p2qRt201Ta9lOzMEJF4yedkGiuZNi6OQ3LjnjGd6lk5OTemJiJQDXtzYxsed/XHXXP32y/vDkWFEsKNJQJIYjKoUUhEL5RJJIusgId+8wH72+5e6nFFAloKGIFpbF4ooYLYiFJTESUTmkUJIUbDTX2ia84GPL3j3odsswII4XMe7ZOPmRi1dKQjmgYkAjES2qiIWljDuGC33uoMB9wBIDAMEaThOrE3v3VnPvHvPv92tfUeih4FHBp1JAlYhGC2JBUYyWxHBBlItUKYpyJKKCkCFlAYjrtXWtcR7mli31O/ItwzrKyNXWPpu4TfExI7bcs7bLumethtVsNKcpxwn3Eu4k3Oxx8aQ3jpw67maFGgunB0uBdVddOXaqLAUUeRSqzD/uS/iKlIQnEfrkB0IGJFUWaGRDSYgAXHhVNmwk8qgSUiWksaJYMiRGCmKsSKNFUQkoVPAEjOFWz0YX/NlzCY5eYhgQx4sb11+7+rprV/sSpYBKPo0W6aiyWFAQYyUxVqJKJBxxlEPy3RguAlwewzDa2oTZcmrxrbuS796V+hKBooKHgk/FgMqBGC7QgqJYUMzyl0pRVCIqRsKL8tDjqfmLRP5A+Vfk7jLD+2eQhJEwshlczBqs2Rq2mtk4NoHVnKTcTThOWSKjBiVJSkgBIUkIkCASIAGRHZCQEFn1xwm6AMidyYVX19yp+YoqIVUCGi3Q4ow4xGiRhkIRKfgS1nAvsc2x1736Tw+be+1Iw0DjeHHjkstW3b1x8t6Nk90EkrjehRRWwMmlgojhsgeLYoDQJyGRvZsFpCeEZDAU8Afnh7/3+vCe7frbtyUP7zatBFHMDY9rXZpu2UokRgtitEijRTGU00e5IPxIiNBmDBIK+JhzeUjMKQQZibhvMdS8YMTkW90cj1gmAzIMw9IAjkQMs2arOTQouVnkGmA8lSPcAeWl6OwfQhZlOLUne1CctVTeu80AsJatJW05tZQaaINEc2ooNewRZYUVoPkrh8K/3DAgjhc9XHW2p1kIEsSCIImJrMiqscJaGMPaUGqo4JNSRBJgQBAJIMtgSBDOOcl/zUn+PdvSe3eYb98UtyVaMTd8qnd5pmUrEY0UMgYZLopKwV0oioSMBEKLiNgX8EByXp1FISvf9qMPyiVVwZCAZXh5POICk3lfyYAsw0IahmE2YJNxB2FfpqD+vQMA5iLprAU4u0+TqTBnH6sy4mBYZmNJG04Na8OJodSwNqQFS5MVuD056FiZw4A4Xgr4wpq1H7l4ZS9lSSQEZMcKEoJYkLWM1JA2lGqkBlqjFMJTRArEuSljHgg4+3j/7BNw6UThH27oPrhNP7RVtxRFPho9qrbt3kAMF2i0IEaLYrhAQ0VRKYihgihE5EfC2dKtEz4USBHNZxCZy6jI0xnKr7TIRv4w7UMf3D8GLJPNecRd6TA/2+4f93NwpnmBBkMzEjYx65T7NzQWxsJVVVKL1HCiKTWcuv56d3ZiQBxzGPg4XgpYfOyy5SvGd2/fsmvbZiIAZJkNQ9vsLWEZzHl+YPtvXoKLA9xHtqS5cq4gSJx9gn/ha8LTjve2TputU3nLnOZOws2YmzG33aTfJNulmPbY9hgxU8zoMWK2MbNbB58ypbktVc8bKWQpa/B350BusjFlbf6if31+pWO67CTzg/ln3j92c0YyGsqt9Alzj9Oebfd46ZD43n3ZVB9PkjPgBh4iJZSkUMGTpASJfEJ7qrkd20FF1mEQcbxEsHzF+PI1az9y8coHbpt0BKGtTbIOLhFr6qUUa0qNSDW0QcUg9CFMVkYlCZJ58uLab93nq+Wzl6qzf78CwnU/6/7jhm47QcvjqEeNLs+0qBxZl78MRVQKqBhQ5FMhEAWfooCUT9IneMQ+kUfCg1AElyupXLBUefLiHtFFClk04MiCMxJhgmVYmotBMD/EwD5BiunnJnlJOLY65m7Mra5td7nZmWvFcdyqLaeatGVtEGtKDWsLbYgkLIME1CDoyDGIOF5S+PX/8gHLuOPGSQNyIYZzTxsLw9CGjM1CD8PZhCunGlgDo2ENWwtrYC2zZk7zqkfKlGL5UvW+14edHndT3l7jWHPes49Gj+tdrne50eNmj5td6y6drk26ll0Y0mOO2cRsY8uuhpKCUkaCbHFUVmpB1mLnLu56i7kgBf00J1dBHTvo/H7695kASXZsY+52udG2jRbXmnZvw+5t8q3b3BSjbJKrEvAVIk94kjyFQJFyqQqBLazl6MQ3DnpkHQbl2JcgnL8jUCj6VPCo4KEY0HBEw5EoB1QOaSikoYiKPgWKXAlWSchcgCBJJOYkiGy0IMMy0pR7Pdvu8R1b9X279B3bTagoVAg859RG5FHBp6IvygEVQyr6VPAzg1nBF0UfYSA8n6RH8El4EB4Jj4STQkT+YPNLuXOf8VkVOfsK52rLgwvD2YHr8dUMA5vLqMZwnHCna+sdnm3basfWulzr8N27zeYqA5CEUkAFn4ZCOqoshiIxFNGCApVDKijyJIhZa7u3bi66rvsC/zaPTAxSlZcglq8Y/8Katddfu/qB2yadxqEttEGc2l5EPU29lLophR5FigKFIP/qSyhFQnJWzsxlEWthma1FL+Fax8522Fo+piyi49A5+vxTXjP+j19e7SsKJLKvng2Vowxy5rSiT5FvCz4VfVvI2IR8n7x59EECRHmJROQc8iRLyPzSjIPmfjLCJjOAGAOj2Rg2BvSEHvp6C8DW3wx3DItqx1Y7PN22Y6eNLxrlzTeuR84/1kLbTBxNtROVoUWWRTFIDQorOQYRx0sZl1+88v6Nk5FPxSwWQDF/J7uBV5GHMLddztGHAlxqY2Es26zowIZR73C1a2sdO9Ph6Tav/L2/eNcHV7nHumfj5P23Tj5w2+RDt28IJHwFX2Z3GPpU8DIFxJlTn3pRCkKQ69NzPXtEBPemdZdceXFUklMbWwOr2RrWBlqzNkg1Z+98zanh07/QdLeNgR+83nsgpAWnXXDh7//lya+5wIVm7vyLPkUelXyMlcVwKCoRjRZoKBQFD4GEJFjLra5589c7h+M3ecRhQBwvcVx37errr10dKhQ8ijxEnpvKm8UXoUeBQqQo9CjMuUMIMpaNzfnCHTAnBtWOnWnzwtMu+PX/4y9Pfs3TZvvXX7taCvzj36wOpPOAOxKhQKHgU+TnKUxOIpFPnoTKxotACZIEKSDcfgVBWZ3EcUpGLiQIhjnV0FmAwKnm1CDVnGhODFLNJ/+wd/Quo/IAJQEe/cKVr7r8iv6pXnhSFnSHHhU8KvpYUBTDEVVCMRzRsEvoJJRgtujE9s1/335+f2EvEgyI42UBFw7849+szoILmXGEJzONI1Au9ICvyObxhas1GMvWQjOqXXv+GUExNa/5yE/KBzYOyz3ug7dNPnT7Bl/Bl1kY4qssUSr4iHzyFSmxD3EoMdeTokQ2MEgKSIIQWcmViFLDieFUI3ZkoeGu0QbaYuSB9JSH9EKgAsznDrFuncpbafvE4Usq+Ch4NFygkUhUQhqOaLggih5CRZ5gMHrJgDgyDIjj5YU5BsnewPAleRJ+HhrA6YzWfeW8Tom3vqnwrvMjbhlTM7M7ktKlP3K7qQ8c11272hP49pdXB1krGgKZzQqWAlLMBRpK5HyRM4gUpOTcNe5mDPTJQmelU6TWsQabWbv0Dn0csAQYA4aehjv6xKEEXBBUCWmkICohDYU0XKCST6GCL0HMScoD4nAYEMfLFPdsnPzWl1Y/dPtkRhkSUuS2bwvDmG7zsjP4zBV4S2X09FMCyHxxdMvohqnvTAuX/DA68WDGcN6zcfK+WyeVwLe/vNoVQR0R9CmjH1a4UeNCQAkI2jf6IOhsjgYcazjKMDa7nnbaRbvsCcB87vBy7tAArVsnJyb6xCEIBY8in0o+cuIQjjhcq5sAp5rf8vUBcQAD4hjgno2TH7tkZeTRwjItqcjFFXH0kOjYVn0pwpNw8vl43e2LURCZX8syYou20Q3T3JNGF/8wPCjueCru3Th5362TUkAA9906ef9tk57IIhHZZxYimW+V7BNEanHqOeOnnXNBvwB0+nnjZ5w7DuCv3/Sm2fXr+9yxcH/c8bY/fIs7AZoncwxHohLRUEiVkMoBFTwKJARxkti3fWMgjgID4hgAwD0bJ//s/SsjjxaUaHFFLK7IsaHOK9+J4umoBjhv/VEiElSgjDuYkTDaRjdNZ0p3fu3PFr/9+Z2p56TW/qoGMAzjd/941YH87F+/6U0zOXccDYwBw/tyx0Unyv6N+yMFhkKqhKISUmaH9RBIKEKc2HdcNyAOYEAcAzg47gg8Gi1QanHy0vQdl6J4Otbfg2NvHHrbWYGMiFzc4ZritUXHmqbpTOvdpde98r8fniXSB4K/ftObpp/CHT5AwD0hPnLMHHH4kgoeIo9KATnWGApFKYCTOSRxN7bv+ebAAAbgSa2RA7xcsXzF+Oe+ubaX8kybJfj+Td5H/0z96W978T8VThwRM3WjW5ZbFrFFwmCCEAiFLMniArWkffOWL110uJ/B0+JP1q0bm5h4HNgM7ACmgBqQAAzcG+3P0EXguaZc5nkuuLGB3zzHgDgGyLB8xfjnv7m2l3K1A1/wwiItHRajEe2c1lNVM123adNyy6LLSDjrgg+EKMnCqBpr3bTrb49o7lg4jzv2AlUg3rcdH31zfe5ld0d2Xlfx2OkD4sgwII4B5rB8xfhfrVnb1Vzv4f7d5u4denvNbJ21O6bN3qqZqpukZW3bcs8iYRiCIA4ESjJcoEZaN2/6aKl1pI7Jms8dO4G9QA1In3Sj+fEHA+iPI2Br2fAgrZ/DgDgG2Aeuz+WU11yQGDR7vKNmd9TMtqrZPmP2VM3emk1alluWe4yEWQMgUoSCVEPq6KO9+Pp3TP3404f7Sewfl69bd9TExOPAJmAnsAd4Orli/jCgvFUH1uUtAwAYEMcAT4XjjjPPG481TzXtjprZXrPbqmb7rNldM3tqpteytmV1x9qYkTCDSBCFgiqyOKaC2z+3628vmnlow+F+HvvB5evWLZrHHa393ojhGCJXN5hdG52FHfBGjgFxDLB/XPanq86/YKIZ83Sbd9XMjprZVrXbZs3OmtlVs42G0U2btm0SM8cMQwBJKURBeMOyVL2p/Y23t4/ItYmXr1u3OOeOxjPdmHku6HD9fgM4DIhjgP1jYmLi6//y89POHW/FPNPhXfU8Z6na7VWzvWqn6yZp2LRlez3WMUMDREIIFUhZUSMLVPMbb3/si2873M9jP7h83bolExOPA7NP+VY+TmBeYcVpHMzueACHAXEM8KtwzZq1p5873oq52uHdDbuzbrfOmi0zZnvVbK+aXTXTbtikads9G8dsYnaDdjwlZEEWh9Xw7E07/+dFjUeOuLTl8nXrjp6YqO175ZNqs8xg5vkyx+JXDaoqGQYGsAGeGZdfvPL+WyeLvmsAowVFMVYSC0titCiGQhopikJIFFLgUeAWIxGzYWs4SWzatvWm8cf//Nh3HnFr0N59jOhE2Wen2z4deQgVhR4qoSgHFCoUfYoUPAlYvvS7A/dXhkHEMcD+MTk5uX79end8zZq1Z5w33k643uWplt1RM9tmzZZZs71qdjfsjpqZqpu4Ydtt2+rZJGGTAiBB5HsiKMjhIcm/+Ozj1x5Zacv9t27oRk/798/opydss0bhwUfsHAbEMcD+sX79+j5xALhmzdqLP7yqk3Cjh2qXdzft9qrZOmu2Vc2eht1dt7vqptWwnbZtdG0n5iRha0BMnqQgkMWyjPbceN9lxcYjR4pies/G9ftlgr71a04ZZXa7KwfoY0AcAxwoLr1s1efXrO2m3Oxyvcszbd5Zt9uqZuus2d2wexp2Z93O1G27Zesd2+5xL4XWYEAKCj1RiOTCIbnzby/a8YNPHe6nAgDfvHb1Pv+fp3Bw7v7KDGA2uwzQx4A4BngWcBaPxKIVc6PHta7d07Tba2Zr1eyq271Nu6dhp+q21bL1jm12bTfhOIG1IMBXIgrESEnEGz7z2BffVvvl4VRMv/Xl1U/igacqo5bBzG46yaIp+95/j9vzQrCXOQZ7VQZ4WixbtmzZsmVPutJtjdu1fcv2rZuNJdcom2jEmk22CArauHHHZCy7mB/5O1MIkoLQ2Fbd+M3pBzfIkVdEY8e9wM8LwJ9fstJtbuqDCFJko0+lgK8oH0RGr3tMr7w7DYHeP/yDnZjwnvKavAwxqKoMcJBwY5A9gch3u1RQ8mm0mJVayu4SiMingoKvyC2QBbNlGMOJtnHKvcTSK9549Ds+PvoCNp7ef9uGP734zdruQxyCEEgKPLixrCWfAkWRwu/elZxc5X7vfQu4fd26iXxk6csWA+IY4ODh1gtIQuDWPvlU8GkoIrcRshKKcj5By1fI5phnw3jm6CPRiBOrlr3x2Hd+/IXZzPqJS99y5y3r9b65iiR4kkKVEUfBp0Bh4r709BqPAiVAAlcBPwEIuPFl/64ZLGQa4OCxfMX4Tx/Tl1+88r6Nk8aQsawttEWc2m5KvZR7qeilVPApVORLeJL9fMgoEcBEQijFloXe+otHvvg2//g3Hvcbnxh7Punjwds23LNx/X5Kq7SPzGEZlXvTTp1353WWDwGLgTcAxSuueMoPv+ww0DgG2D+uuuqq9evXH0hM/tb/8gEG7rxl0m2otZwtYUlNthgt0e6YU+vmknNqoRn57d0yehAorW7d/Ytv7n1gg7/guOLC50X7+NIn/mDnts1Pra1mika+nEEKaj9uLCAACfw5cCwA/P/t3d9rXncdwPHP93vOeRp6M9ykihdDUbRda+tot3hjnoyOuUsRxYtuQi8qkUFunBciKSS9UC+GLoqgDFai+wO8dR3hmVV5GMJSVBQUdGWwUOZsTJPnec45348X3+85z0lzlvarSdZs79dCSFvYnoblzffXc76yOj39/OXLe/HCDhbCgXa9Xk9E7nIyf2qy61dM37z+j8KFjUz/CPJh4ZdOpb7uJHcyKmVUSO6kcOGqaafG/ywbY0b/euPNq79c/VPv0Id3Mx9/+cOrs09+6vob/yy2vevEmtCLLAl3zaTWHLrfvL3qnMhfRd4WuU/kusiFF1/cvmD8AcR2LHaH36k9/kh3UOj6QNY2dW2gNwf6zoa7se7eWivfWnOr/3E31t07G7o2cGtDvbmp/97UtYFujHSz0GEpuTOlGDUmScz636++9v0v/ubSEzf+vAsbt7/6+aWF82fzsv3d8dYYI9WD1I34rw99yN73cHpd5NciD4r8TmSGZdEKaxzYTc+99MpKv/ftc2edmMJp4XQYrqSVQS7rQ/XX2R/OzESm4QK3cAmTJP7GafE7uMaJGGtu/u3q77/3ZF7qA0e/8MCxqSMPTX0k/p1mP/jG4yv9XuGk8P/ubcON8YcNz1L3+Zi43z6xvPz6Y4+tTk//dnl5175NBx+7Kth9K/3eLxYX/vhar2NNlkh1o3Xj0sksXEQwkYYr2sb3xRq/Gqn+je2qok4bj/CTotQjx6eOPDT10RNTHzuxU0SWL18alfJ6v3et36tnSbnT2/ZTwsENG16nf8GHU9NJ5Ojpqaeee3lPv1cHFOHAXllaXHjpxwvJ1h9L/5PZSSRLzKE0XILdScf3xVojIlLVo/4nvHOk8T531epe2zPn5uo76F5duhQWYksZlbI20vFiipPCSeG0uTJqqtWNTlJdSWkl3MudyIUfvfzgKd5K34JwYA/5aYu/cd7no5NW911bkyXSScOt1xOpZIlJE7EixoQHjof9Ua2HIKIqVUd8OPxB1XClW7g71oUNnUGpo8LHQvw8xTm97dyX71pmwgvLrHQSOZyZLJGjp6fO/5DhRjvCgT33rXNnr/V7trpxPuQjMZ1U0sT4X3YS00klscYaMSL+szEhIvUJC23MYpyTenBRVDdC+pGFU8md5kWYnvi9m3CNdnO4IeEW68xKPY3yV0x3EplZvPLxzzHcaEc40G5+fl5Vd2u3fqXfW1pc8PmwfmpgpVONONLEZFZ8OPz1sbZKhakLUo9EqmlLXo5LUVbvRvPVKJ36XvimtFZDql3YJMxTQsUmMsmsHDvTvfA8w413xa4K9sOpya7fcPH5cE4KK7kzo1I7iXRSSa0MS0mqrY1wZ73xU5bw496cv1SBCA/L8NUIn1XLu6iG+DQd7wsAAAN6SURBVHFNvYdiqmCpiMjj5+f27ZtzEBEO7J86H8+eO+tKKZ0285Emxhrdujmq1h+sqAcgIiKiKmX19OAqFmHbxQ9GSm1Uo4rLbawRY4yR8aqKqf5Dz/zkyieYpOyIA2DYb/4dLk/PXlSVvJRBoZuF3splY6Sbef0hG7lsjOTWSNeHemuom7kOcx0WOix0UOiwkGE4kCp5KUWpebVEmrst1SjbqlFPfMLZjcY8aPanVz75MNW4A9Y48F7y782XsC0q1hhbzR2sDeMO4092mmpmIeLGD9oRVd36S3Hir0GRUrWongbSZESsPyRqJTHiT5p3rJx4dPrZn7GucVcIB95743xU8wVrxhGxZrwY4cPRvPekjkU46FF94Qcad6xGZiWzkiXynRde+cxpBhp3i3DgXlHnw2tux1prrIQxyHhjpQ5H9ZRQDQ/1Utf4zaaWaiTy2Ue7X56Z+/Tp7v78Nd8fCAfuLbflQxrrEWLEiqkXSrU+1iHVIbHq2Rmt/1NXGyjG+umJlSyRr35z7kszF/fsb/O+RTjQbnfPccRaWlxY6feu9XvN3/QFkepzGGX4P9v6ANHtjAn7u9ZIZiW1cvLz3a/MzB09w0Djf8F2LO5FX58No4CVfs9/XOv36tmHURHTPqxoVa2PjKtxarL73Reu7M1r/0AgHLin+UcE+a+bEbnDAKPBn9TwOzWplZOT3a89M3eMgcb/h3DgwGhGZGlxQUS2r4ZItSDy1OxFaayPnJzsHn+EWOwa1jhw4C0tLhiRp2dZ49w/hANANI6cA4hGOABEIxxoNz8/z9UZeDeEA0A0wgEgGuEAEI3tWADRGHEAiEY4AEQjHACiEQ604xwHdkA4AEQjHACiEQ4A0TjHASAaIw4A0QgHgGiEA0A0woF2nOPADggHgGiEA0A0wgEgGuc4AERjxAEgGuEAEI1wAIhGONCOcxzYAeEAEI1wAIhGOABE4xwHgGiMOABEIxwAohEOANEIB9pxjgM7IBwAohEOANEIB4BonOMAEI0RB4BohANANMIBIBrhABCNcACIRjgARCMcAKIRDgDRCAeAaIQDQDTCASAa4QAQjXAAiEY4AEQjHACiEQ4A0QgHgGiEA0A0wgEgGuEAEI1wAIhGOABEIxwAohEOANEIB4BohANANMIBIBrhABCNcACIRjgARCMcAKIRDgDR/gt3ZrVi41QjDwAAAABJRU5ErkJggg==">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70C36F4-3D9D-46F2-AC9D-06798F72DE0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +4762,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7C93E6-AA1B-4287-B9E0-B8EFE70E9226}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +4803,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>536863</xdr:colOff>
+      <xdr:colOff>402393</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
@@ -3521,7 +4812,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDED71C2-8BB8-433C-9E50-640EF280FAFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3555,7 +4846,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>29135</xdr:colOff>
+      <xdr:colOff>29136</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>170105</xdr:rowOff>
     </xdr:to>
@@ -3564,7 +4855,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE83BAA4-9E23-4F26-8D0D-2B67BD5CB8B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3605,7 +4896,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>324969</xdr:colOff>
+      <xdr:colOff>257734</xdr:colOff>
       <xdr:row>218</xdr:row>
       <xdr:rowOff>173691</xdr:rowOff>
     </xdr:to>
@@ -3614,7 +4905,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E52583-6343-4201-9F5E-C48ED4252440}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3654,8 +4945,8 @@
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>41086</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>578968</xdr:colOff>
       <xdr:row>218</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
@@ -3664,7 +4955,7 @@
         <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2DC4DA-75C9-498D-9B62-8E40D82D9A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3711,7 +5002,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3749,13 +5046,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>163605</xdr:colOff>
+      <xdr:colOff>29135</xdr:colOff>
       <xdr:row>273</xdr:row>
       <xdr:rowOff>66975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3793,13 +5096,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
+      <xdr:colOff>493059</xdr:colOff>
       <xdr:row>245</xdr:row>
       <xdr:rowOff>68520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3836,13 +5145,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>436268</xdr:colOff>
+      <xdr:colOff>369032</xdr:colOff>
       <xdr:row>244</xdr:row>
       <xdr:rowOff>189929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3880,7 +5195,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3901,6 +5222,142 @@
         <a:xfrm>
           <a:off x="0" y="41853971"/>
           <a:ext cx="2204569" cy="2577353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>90766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>166966</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2132BD93-8B47-4334-8E1A-2BBB7438D904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>104360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAC60AD-24E6-4A32-A15E-4A6CB33E8F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7440706" y="65038941"/>
+          <a:ext cx="10058400" cy="5247860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>510988</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>104360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F950EB4-B8A7-4DAA-843D-9A1CD8ACF87F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17772529" y="65038941"/>
+          <a:ext cx="10058400" cy="5247860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4174,16 +5631,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI246"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CM320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC184" sqref="AC184"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
@@ -4192,47 +5651,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4252,33 +5740,33 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" t="s">
         <v>132</v>
-      </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
         <v>134</v>
-      </c>
-      <c r="I16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4302,7 +5790,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -4310,10 +5798,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4327,13 +5815,13 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -4473,13 +5961,13 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
       <c r="J39" t="s">
         <v>36</v>
       </c>
@@ -4495,26 +5983,26 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="N42" s="25" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="N42" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="25"/>
+      <c r="O42" s="27"/>
     </row>
     <row r="43" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -4527,56 +6015,56 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M48" s="23" t="s">
+      <c r="M48" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
@@ -4604,13 +6092,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -4618,13 +6106,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -5021,31 +6509,31 @@
       </c>
     </row>
     <row r="104" spans="1:35" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
     </row>
     <row r="105" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
     </row>
     <row r="106" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G113" s="2" t="s">
@@ -5075,123 +6563,133 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O142" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB181" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB182" t="s">
         <v>6</v>
       </c>
       <c r="AC182" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB184" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC184" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE184" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="AC184" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE184" s="27" t="s">
-        <v>174</v>
       </c>
       <c r="AF184" s="11">
         <v>0</v>
       </c>
       <c r="AH184" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI184" s="11">
         <v>0</v>
@@ -5199,36 +6697,36 @@
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB185" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC185" s="11">
         <v>0</v>
       </c>
       <c r="AE185" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF185" s="11">
         <v>0</v>
       </c>
       <c r="AH185" s="8"/>
       <c r="AI185" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB186" s="8"/>
       <c r="AC186" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE186" s="8"/>
       <c r="AF186" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH186" s="8"/>
       <c r="AI186" s="11">
@@ -5237,143 +6735,143 @@
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB188" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC188" s="8"/>
       <c r="AD188" s="11">
         <v>0</v>
       </c>
       <c r="AF188" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC189" s="8"/>
       <c r="AD189" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="B190" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q190" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC190" s="8"/>
       <c r="AD190" s="11">
         <v>0</v>
       </c>
       <c r="AF190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J191" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF191" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J192" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
+        <v>145</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="J193" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB193" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q194" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X194" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y194" t="s">
         <v>167</v>
-      </c>
-      <c r="Y194" t="s">
-        <v>168</v>
       </c>
       <c r="Z194">
         <v>0.05</v>
       </c>
       <c r="AB194" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
+        <v>149</v>
+      </c>
+      <c r="D195" t="s">
         <v>150</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I195" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J195" t="s">
         <v>5</v>
       </c>
-      <c r="K195" s="26">
+      <c r="K195" s="23">
         <v>3.7500000000000001E-4</v>
       </c>
       <c r="Q195" t="s">
+        <v>149</v>
+      </c>
+      <c r="S195" t="s">
         <v>150</v>
       </c>
-      <c r="S195" t="s">
-        <v>151</v>
-      </c>
       <c r="T195" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X195" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y195" t="s">
         <v>165</v>
-      </c>
-      <c r="Y195" t="s">
-        <v>166</v>
       </c>
       <c r="Z195">
         <v>3</v>
@@ -5381,10 +6879,10 @@
     </row>
     <row r="196" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
+        <v>155</v>
+      </c>
+      <c r="D196" t="s">
         <v>156</v>
-      </c>
-      <c r="D196" t="s">
-        <v>157</v>
       </c>
       <c r="E196">
         <f>K198</f>
@@ -5394,19 +6892,19 @@
         <v>8</v>
       </c>
       <c r="I196" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J196" t="s">
         <v>5</v>
       </c>
-      <c r="K196" s="26">
+      <c r="K196" s="23">
         <v>3.7500000000000001E-4</v>
       </c>
       <c r="Q196" t="s">
+        <v>155</v>
+      </c>
+      <c r="S196" t="s">
         <v>156</v>
-      </c>
-      <c r="S196" t="s">
-        <v>157</v>
       </c>
       <c r="T196">
         <f>Z198</f>
@@ -5416,18 +6914,18 @@
         <v>8</v>
       </c>
       <c r="X196" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y196" t="s">
         <v>5</v>
       </c>
-      <c r="Z196" s="26">
+      <c r="Z196" s="23">
         <v>3.7500000000000001E-4</v>
       </c>
     </row>
     <row r="197" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="D197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E197">
         <f>1/K197*K195/K196*K198</f>
@@ -5437,7 +6935,7 @@
         <v>8</v>
       </c>
       <c r="I197" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J197">
         <f>10*PI()/180</f>
@@ -5448,9 +6946,9 @@
         <v>0.98480775301220802</v>
       </c>
       <c r="S197" t="s">
-        <v>151</v>
-      </c>
-      <c r="T197" s="26">
+        <v>150</v>
+      </c>
+      <c r="T197" s="23">
         <f>Z194*Z195/Z196/Z198</f>
         <v>3.1830988618379075</v>
       </c>
@@ -5458,7 +6956,7 @@
         <v>8</v>
       </c>
       <c r="X197" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y197">
         <f>10*PI()/180</f>
@@ -5471,7 +6969,7 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I198" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J198">
         <v>10</v>
@@ -5481,7 +6979,7 @@
         <v>62.831853071795862</v>
       </c>
       <c r="X198" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y198">
         <v>20</v>
@@ -5493,10 +6991,10 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I199" t="s">
+        <v>162</v>
+      </c>
+      <c r="X199" t="s">
         <v>163</v>
-      </c>
-      <c r="X199" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.25">
@@ -5512,13 +7010,13 @@
       </c>
     </row>
     <row r="201" spans="1:28" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B201" s="24"/>
-      <c r="C201" s="24"/>
-      <c r="D201" s="24"/>
-      <c r="E201" s="24"/>
+      <c r="A201" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B201" s="25"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
     </row>
     <row r="202" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="21"/>
@@ -5546,50 +7044,1679 @@
     <row r="219" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B221" s="23"/>
-      <c r="C221" s="23"/>
-      <c r="D221" s="23"/>
-      <c r="E221" s="23"/>
+      <c r="A221" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N222" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O223" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O224" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P224" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B246" s="25"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="25"/>
+      <c r="E246" s="25"/>
+    </row>
+    <row r="275" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="276" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="277" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B277" s="29"/>
+      <c r="C277" s="29"/>
+      <c r="D277" s="29"/>
+      <c r="E277" s="29"/>
+      <c r="F277" s="29"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I277" s="30"/>
+      <c r="J277" s="30"/>
+      <c r="K277" s="30"/>
+      <c r="L277" s="30"/>
+      <c r="M277" s="30"/>
+      <c r="N277" s="30"/>
+      <c r="O277" s="30"/>
+      <c r="R277">
+        <v>0</v>
+      </c>
+      <c r="S277">
+        <v>5</v>
+      </c>
+      <c r="T277">
+        <v>10</v>
+      </c>
+      <c r="U277">
+        <v>15</v>
+      </c>
+      <c r="V277">
+        <v>20</v>
+      </c>
+      <c r="W277">
+        <v>25</v>
+      </c>
+      <c r="X277">
+        <v>30</v>
+      </c>
+      <c r="Y277">
+        <v>35</v>
+      </c>
+      <c r="Z277">
+        <v>40</v>
+      </c>
+      <c r="AA277">
+        <v>45</v>
+      </c>
+      <c r="AB277">
+        <v>50</v>
+      </c>
+      <c r="AC277">
+        <v>55</v>
+      </c>
+      <c r="AD277">
+        <v>60</v>
+      </c>
+      <c r="AE277">
+        <v>65</v>
+      </c>
+      <c r="AF277">
+        <v>70</v>
+      </c>
+      <c r="AG277">
+        <v>75</v>
+      </c>
+      <c r="AH277">
+        <v>80</v>
+      </c>
+      <c r="AI277">
+        <v>85</v>
+      </c>
+      <c r="AJ277">
+        <v>90</v>
+      </c>
+      <c r="AK277">
+        <v>95</v>
+      </c>
+      <c r="AL277">
+        <v>100</v>
+      </c>
+      <c r="AM277">
+        <v>105</v>
+      </c>
+      <c r="AN277">
+        <v>110</v>
+      </c>
+      <c r="AO277">
+        <v>115</v>
+      </c>
+      <c r="AP277">
+        <v>120</v>
+      </c>
+      <c r="AQ277">
+        <v>125</v>
+      </c>
+      <c r="AR277">
+        <v>130</v>
+      </c>
+      <c r="AS277">
+        <v>135</v>
+      </c>
+      <c r="AT277">
         <v>140</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B246" s="24"/>
-      <c r="C246" s="24"/>
-      <c r="D246" s="24"/>
-      <c r="E246" s="24"/>
+      <c r="AU277">
+        <v>145</v>
+      </c>
+      <c r="AV277">
+        <v>150</v>
+      </c>
+      <c r="AW277">
+        <v>155</v>
+      </c>
+      <c r="AX277">
+        <v>160</v>
+      </c>
+      <c r="AY277">
+        <v>165</v>
+      </c>
+      <c r="AZ277">
+        <v>170</v>
+      </c>
+      <c r="BA277">
+        <v>175</v>
+      </c>
+      <c r="BB277">
+        <v>180</v>
+      </c>
+      <c r="BC277">
+        <v>185</v>
+      </c>
+      <c r="BD277">
+        <v>190</v>
+      </c>
+      <c r="BE277">
+        <v>195</v>
+      </c>
+      <c r="BF277">
+        <v>200</v>
+      </c>
+      <c r="BG277">
+        <v>205</v>
+      </c>
+      <c r="BH277">
+        <v>210</v>
+      </c>
+      <c r="BI277">
+        <v>215</v>
+      </c>
+      <c r="BJ277">
+        <v>220</v>
+      </c>
+      <c r="BK277">
+        <v>225</v>
+      </c>
+      <c r="BL277">
+        <v>230</v>
+      </c>
+      <c r="BM277">
+        <v>235</v>
+      </c>
+      <c r="BN277">
+        <v>240</v>
+      </c>
+      <c r="BO277">
+        <v>245</v>
+      </c>
+      <c r="BP277">
+        <v>250</v>
+      </c>
+      <c r="BQ277">
+        <v>255</v>
+      </c>
+      <c r="BR277">
+        <v>260</v>
+      </c>
+      <c r="BS277">
+        <v>265</v>
+      </c>
+      <c r="BT277">
+        <v>270</v>
+      </c>
+      <c r="BU277">
+        <v>275</v>
+      </c>
+      <c r="BV277">
+        <v>280</v>
+      </c>
+      <c r="BW277">
+        <v>285</v>
+      </c>
+      <c r="BX277">
+        <v>290</v>
+      </c>
+      <c r="BY277">
+        <v>295</v>
+      </c>
+      <c r="BZ277">
+        <v>300</v>
+      </c>
+      <c r="CA277">
+        <v>305</v>
+      </c>
+      <c r="CB277">
+        <v>310</v>
+      </c>
+      <c r="CC277">
+        <v>315</v>
+      </c>
+      <c r="CD277">
+        <v>320</v>
+      </c>
+      <c r="CE277">
+        <v>325</v>
+      </c>
+      <c r="CF277">
+        <v>330</v>
+      </c>
+      <c r="CG277">
+        <v>335</v>
+      </c>
+      <c r="CH277">
+        <v>340</v>
+      </c>
+      <c r="CI277">
+        <v>345</v>
+      </c>
+      <c r="CJ277">
+        <v>350</v>
+      </c>
+      <c r="CK277">
+        <v>355</v>
+      </c>
+      <c r="CL277">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="278" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H278" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J278" s="4"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="4"/>
+      <c r="M278" s="4"/>
+      <c r="N278" s="4"/>
+      <c r="O278" s="4"/>
+      <c r="P278" s="4"/>
+      <c r="R278">
+        <v>1</v>
+      </c>
+      <c r="S278">
+        <v>1</v>
+      </c>
+      <c r="T278">
+        <v>1</v>
+      </c>
+      <c r="U278">
+        <v>1</v>
+      </c>
+      <c r="V278">
+        <v>1</v>
+      </c>
+      <c r="W278">
+        <v>1</v>
+      </c>
+      <c r="X278">
+        <v>1</v>
+      </c>
+      <c r="Y278">
+        <v>1</v>
+      </c>
+      <c r="Z278">
+        <v>1</v>
+      </c>
+      <c r="AA278">
+        <v>1</v>
+      </c>
+      <c r="AB278">
+        <v>1</v>
+      </c>
+      <c r="AC278">
+        <v>1</v>
+      </c>
+      <c r="AD278">
+        <v>1</v>
+      </c>
+      <c r="AE278">
+        <v>1</v>
+      </c>
+      <c r="AF278">
+        <v>1</v>
+      </c>
+      <c r="AG278">
+        <v>1</v>
+      </c>
+      <c r="AH278">
+        <v>1</v>
+      </c>
+      <c r="AI278">
+        <v>1</v>
+      </c>
+      <c r="AJ278">
+        <v>1</v>
+      </c>
+      <c r="AK278">
+        <v>-1</v>
+      </c>
+      <c r="AL278">
+        <v>-1</v>
+      </c>
+      <c r="AM278">
+        <v>-1</v>
+      </c>
+      <c r="AN278">
+        <v>-1</v>
+      </c>
+      <c r="AO278">
+        <v>-1</v>
+      </c>
+      <c r="AP278">
+        <v>-1</v>
+      </c>
+      <c r="AQ278">
+        <v>-1</v>
+      </c>
+      <c r="AR278">
+        <v>-1</v>
+      </c>
+      <c r="AS278">
+        <v>-1</v>
+      </c>
+      <c r="AT278">
+        <v>-1</v>
+      </c>
+      <c r="AU278">
+        <v>-1</v>
+      </c>
+      <c r="AV278">
+        <v>-1</v>
+      </c>
+      <c r="AW278">
+        <v>-1</v>
+      </c>
+      <c r="AX278">
+        <v>-1</v>
+      </c>
+      <c r="AY278">
+        <v>-1</v>
+      </c>
+      <c r="AZ278">
+        <v>-1</v>
+      </c>
+      <c r="BA278">
+        <v>-1</v>
+      </c>
+      <c r="BB278">
+        <v>-1</v>
+      </c>
+      <c r="BC278">
+        <v>-1</v>
+      </c>
+      <c r="BD278">
+        <v>-1</v>
+      </c>
+      <c r="BE278">
+        <v>-1</v>
+      </c>
+      <c r="BF278">
+        <v>-1</v>
+      </c>
+      <c r="BG278">
+        <v>-1</v>
+      </c>
+      <c r="BH278">
+        <v>-1</v>
+      </c>
+      <c r="BI278">
+        <v>-1</v>
+      </c>
+      <c r="BJ278">
+        <v>-1</v>
+      </c>
+      <c r="BK278">
+        <v>-1</v>
+      </c>
+      <c r="BL278">
+        <v>-1</v>
+      </c>
+      <c r="BM278">
+        <v>-1</v>
+      </c>
+      <c r="BN278">
+        <v>-1</v>
+      </c>
+      <c r="BO278">
+        <v>-1</v>
+      </c>
+      <c r="BP278">
+        <v>-1</v>
+      </c>
+      <c r="BQ278">
+        <v>-1</v>
+      </c>
+      <c r="BR278">
+        <v>-1</v>
+      </c>
+      <c r="BS278">
+        <v>-1</v>
+      </c>
+      <c r="BT278">
+        <v>1</v>
+      </c>
+      <c r="BU278">
+        <v>1</v>
+      </c>
+      <c r="BV278">
+        <v>1</v>
+      </c>
+      <c r="BW278">
+        <v>1</v>
+      </c>
+      <c r="BX278">
+        <v>1</v>
+      </c>
+      <c r="BY278">
+        <v>1</v>
+      </c>
+      <c r="BZ278">
+        <v>1</v>
+      </c>
+      <c r="CA278">
+        <v>1</v>
+      </c>
+      <c r="CB278">
+        <v>1</v>
+      </c>
+      <c r="CC278">
+        <v>1</v>
+      </c>
+      <c r="CD278">
+        <v>1</v>
+      </c>
+      <c r="CE278">
+        <v>1</v>
+      </c>
+      <c r="CF278">
+        <v>1</v>
+      </c>
+      <c r="CG278">
+        <v>1</v>
+      </c>
+      <c r="CH278">
+        <v>1</v>
+      </c>
+      <c r="CI278">
+        <v>1</v>
+      </c>
+      <c r="CJ278">
+        <v>1</v>
+      </c>
+      <c r="CK278">
+        <v>1</v>
+      </c>
+      <c r="CL278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="I279" s="4"/>
+      <c r="J279" s="4"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="4"/>
+      <c r="M279" s="4"/>
+      <c r="N279" s="4"/>
+      <c r="O279" s="4"/>
+      <c r="P279" s="4"/>
+      <c r="Q279" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="R279">
+        <f>$CM$279*R278</f>
+        <v>2</v>
+      </c>
+      <c r="S279">
+        <f>$CM$279*S278</f>
+        <v>2</v>
+      </c>
+      <c r="T279">
+        <f>$CM$279*T278</f>
+        <v>2</v>
+      </c>
+      <c r="U279">
+        <f>$CM$279*U278</f>
+        <v>2</v>
+      </c>
+      <c r="V279">
+        <f>$CM$279*V278</f>
+        <v>2</v>
+      </c>
+      <c r="W279">
+        <f>$CM$279*W278</f>
+        <v>2</v>
+      </c>
+      <c r="X279">
+        <f>$CM$279*X278</f>
+        <v>2</v>
+      </c>
+      <c r="Y279">
+        <f>$CM$279*Y278</f>
+        <v>2</v>
+      </c>
+      <c r="Z279">
+        <f>$CM$279*Z278</f>
+        <v>2</v>
+      </c>
+      <c r="AA279">
+        <f>$CM$279*AA278</f>
+        <v>2</v>
+      </c>
+      <c r="AB279">
+        <f>$CM$279*AB278</f>
+        <v>2</v>
+      </c>
+      <c r="AC279">
+        <f>$CM$279*AC278</f>
+        <v>2</v>
+      </c>
+      <c r="AD279">
+        <f>$CM$279*AD278</f>
+        <v>2</v>
+      </c>
+      <c r="AE279">
+        <f>$CM$279*AE278</f>
+        <v>2</v>
+      </c>
+      <c r="AF279">
+        <f>$CM$279*AF278</f>
+        <v>2</v>
+      </c>
+      <c r="AG279">
+        <f>$CM$279*AG278</f>
+        <v>2</v>
+      </c>
+      <c r="AH279">
+        <f>$CM$279*AH278</f>
+        <v>2</v>
+      </c>
+      <c r="AI279">
+        <f>$CM$279*AI278</f>
+        <v>2</v>
+      </c>
+      <c r="AJ279">
+        <f>$CM$279*AJ278</f>
+        <v>2</v>
+      </c>
+      <c r="AK279">
+        <f>$CM$279*AK278</f>
+        <v>-2</v>
+      </c>
+      <c r="AL279">
+        <f>$CM$279*AL278</f>
+        <v>-2</v>
+      </c>
+      <c r="AM279">
+        <f>$CM$279*AM278</f>
+        <v>-2</v>
+      </c>
+      <c r="AN279">
+        <f>$CM$279*AN278</f>
+        <v>-2</v>
+      </c>
+      <c r="AO279">
+        <f>$CM$279*AO278</f>
+        <v>-2</v>
+      </c>
+      <c r="AP279">
+        <f>$CM$279*AP278</f>
+        <v>-2</v>
+      </c>
+      <c r="AQ279">
+        <f>$CM$279*AQ278</f>
+        <v>-2</v>
+      </c>
+      <c r="AR279">
+        <f>$CM$279*AR278</f>
+        <v>-2</v>
+      </c>
+      <c r="AS279">
+        <f>$CM$279*AS278</f>
+        <v>-2</v>
+      </c>
+      <c r="AT279">
+        <f>$CM$279*AT278</f>
+        <v>-2</v>
+      </c>
+      <c r="AU279">
+        <f>$CM$279*AU278</f>
+        <v>-2</v>
+      </c>
+      <c r="AV279">
+        <f>$CM$279*AV278</f>
+        <v>-2</v>
+      </c>
+      <c r="AW279">
+        <f>$CM$279*AW278</f>
+        <v>-2</v>
+      </c>
+      <c r="AX279">
+        <f>$CM$279*AX278</f>
+        <v>-2</v>
+      </c>
+      <c r="AY279">
+        <f>$CM$279*AY278</f>
+        <v>-2</v>
+      </c>
+      <c r="AZ279">
+        <f>$CM$279*AZ278</f>
+        <v>-2</v>
+      </c>
+      <c r="BA279">
+        <f>$CM$279*BA278</f>
+        <v>-2</v>
+      </c>
+      <c r="BB279">
+        <f>$CM$279*BB278</f>
+        <v>-2</v>
+      </c>
+      <c r="BC279">
+        <f>$CM$279*BC278</f>
+        <v>-2</v>
+      </c>
+      <c r="BD279">
+        <f>$CM$279*BD278</f>
+        <v>-2</v>
+      </c>
+      <c r="BE279">
+        <f>$CM$279*BE278</f>
+        <v>-2</v>
+      </c>
+      <c r="BF279">
+        <f>$CM$279*BF278</f>
+        <v>-2</v>
+      </c>
+      <c r="BG279">
+        <f>$CM$279*BG278</f>
+        <v>-2</v>
+      </c>
+      <c r="BH279">
+        <f>$CM$279*BH278</f>
+        <v>-2</v>
+      </c>
+      <c r="BI279">
+        <f>$CM$279*BI278</f>
+        <v>-2</v>
+      </c>
+      <c r="BJ279">
+        <f>$CM$279*BJ278</f>
+        <v>-2</v>
+      </c>
+      <c r="BK279">
+        <f>$CM$279*BK278</f>
+        <v>-2</v>
+      </c>
+      <c r="BL279">
+        <f>$CM$279*BL278</f>
+        <v>-2</v>
+      </c>
+      <c r="BM279">
+        <f>$CM$279*BM278</f>
+        <v>-2</v>
+      </c>
+      <c r="BN279">
+        <f>$CM$279*BN278</f>
+        <v>-2</v>
+      </c>
+      <c r="BO279">
+        <f>$CM$279*BO278</f>
+        <v>-2</v>
+      </c>
+      <c r="BP279">
+        <f>$CM$279*BP278</f>
+        <v>-2</v>
+      </c>
+      <c r="BQ279">
+        <f>$CM$279*BQ278</f>
+        <v>-2</v>
+      </c>
+      <c r="BR279">
+        <f>$CM$279*BR278</f>
+        <v>-2</v>
+      </c>
+      <c r="BS279">
+        <f>$CM$279*BS278</f>
+        <v>-2</v>
+      </c>
+      <c r="BT279">
+        <f>$CM$279*BT278</f>
+        <v>2</v>
+      </c>
+      <c r="BU279">
+        <f>$CM$279*BU278</f>
+        <v>2</v>
+      </c>
+      <c r="BV279">
+        <f>$CM$279*BV278</f>
+        <v>2</v>
+      </c>
+      <c r="BW279">
+        <f>$CM$279*BW278</f>
+        <v>2</v>
+      </c>
+      <c r="BX279">
+        <f>$CM$279*BX278</f>
+        <v>2</v>
+      </c>
+      <c r="BY279">
+        <f>$CM$279*BY278</f>
+        <v>2</v>
+      </c>
+      <c r="BZ279">
+        <f>$CM$279*BZ278</f>
+        <v>2</v>
+      </c>
+      <c r="CA279">
+        <f>$CM$279*CA278</f>
+        <v>2</v>
+      </c>
+      <c r="CB279">
+        <f>$CM$279*CB278</f>
+        <v>2</v>
+      </c>
+      <c r="CC279">
+        <f>$CM$279*CC278</f>
+        <v>2</v>
+      </c>
+      <c r="CD279">
+        <f>$CM$279*CD278</f>
+        <v>2</v>
+      </c>
+      <c r="CE279">
+        <f>$CM$279*CE278</f>
+        <v>2</v>
+      </c>
+      <c r="CF279">
+        <f>$CM$279*CF278</f>
+        <v>2</v>
+      </c>
+      <c r="CG279">
+        <f>$CM$279*CG278</f>
+        <v>2</v>
+      </c>
+      <c r="CH279">
+        <f>$CM$279*CH278</f>
+        <v>2</v>
+      </c>
+      <c r="CI279">
+        <f>$CM$279*CI278</f>
+        <v>2</v>
+      </c>
+      <c r="CJ279">
+        <f>$CM$279*CJ278</f>
+        <v>2</v>
+      </c>
+      <c r="CK279">
+        <f>$CM$279*CK278</f>
+        <v>2</v>
+      </c>
+      <c r="CL279">
+        <f>$CM$279*CL278</f>
+        <v>2</v>
+      </c>
+      <c r="CM279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="H281" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="R281">
+        <f>COS(R277*PI()/180)</f>
+        <v>1</v>
+      </c>
+      <c r="S281">
+        <f>COS(S277*PI()/180)</f>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="T281">
+        <f>COS(T277*PI()/180)</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="U281">
+        <f>COS(U277*PI()/180)</f>
+        <v>0.96592582628906831</v>
+      </c>
+      <c r="V281">
+        <f>COS(V277*PI()/180)</f>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="W281">
+        <f>COS(W277*PI()/180)</f>
+        <v>0.90630778703664994</v>
+      </c>
+      <c r="X281">
+        <f>COS(X277*PI()/180)</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="Y281">
+        <f>COS(Y277*PI()/180)</f>
+        <v>0.8191520442889918</v>
+      </c>
+      <c r="Z281">
+        <f>COS(Z277*PI()/180)</f>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="AA281">
+        <f>COS(AA277*PI()/180)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AB281">
+        <f>COS(AB277*PI()/180)</f>
+        <v>0.64278760968653936</v>
+      </c>
+      <c r="AC281">
+        <f>COS(AC277*PI()/180)</f>
+        <v>0.57357643635104616</v>
+      </c>
+      <c r="AD281">
+        <f>COS(AD277*PI()/180)</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="AE281">
+        <f>COS(AE277*PI()/180)</f>
+        <v>0.42261826174069944</v>
+      </c>
+      <c r="AF281">
+        <f>COS(AF277*PI()/180)</f>
+        <v>0.34202014332566882</v>
+      </c>
+      <c r="AG281">
+        <f>COS(AG277*PI()/180)</f>
+        <v>0.25881904510252074</v>
+      </c>
+      <c r="AH281">
+        <f>COS(AH277*PI()/180)</f>
+        <v>0.17364817766693041</v>
+      </c>
+      <c r="AI281">
+        <f>COS(AI277*PI()/180)</f>
+        <v>8.7155742747658138E-2</v>
+      </c>
+      <c r="AJ281">
+        <f>COS(AJ277*PI()/180)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="AK281">
+        <f>COS(AK277*PI()/180)</f>
+        <v>-8.7155742747658235E-2</v>
+      </c>
+      <c r="AL281">
+        <f>COS(AL277*PI()/180)</f>
+        <v>-0.1736481776669303</v>
+      </c>
+      <c r="AM281">
+        <f>COS(AM277*PI()/180)</f>
+        <v>-0.25881904510252085</v>
+      </c>
+      <c r="AN281">
+        <f>COS(AN277*PI()/180)</f>
+        <v>-0.34202014332566871</v>
+      </c>
+      <c r="AO281">
+        <f>COS(AO277*PI()/180)</f>
+        <v>-0.42261826174069933</v>
+      </c>
+      <c r="AP281">
+        <f>COS(AP277*PI()/180)</f>
+        <v>-0.49999999999999978</v>
+      </c>
+      <c r="AQ281">
+        <f>COS(AQ277*PI()/180)</f>
+        <v>-0.57357643635104583</v>
+      </c>
+      <c r="AR281">
+        <f>COS(AR277*PI()/180)</f>
+        <v>-0.64278760968653936</v>
+      </c>
+      <c r="AS281">
+        <f>COS(AS277*PI()/180)</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="AT281">
+        <f>COS(AT277*PI()/180)</f>
+        <v>-0.7660444431189779</v>
+      </c>
+      <c r="AU281">
+        <f>COS(AU277*PI()/180)</f>
+        <v>-0.81915204428899158</v>
+      </c>
+      <c r="AV281">
+        <f>COS(AV277*PI()/180)</f>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="AW281">
+        <f>COS(AW277*PI()/180)</f>
+        <v>-0.90630778703664994</v>
+      </c>
+      <c r="AX281">
+        <f>COS(AX277*PI()/180)</f>
+        <v>-0.93969262078590832</v>
+      </c>
+      <c r="AY281">
+        <f>COS(AY277*PI()/180)</f>
+        <v>-0.9659258262890682</v>
+      </c>
+      <c r="AZ281">
+        <f>COS(AZ277*PI()/180)</f>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="BA281">
+        <f>COS(BA277*PI()/180)</f>
+        <v>-0.99619469809174555</v>
+      </c>
+      <c r="BB281">
+        <f>COS(BB277*PI()/180)</f>
+        <v>-1</v>
+      </c>
+      <c r="BC281">
+        <f>COS(BC277*PI()/180)</f>
+        <v>-0.99619469809174555</v>
+      </c>
+      <c r="BD281">
+        <f>COS(BD277*PI()/180)</f>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="BE281">
+        <f>COS(BE277*PI()/180)</f>
+        <v>-0.96592582628906842</v>
+      </c>
+      <c r="BF281">
+        <f>COS(BF277*PI()/180)</f>
+        <v>-0.93969262078590843</v>
+      </c>
+      <c r="BG281">
+        <f>COS(BG277*PI()/180)</f>
+        <v>-0.90630778703665005</v>
+      </c>
+      <c r="BH281">
+        <f>COS(BH277*PI()/180)</f>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="BI281">
+        <f>COS(BI277*PI()/180)</f>
+        <v>-0.81915204428899202</v>
+      </c>
+      <c r="BJ281">
+        <f>COS(BJ277*PI()/180)</f>
+        <v>-0.76604444311897801</v>
+      </c>
+      <c r="BK281">
+        <f>COS(BK277*PI()/180)</f>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="BL281">
+        <f>COS(BL277*PI()/180)</f>
+        <v>-0.64278760968653947</v>
+      </c>
+      <c r="BM281">
+        <f>COS(BM277*PI()/180)</f>
+        <v>-0.57357643635104638</v>
+      </c>
+      <c r="BN281">
+        <f>COS(BN277*PI()/180)</f>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="BO281">
+        <f>COS(BO277*PI()/180)</f>
+        <v>-0.42261826174069994</v>
+      </c>
+      <c r="BP281">
+        <f>COS(BP277*PI()/180)</f>
+        <v>-0.34202014332566938</v>
+      </c>
+      <c r="BQ281">
+        <f>COS(BQ277*PI()/180)</f>
+        <v>-0.25881904510252063</v>
+      </c>
+      <c r="BR281">
+        <f>COS(BR277*PI()/180)</f>
+        <v>-0.17364817766693033</v>
+      </c>
+      <c r="BS281">
+        <f>COS(BS277*PI()/180)</f>
+        <v>-8.7155742747658249E-2</v>
+      </c>
+      <c r="BT281">
+        <f>COS(BT277*PI()/180)</f>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="BU281">
+        <f>COS(BU277*PI()/180)</f>
+        <v>8.7155742747657888E-2</v>
+      </c>
+      <c r="BV281">
+        <f>COS(BV277*PI()/180)</f>
+        <v>0.17364817766692997</v>
+      </c>
+      <c r="BW281">
+        <f>COS(BW277*PI()/180)</f>
+        <v>0.25881904510252113</v>
+      </c>
+      <c r="BX281">
+        <f>COS(BX277*PI()/180)</f>
+        <v>0.34202014332566816</v>
+      </c>
+      <c r="BY281">
+        <f>COS(BY277*PI()/180)</f>
+        <v>0.42261826174069961</v>
+      </c>
+      <c r="BZ281">
+        <f>COS(BZ277*PI()/180)</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="CA281">
+        <f>COS(CA277*PI()/180)</f>
+        <v>0.57357643635104605</v>
+      </c>
+      <c r="CB281">
+        <f>COS(CB277*PI()/180)</f>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="CC281">
+        <f>COS(CC277*PI()/180)</f>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="CD281">
+        <f>COS(CD277*PI()/180)</f>
+        <v>0.76604444311897779</v>
+      </c>
+      <c r="CE281">
+        <f>COS(CE277*PI()/180)</f>
+        <v>0.81915204428899158</v>
+      </c>
+      <c r="CF281">
+        <f>COS(CF277*PI()/180)</f>
+        <v>0.86602540378443837</v>
+      </c>
+      <c r="CG281">
+        <f>COS(CG277*PI()/180)</f>
+        <v>0.90630778703664971</v>
+      </c>
+      <c r="CH281">
+        <f>COS(CH277*PI()/180)</f>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="CI281">
+        <f>COS(CI277*PI()/180)</f>
+        <v>0.96592582628906831</v>
+      </c>
+      <c r="CJ281">
+        <f>COS(CJ277*PI()/180)</f>
+        <v>0.98480775301220791</v>
+      </c>
+      <c r="CK281">
+        <f>COS(CK277*PI()/180)</f>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="CL281">
+        <f>COS(CL277*PI()/180)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="H282" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="R282">
+        <f>SIN(R277*R279*PI()/180)</f>
+        <v>0</v>
+      </c>
+      <c r="S282">
+        <f>SIN(S277*S279*PI()/180)</f>
+        <v>0.17364817766693033</v>
+      </c>
+      <c r="T282">
+        <f>SIN(T277*T279*PI()/180)</f>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="U282">
+        <f>SIN(U277*U279*PI()/180)</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="V282">
+        <f>SIN(V277*V279*PI()/180)</f>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="W282">
+        <f>SIN(W277*W279*PI()/180)</f>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="X282">
+        <f>SIN(X277*X279*PI()/180)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="Y282">
+        <f>SIN(Y277*Y279*PI()/180)</f>
+        <v>0.93969262078590832</v>
+      </c>
+      <c r="Z282">
+        <f>SIN(Z277*Z279*PI()/180)</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="AA282">
+        <f>SIN(AA277*AA279*PI()/180)</f>
+        <v>1</v>
+      </c>
+      <c r="AB282">
+        <f>SIN(AB277*AB279*PI()/180)</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="AC282">
+        <f>SIN(AC277*AC279*PI()/180)</f>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="AD282">
+        <f>SIN(AD277*AD279*PI()/180)</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="AE282">
+        <f>SIN(AE277*AE279*PI()/180)</f>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="AF282">
+        <f>SIN(AF277*AF279*PI()/180)</f>
+        <v>0.64278760968653947</v>
+      </c>
+      <c r="AG282">
+        <f>SIN(AG277*AG279*PI()/180)</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="AH282">
+        <f>SIN(AH277*AH279*PI()/180)</f>
+        <v>0.34202014332566888</v>
+      </c>
+      <c r="AI282">
+        <f>SIN(AI277*AI279*PI()/180)</f>
+        <v>0.17364817766693028</v>
+      </c>
+      <c r="AJ282">
+        <f>SIN(AJ277*AJ279*PI()/180)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AK282">
+        <f>SIN(AK277*AK279*PI()/180)</f>
+        <v>0.17364817766693047</v>
+      </c>
+      <c r="AL282">
+        <f>SIN(AL277*AL279*PI()/180)</f>
+        <v>0.34202014332566866</v>
+      </c>
+      <c r="AM282">
+        <f>SIN(AM277*AM279*PI()/180)</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="AN282">
+        <f>SIN(AN277*AN279*PI()/180)</f>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="AO282">
+        <f>SIN(AO277*AO279*PI()/180)</f>
+        <v>0.7660444431189779</v>
+      </c>
+      <c r="AP282">
+        <f>SIN(AP277*AP279*PI()/180)</f>
+        <v>0.86602540378443837</v>
+      </c>
+      <c r="AQ282">
+        <f>SIN(AQ277*AQ279*PI()/180)</f>
+        <v>0.93969262078590821</v>
+      </c>
+      <c r="AR282">
+        <f>SIN(AR277*AR279*PI()/180)</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="AS282">
+        <f>SIN(AS277*AS279*PI()/180)</f>
+        <v>1</v>
+      </c>
+      <c r="AT282">
+        <f>SIN(AT277*AT279*PI()/180)</f>
+        <v>0.98480775301220813</v>
+      </c>
+      <c r="AU282">
+        <f>SIN(AU277*AU279*PI()/180)</f>
+        <v>0.93969262078590854</v>
+      </c>
+      <c r="AV282">
+        <f>SIN(AV277*AV279*PI()/180)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="AW282">
+        <f>SIN(AW277*AW279*PI()/180)</f>
+        <v>0.76604444311897812</v>
+      </c>
+      <c r="AX282">
+        <f>SIN(AX277*AX279*PI()/180)</f>
+        <v>0.64278760968653958</v>
+      </c>
+      <c r="AY282">
+        <f>SIN(AY277*AY279*PI()/180)</f>
+        <v>0.50000000000000044</v>
+      </c>
+      <c r="AZ282">
+        <f>SIN(AZ277*AZ279*PI()/180)</f>
+        <v>0.3420201433256686</v>
+      </c>
+      <c r="BA282">
+        <f>SIN(BA277*BA279*PI()/180)</f>
+        <v>0.17364817766693127</v>
+      </c>
+      <c r="BB282">
+        <f>SIN(BB277*BB279*PI()/180)</f>
+        <v>2.45029690981724E-16</v>
+      </c>
+      <c r="BC282">
+        <f>SIN(BC277*BC279*PI()/180)</f>
+        <v>-0.17364817766692991</v>
+      </c>
+      <c r="BD282">
+        <f>SIN(BD277*BD279*PI()/180)</f>
+        <v>-0.34202014332566893</v>
+      </c>
+      <c r="BE282">
+        <f>SIN(BE277*BE279*PI()/180)</f>
+        <v>-0.49999999999999928</v>
+      </c>
+      <c r="BF282">
+        <f>SIN(BF277*BF279*PI()/180)</f>
+        <v>-0.64278760968653914</v>
+      </c>
+      <c r="BG282">
+        <f>SIN(BG277*BG279*PI()/180)</f>
+        <v>-0.76604444311897779</v>
+      </c>
+      <c r="BH282">
+        <f>SIN(BH277*BH279*PI()/180)</f>
+        <v>-0.86602540378443882</v>
+      </c>
+      <c r="BI282">
+        <f>SIN(BI277*BI279*PI()/180)</f>
+        <v>-0.93969262078590809</v>
+      </c>
+      <c r="BJ282">
+        <f>SIN(BJ277*BJ279*PI()/180)</f>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="BK282">
+        <f>SIN(BK277*BK279*PI()/180)</f>
+        <v>-1</v>
+      </c>
+      <c r="BL282">
+        <f>SIN(BL277*BL279*PI()/180)</f>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="BM282">
+        <f>SIN(BM277*BM279*PI()/180)</f>
+        <v>-0.93969262078590865</v>
+      </c>
+      <c r="BN282">
+        <f>SIN(BN277*BN279*PI()/180)</f>
+        <v>-0.86602540378443915</v>
+      </c>
+      <c r="BO282">
+        <f>SIN(BO277*BO279*PI()/180)</f>
+        <v>-0.76604444311897879</v>
+      </c>
+      <c r="BP282">
+        <f>SIN(BP277*BP279*PI()/180)</f>
+        <v>-0.64278760968654036</v>
+      </c>
+      <c r="BQ282">
+        <f>SIN(BQ277*BQ279*PI()/180)</f>
+        <v>-0.49999999999999978</v>
+      </c>
+      <c r="BR282">
+        <f>SIN(BR277*BR279*PI()/180)</f>
+        <v>-0.34202014332566871</v>
+      </c>
+      <c r="BS282">
+        <f>SIN(BS277*BS279*PI()/180)</f>
+        <v>-0.1736481776669305</v>
+      </c>
+      <c r="BT282">
+        <f>SIN(BT277*BT279*PI()/180)</f>
+        <v>3.67544536472586E-16</v>
+      </c>
+      <c r="BU282">
+        <f>SIN(BU277*BU279*PI()/180)</f>
+        <v>-0.17364817766692978</v>
+      </c>
+      <c r="BV282">
+        <f>SIN(BV277*BV279*PI()/180)</f>
+        <v>-0.34202014332566799</v>
+      </c>
+      <c r="BW282">
+        <f>SIN(BW277*BW279*PI()/180)</f>
+        <v>-0.50000000000000067</v>
+      </c>
+      <c r="BX282">
+        <f>SIN(BX277*BX279*PI()/180)</f>
+        <v>-0.64278760968653836</v>
+      </c>
+      <c r="BY282">
+        <f>SIN(BY277*BY279*PI()/180)</f>
+        <v>-0.76604444311897824</v>
+      </c>
+      <c r="BZ282">
+        <f>SIN(BZ277*BZ279*PI()/180)</f>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="CA282">
+        <f>SIN(CA277*CA279*PI()/180)</f>
+        <v>-0.93969262078590843</v>
+      </c>
+      <c r="CB282">
+        <f>SIN(CB277*CB279*PI()/180)</f>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="CC282">
+        <f>SIN(CC277*CC279*PI()/180)</f>
+        <v>-1</v>
+      </c>
+      <c r="CD282">
+        <f>SIN(CD277*CD279*PI()/180)</f>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="CE282">
+        <f>SIN(CE277*CE279*PI()/180)</f>
+        <v>-0.93969262078590865</v>
+      </c>
+      <c r="CF282">
+        <f>SIN(CF277*CF279*PI()/180)</f>
+        <v>-0.86602540378443915</v>
+      </c>
+      <c r="CG282">
+        <f>SIN(CG277*CG279*PI()/180)</f>
+        <v>-0.76604444311897879</v>
+      </c>
+      <c r="CH282">
+        <f>SIN(CH277*CH279*PI()/180)</f>
+        <v>-0.64278760968653903</v>
+      </c>
+      <c r="CI282">
+        <f>SIN(CI277*CI279*PI()/180)</f>
+        <v>-0.49999999999999989</v>
+      </c>
+      <c r="CJ282">
+        <f>SIN(CJ277*CJ279*PI()/180)</f>
+        <v>-0.34202014332567049</v>
+      </c>
+      <c r="CK282">
+        <f>SIN(CK277*CK279*PI()/180)</f>
+        <v>-0.17364817766693064</v>
+      </c>
+      <c r="CL282">
+        <f>SIN(CL277*CL279*PI()/180)</f>
+        <v>-4.90059381963448E-16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A294" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>200</v>
+      </c>
+      <c r="H295" t="s">
+        <v>210</v>
+      </c>
+      <c r="X295" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B297" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C297" s="32"/>
+      <c r="D297" s="32"/>
+      <c r="E297" s="32"/>
+      <c r="F297" s="32"/>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B298" s="31"/>
+      <c r="C298" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D298" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E298" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F298" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B299" s="31">
+        <v>0</v>
+      </c>
+      <c r="C299" s="31"/>
+      <c r="D299" s="31">
+        <v>30</v>
+      </c>
+      <c r="E299" s="31"/>
+      <c r="F299" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B300" s="31">
+        <v>1</v>
+      </c>
+      <c r="C300" s="31">
+        <v>-90</v>
+      </c>
+      <c r="D300" s="31"/>
+      <c r="E300" s="31">
+        <v>30</v>
+      </c>
+      <c r="F300" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B301" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C301" s="31">
+        <v>-90</v>
+      </c>
+      <c r="D301" s="31">
+        <v>90</v>
+      </c>
+      <c r="E301" s="31"/>
+      <c r="F301" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B302" s="31">
+        <v>3</v>
+      </c>
+      <c r="C302" s="31">
+        <v>-90</v>
+      </c>
+      <c r="D302" s="31">
+        <v>180</v>
+      </c>
+      <c r="E302" s="31"/>
+      <c r="F302" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B303" s="31">
+        <v>4</v>
+      </c>
+      <c r="C303" s="31">
+        <v>-90</v>
+      </c>
+      <c r="D303" s="31">
+        <v>210</v>
+      </c>
+      <c r="E303" s="31"/>
+      <c r="F303" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B304" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C304" s="31">
+        <v>90</v>
+      </c>
+      <c r="D304" s="31">
+        <v>90</v>
+      </c>
+      <c r="E304" s="31"/>
+      <c r="F304" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B305" s="31">
+        <v>6</v>
+      </c>
+      <c r="C305" s="31">
+        <v>60</v>
+      </c>
+      <c r="D305" s="31">
+        <v>180</v>
+      </c>
+      <c r="E305" s="31">
+        <v>-45</v>
+      </c>
+      <c r="F305" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B307" s="25"/>
+      <c r="C307" s="25"/>
+      <c r="D307" s="25"/>
+      <c r="E307" s="25"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="25"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="25"/>
+      <c r="D308" s="25"/>
+      <c r="E308" s="25"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="25"/>
+      <c r="B309" s="25"/>
+      <c r="C309" s="25"/>
+      <c r="D309" s="25"/>
+      <c r="E309" s="25"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="25"/>
+      <c r="B310" s="25"/>
+      <c r="C310" s="25"/>
+      <c r="D310" s="25"/>
+      <c r="E310" s="25"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="25"/>
+      <c r="B311" s="25"/>
+      <c r="C311" s="25"/>
+      <c r="D311" s="25"/>
+      <c r="E311" s="25"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="25"/>
+      <c r="B312" s="25"/>
+      <c r="C312" s="25"/>
+      <c r="D312" s="25"/>
+      <c r="E312" s="25"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="25"/>
+      <c r="B313" s="25"/>
+      <c r="C313" s="25"/>
+      <c r="D313" s="25"/>
+      <c r="E313" s="25"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B314" s="25"/>
+      <c r="C314" s="25"/>
+      <c r="D314" s="25"/>
+      <c r="E314" s="25"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="25"/>
+      <c r="B315" s="25"/>
+      <c r="C315" s="25"/>
+      <c r="D315" s="25"/>
+      <c r="E315" s="25"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="A307:E313"/>
+    <mergeCell ref="A314:E315"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A201:E201"/>
     <mergeCell ref="A246:E246"/>
     <mergeCell ref="M48:O51"/>
     <mergeCell ref="N42:O42"/>
@@ -5601,26 +8728,23 @@
     <mergeCell ref="A106:E106"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A201:E201"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal."/>
-    <hyperlink ref="A7" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3" location=":~:text=than%20this%2C%20however.-,Relativistic%20(Einsteinian),near%20a%20large%20rotating%20mass."/>
-    <hyperlink ref="E118" r:id="rId4"/>
-    <hyperlink ref="B188" r:id="rId5" tooltip="Precess" display="https://en.wikipedia.org/wiki/Precess"/>
-    <hyperlink ref="E141" r:id="rId6"/>
-    <hyperlink ref="A140" r:id="rId7"/>
-    <hyperlink ref="P223" r:id="rId8"/>
-    <hyperlink ref="P224" r:id="rId9"/>
-    <hyperlink ref="AB194"/>
+    <hyperlink ref="B1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" location=":~:text=than%20this%2C%20however.-,Relativistic%20(Einsteinian),near%20a%20large%20rotating%20mass." xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E118" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B188" r:id="rId5" tooltip="Precess" display="https://en.wikipedia.org/wiki/Precess" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E141" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A140" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="P223" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="P224" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AB194" display="https://www.google.com/search?q=derivation+of+precession+rate+with+no+torque&amp;sca_esv=b07fa04fa9278463&amp;rlz=1C1CHBD_enUS1144US1144&amp;ei=nrGCZ-2VDtmm5NoPjbe-iQk&amp;ved=0ahUKEwjt3PLVn-6KAxVZE1kFHY2bL5EQ4dUDCBA&amp;uact=5&amp;oq=derivation+of+precession+rate+with+no+torque" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A318" r:id="rId10" xr:uid="{FF6A8E42-AD7C-4572-835A-634D631FB580}"/>
+    <hyperlink ref="A320" r:id="rId11" xr:uid="{859A322A-A625-405F-93AF-45EB1E183AE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E58606-8669-42DE-8E43-EC4C6DDFA983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF28DE8-EF4D-4DF2-B69D-06C73C9EE3BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="223">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -1171,9 +1171,6 @@
     <t>Here is the continuation of bullet 5 about attitude angles.</t>
   </si>
   <si>
-    <t>They describe the position of a mobile device.</t>
-  </si>
-  <si>
     <t>yaw</t>
   </si>
   <si>
@@ -1204,9 +1201,6 @@
     <t>illustration 2 (from front right)</t>
   </si>
   <si>
-    <t>Illustrations on the right show the mobile phone in various positions in a 8 shape figure described by a user (there is a x -blue-, y -red- and z, -black- basis for reference.</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -1223,6 +1217,26 @@
   </si>
   <si>
     <t>3D Model (to manipulate):</t>
+  </si>
+  <si>
+    <t>Illustrations on the right show the mobile phone in various positions in a 8 shape figure described by a user (there is a x -blue-, y -red- and z, -black- basis for reference.
+Complaint: these positions are too difficult to achieve by describing the 8 shape with one hand. Position 5 could be the same than position 2. Position 6 could be position 1.
+The positions are all achieved from an initial state of the phone oriented front to back with the z axis (black) vertical (horizontal phone, with yaw, pitch and roll at 0).</t>
+  </si>
+  <si>
+    <t>Here, attitude angles describe the position of a mobile device.</t>
+  </si>
+  <si>
+    <t>10. Summary</t>
+  </si>
+  <si>
+    <t>Tip 1: A rotating device can be used to point the north direction because it is submitted to the spin of the Earth</t>
+  </si>
+  <si>
+    <t>Tip 2: The rotating device can have a state described with attitude angles</t>
+  </si>
+  <si>
+    <t>Tip 3: A mobile device can have a position described with attitude angles, and can use a rotating device like a gyroscope or a gyrocompass to point the north direction, itself in a position described by attitude angles</t>
   </si>
 </sst>
 </file>
@@ -1427,18 +1441,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1447,6 +1449,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1808,109 +1822,109 @@
                   <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17364817766693047</c:v>
+                  <c:v>-0.17364817766693047</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.34202014332566866</c:v>
+                  <c:v>-0.34202014332566866</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.50000000000000011</c:v>
+                  <c:v>-0.50000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.64278760968653925</c:v>
+                  <c:v>-0.64278760968653925</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7660444431189779</c:v>
+                  <c:v>-0.7660444431189779</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.86602540378443837</c:v>
+                  <c:v>-0.86602540378443837</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.93969262078590821</c:v>
+                  <c:v>-0.93969262078590821</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.98480775301220813</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.93969262078590854</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.76604444311897812</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.64278760968653958</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.3420201433256686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.17364817766693127</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.17364817766692991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34202014332566893</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.49999999999999928</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.64278760968653914</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76604444311897779</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.86602540378443882</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93969262078590809</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0.98480775301220802</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="45">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="46">
                   <c:v>0.98480775301220813</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.93969262078590854</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.8660254037844386</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.76604444311897812</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.64278760968653958</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.50000000000000044</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.3420201433256686</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.17364817766693127</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.45029690981724E-16</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.17364817766692991</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.34202014332566893</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.49999999999999928</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.64278760968653914</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.76604444311897779</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.86602540378443882</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.93969262078590809</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.98480775301220802</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.98480775301220813</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.93969262078590865</c:v>
+                  <c:v>0.93969262078590865</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.86602540378443915</c:v>
+                  <c:v>0.86602540378443915</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.76604444311897879</c:v>
+                  <c:v>0.76604444311897879</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.64278760968654036</c:v>
+                  <c:v>0.64278760968654036</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.49999999999999978</c:v>
+                  <c:v>0.49999999999999978</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.34202014332566871</c:v>
+                  <c:v>0.34202014332566871</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.1736481776669305</c:v>
+                  <c:v>0.1736481776669305</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>3.67544536472586E-16</c:v>
@@ -5276,8 +5290,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>331694</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>104360</xdr:rowOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>81948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5326,8 +5340,8 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>510988</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>104360</xdr:rowOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>81948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5632,10 +5646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM320"/>
+  <dimension ref="A1:CM327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A326" sqref="A326"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5815,13 +5829,13 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -5961,13 +5975,13 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
       <c r="J39" t="s">
         <v>36</v>
       </c>
@@ -5983,26 +5997,26 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="N42" s="27" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="N42" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="27"/>
+      <c r="O42" s="32"/>
     </row>
     <row r="43" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6015,56 +6029,56 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M48" s="26" t="s">
+      <c r="M48" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
     </row>
     <row r="49" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
@@ -6092,13 +6106,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -6106,13 +6120,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -6509,31 +6523,31 @@
       </c>
     </row>
     <row r="104" spans="1:35" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
     </row>
     <row r="105" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
     </row>
     <row r="106" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G113" s="2" t="s">
@@ -7010,13 +7024,13 @@
       </c>
     </row>
     <row r="201" spans="1:28" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B201" s="25"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="29"/>
     </row>
     <row r="202" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="21"/>
@@ -7048,13 +7062,13 @@
       </c>
     </row>
     <row r="221" spans="1:16" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="26" t="s">
+      <c r="A221" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="31"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="31"/>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N222" t="s">
@@ -7078,13 +7092,13 @@
       </c>
     </row>
     <row r="246" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="25" t="s">
+      <c r="A246" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B246" s="25"/>
-      <c r="C246" s="25"/>
-      <c r="D246" s="25"/>
-      <c r="E246" s="25"/>
+      <c r="B246" s="29"/>
+      <c r="C246" s="29"/>
+      <c r="D246" s="29"/>
+      <c r="E246" s="29"/>
     </row>
     <row r="275" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
@@ -7097,25 +7111,25 @@
       </c>
     </row>
     <row r="277" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="29" t="s">
+      <c r="A277" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="B277" s="29"/>
-      <c r="C277" s="29"/>
-      <c r="D277" s="29"/>
-      <c r="E277" s="29"/>
-      <c r="F277" s="29"/>
+      <c r="B277" s="30"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="30"/>
+      <c r="E277" s="30"/>
+      <c r="F277" s="30"/>
       <c r="G277" s="5"/>
-      <c r="H277" s="30" t="s">
+      <c r="H277" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="I277" s="30"/>
-      <c r="J277" s="30"/>
-      <c r="K277" s="30"/>
-      <c r="L277" s="30"/>
-      <c r="M277" s="30"/>
-      <c r="N277" s="30"/>
-      <c r="O277" s="30"/>
+      <c r="I277" s="26"/>
+      <c r="J277" s="26"/>
+      <c r="K277" s="26"/>
+      <c r="L277" s="26"/>
+      <c r="M277" s="26"/>
+      <c r="N277" s="26"/>
+      <c r="O277" s="26"/>
       <c r="R277">
         <v>0</v>
       </c>
@@ -7337,7 +7351,7 @@
       </c>
     </row>
     <row r="278" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H278" s="30" t="s">
+      <c r="H278" s="26" t="s">
         <v>192</v>
       </c>
       <c r="J278" s="4"/>
@@ -7405,109 +7419,109 @@
         <v>1</v>
       </c>
       <c r="AK278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AL278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AN278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AO278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AP278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AQ278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AS278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AT278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AU278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AW278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AZ278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BA278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BD278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BE278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BF278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BG278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BH278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BI278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BK278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BL278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BM278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BN278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BO278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BP278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BQ278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BR278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BS278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BT278">
         <v>1</v>
@@ -7580,295 +7594,295 @@
         <v>193</v>
       </c>
       <c r="R279">
-        <f>$CM$279*R278</f>
+        <f t="shared" ref="R279:AW279" si="3">$CM$279*R278</f>
         <v>2</v>
       </c>
       <c r="S279">
-        <f>$CM$279*S278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T279">
-        <f>$CM$279*T278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U279">
-        <f>$CM$279*U278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V279">
-        <f>$CM$279*V278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W279">
-        <f>$CM$279*W278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="X279">
-        <f>$CM$279*X278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y279">
-        <f>$CM$279*Y278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z279">
-        <f>$CM$279*Z278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA279">
-        <f>$CM$279*AA278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB279">
-        <f>$CM$279*AB278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC279">
-        <f>$CM$279*AC278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AD279">
-        <f>$CM$279*AD278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE279">
-        <f>$CM$279*AE278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF279">
-        <f>$CM$279*AF278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AG279">
-        <f>$CM$279*AG278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AH279">
-        <f>$CM$279*AH278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AI279">
-        <f>$CM$279*AI278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AJ279">
-        <f>$CM$279*AJ278</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AK279">
-        <f>$CM$279*AK278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AL279">
-        <f>$CM$279*AL278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AM279">
-        <f>$CM$279*AM278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AN279">
-        <f>$CM$279*AN278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AO279">
-        <f>$CM$279*AO278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AP279">
-        <f>$CM$279*AP278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AQ279">
-        <f>$CM$279*AQ278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AR279">
-        <f>$CM$279*AR278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AS279">
-        <f>$CM$279*AS278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AT279">
-        <f>$CM$279*AT278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AU279">
-        <f>$CM$279*AU278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AV279">
-        <f>$CM$279*AV278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AW279">
-        <f>$CM$279*AW278</f>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AX279">
-        <f>$CM$279*AX278</f>
-        <v>-2</v>
+        <f t="shared" ref="AX279:CC279" si="4">$CM$279*AX278</f>
+        <v>2</v>
       </c>
       <c r="AY279">
-        <f>$CM$279*AY278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AZ279">
-        <f>$CM$279*AZ278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BA279">
-        <f>$CM$279*BA278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BB279">
-        <f>$CM$279*BB278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BC279">
-        <f>$CM$279*BC278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BD279">
-        <f>$CM$279*BD278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BE279">
-        <f>$CM$279*BE278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BF279">
-        <f>$CM$279*BF278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BG279">
-        <f>$CM$279*BG278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BH279">
-        <f>$CM$279*BH278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BI279">
-        <f>$CM$279*BI278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BJ279">
-        <f>$CM$279*BJ278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BK279">
-        <f>$CM$279*BK278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BL279">
-        <f>$CM$279*BL278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BM279">
-        <f>$CM$279*BM278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BN279">
-        <f>$CM$279*BN278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BO279">
-        <f>$CM$279*BO278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BP279">
-        <f>$CM$279*BP278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BQ279">
-        <f>$CM$279*BQ278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BR279">
-        <f>$CM$279*BR278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BS279">
-        <f>$CM$279*BS278</f>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BT279">
-        <f>$CM$279*BT278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BU279">
-        <f>$CM$279*BU278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BV279">
-        <f>$CM$279*BV278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BW279">
-        <f>$CM$279*BW278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BX279">
-        <f>$CM$279*BX278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BY279">
-        <f>$CM$279*BY278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BZ279">
-        <f>$CM$279*BZ278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CA279">
-        <f>$CM$279*CA278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CB279">
-        <f>$CM$279*CB278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CC279">
-        <f>$CM$279*CC278</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CD279">
-        <f>$CM$279*CD278</f>
+        <f t="shared" ref="CD279:DI279" si="5">$CM$279*CD278</f>
         <v>2</v>
       </c>
       <c r="CE279">
-        <f>$CM$279*CE278</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CF279">
-        <f>$CM$279*CF278</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CG279">
-        <f>$CM$279*CG278</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CH279">
-        <f>$CM$279*CH278</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CI279">
-        <f>$CM$279*CI278</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CJ279">
-        <f>$CM$279*CJ278</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CK279">
-        <f>$CM$279*CK278</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CL279">
-        <f>$CM$279*CL278</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CM279">
@@ -7876,596 +7890,596 @@
       </c>
     </row>
     <row r="281" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="H281" s="28" t="s">
+      <c r="H281" s="25" t="s">
         <v>194</v>
       </c>
       <c r="R281">
-        <f>COS(R277*PI()/180)</f>
+        <f t="shared" ref="R281:AW281" si="6">COS(R277*PI()/180)</f>
         <v>1</v>
       </c>
       <c r="S281">
-        <f>COS(S277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="T281">
-        <f>COS(T277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="U281">
-        <f>COS(U277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.96592582628906831</v>
       </c>
       <c r="V281">
-        <f>COS(V277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="W281">
-        <f>COS(W277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.90630778703664994</v>
       </c>
       <c r="X281">
-        <f>COS(X277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="Y281">
-        <f>COS(Y277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.8191520442889918</v>
       </c>
       <c r="Z281">
-        <f>COS(Z277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="AA281">
-        <f>COS(AA277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="AB281">
-        <f>COS(AB277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.64278760968653936</v>
       </c>
       <c r="AC281">
-        <f>COS(AC277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.57357643635104616</v>
       </c>
       <c r="AD281">
-        <f>COS(AD277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="AE281">
-        <f>COS(AE277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.42261826174069944</v>
       </c>
       <c r="AF281">
-        <f>COS(AF277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.34202014332566882</v>
       </c>
       <c r="AG281">
-        <f>COS(AG277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.25881904510252074</v>
       </c>
       <c r="AH281">
-        <f>COS(AH277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.17364817766693041</v>
       </c>
       <c r="AI281">
-        <f>COS(AI277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>8.7155742747658138E-2</v>
       </c>
       <c r="AJ281">
-        <f>COS(AJ277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="AK281">
-        <f>COS(AK277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-8.7155742747658235E-2</v>
       </c>
       <c r="AL281">
-        <f>COS(AL277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.1736481776669303</v>
       </c>
       <c r="AM281">
-        <f>COS(AM277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.25881904510252085</v>
       </c>
       <c r="AN281">
-        <f>COS(AN277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.34202014332566871</v>
       </c>
       <c r="AO281">
-        <f>COS(AO277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.42261826174069933</v>
       </c>
       <c r="AP281">
-        <f>COS(AP277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.49999999999999978</v>
       </c>
       <c r="AQ281">
-        <f>COS(AQ277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.57357643635104583</v>
       </c>
       <c r="AR281">
-        <f>COS(AR277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.64278760968653936</v>
       </c>
       <c r="AS281">
-        <f>COS(AS277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.70710678118654746</v>
       </c>
       <c r="AT281">
-        <f>COS(AT277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.7660444431189779</v>
       </c>
       <c r="AU281">
-        <f>COS(AU277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.81915204428899158</v>
       </c>
       <c r="AV281">
-        <f>COS(AV277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="AW281">
-        <f>COS(AW277*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>-0.90630778703664994</v>
       </c>
       <c r="AX281">
-        <f>COS(AX277*PI()/180)</f>
+        <f t="shared" ref="AX281:CC281" si="7">COS(AX277*PI()/180)</f>
         <v>-0.93969262078590832</v>
       </c>
       <c r="AY281">
-        <f>COS(AY277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.9659258262890682</v>
       </c>
       <c r="AZ281">
-        <f>COS(AZ277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="BA281">
-        <f>COS(BA277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.99619469809174555</v>
       </c>
       <c r="BB281">
-        <f>COS(BB277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="BC281">
-        <f>COS(BC277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.99619469809174555</v>
       </c>
       <c r="BD281">
-        <f>COS(BD277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="BE281">
-        <f>COS(BE277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.96592582628906842</v>
       </c>
       <c r="BF281">
-        <f>COS(BF277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.93969262078590843</v>
       </c>
       <c r="BG281">
-        <f>COS(BG277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.90630778703665005</v>
       </c>
       <c r="BH281">
-        <f>COS(BH277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.8660254037844386</v>
       </c>
       <c r="BI281">
-        <f>COS(BI277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.81915204428899202</v>
       </c>
       <c r="BJ281">
-        <f>COS(BJ277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.76604444311897801</v>
       </c>
       <c r="BK281">
-        <f>COS(BK277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.70710678118654768</v>
       </c>
       <c r="BL281">
-        <f>COS(BL277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.64278760968653947</v>
       </c>
       <c r="BM281">
-        <f>COS(BM277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.57357643635104638</v>
       </c>
       <c r="BN281">
-        <f>COS(BN277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.50000000000000044</v>
       </c>
       <c r="BO281">
-        <f>COS(BO277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.42261826174069994</v>
       </c>
       <c r="BP281">
-        <f>COS(BP277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.34202014332566938</v>
       </c>
       <c r="BQ281">
-        <f>COS(BQ277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.25881904510252063</v>
       </c>
       <c r="BR281">
-        <f>COS(BR277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-0.17364817766693033</v>
       </c>
       <c r="BS281">
-        <f>COS(BS277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-8.7155742747658249E-2</v>
       </c>
       <c r="BT281">
-        <f>COS(BT277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>-1.83772268236293E-16</v>
       </c>
       <c r="BU281">
-        <f>COS(BU277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>8.7155742747657888E-2</v>
       </c>
       <c r="BV281">
-        <f>COS(BV277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>0.17364817766692997</v>
       </c>
       <c r="BW281">
-        <f>COS(BW277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>0.25881904510252113</v>
       </c>
       <c r="BX281">
-        <f>COS(BX277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>0.34202014332566816</v>
       </c>
       <c r="BY281">
-        <f>COS(BY277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>0.42261826174069961</v>
       </c>
       <c r="BZ281">
-        <f>COS(BZ277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="CA281">
-        <f>COS(CA277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>0.57357643635104605</v>
       </c>
       <c r="CB281">
-        <f>COS(CB277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="CC281">
-        <f>COS(CC277*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="CD281">
-        <f>COS(CD277*PI()/180)</f>
+        <f t="shared" ref="CD281:CL281" si="8">COS(CD277*PI()/180)</f>
         <v>0.76604444311897779</v>
       </c>
       <c r="CE281">
-        <f>COS(CE277*PI()/180)</f>
+        <f t="shared" si="8"/>
         <v>0.81915204428899158</v>
       </c>
       <c r="CF281">
-        <f>COS(CF277*PI()/180)</f>
+        <f t="shared" si="8"/>
         <v>0.86602540378443837</v>
       </c>
       <c r="CG281">
-        <f>COS(CG277*PI()/180)</f>
+        <f t="shared" si="8"/>
         <v>0.90630778703664971</v>
       </c>
       <c r="CH281">
-        <f>COS(CH277*PI()/180)</f>
+        <f t="shared" si="8"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="CI281">
-        <f>COS(CI277*PI()/180)</f>
+        <f t="shared" si="8"/>
         <v>0.96592582628906831</v>
       </c>
       <c r="CJ281">
-        <f>COS(CJ277*PI()/180)</f>
+        <f t="shared" si="8"/>
         <v>0.98480775301220791</v>
       </c>
       <c r="CK281">
-        <f>COS(CK277*PI()/180)</f>
+        <f t="shared" si="8"/>
         <v>0.99619469809174555</v>
       </c>
       <c r="CL281">
-        <f>COS(CL277*PI()/180)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="H282" s="28" t="s">
+      <c r="H282" s="25" t="s">
         <v>195</v>
       </c>
       <c r="R282">
-        <f>SIN(R277*R279*PI()/180)</f>
+        <f t="shared" ref="R282:AW282" si="9">SIN(R277*R279*PI()/180)</f>
         <v>0</v>
       </c>
       <c r="S282">
-        <f>SIN(S277*S279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.17364817766693033</v>
       </c>
       <c r="T282">
-        <f>SIN(T277*T279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.34202014332566871</v>
       </c>
       <c r="U282">
-        <f>SIN(U277*U279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="V282">
-        <f>SIN(V277*V279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.64278760968653925</v>
       </c>
       <c r="W282">
-        <f>SIN(W277*W279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="X282">
-        <f>SIN(X277*X279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="Y282">
-        <f>SIN(Y277*Y279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.93969262078590832</v>
       </c>
       <c r="Z282">
-        <f>SIN(Z277*Z279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="AA282">
-        <f>SIN(AA277*AA279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AB282">
-        <f>SIN(AB277*AB279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.98480775301220802</v>
       </c>
       <c r="AC282">
-        <f>SIN(AC277*AC279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.93969262078590843</v>
       </c>
       <c r="AD282">
-        <f>SIN(AD277*AD279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="AE282">
-        <f>SIN(AE277*AE279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.76604444311897801</v>
       </c>
       <c r="AF282">
-        <f>SIN(AF277*AF279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.64278760968653947</v>
       </c>
       <c r="AG282">
-        <f>SIN(AG277*AG279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="AH282">
-        <f>SIN(AH277*AH279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.34202014332566888</v>
       </c>
       <c r="AI282">
-        <f>SIN(AI277*AI279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>0.17364817766693028</v>
       </c>
       <c r="AJ282">
-        <f>SIN(AJ277*AJ279*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="AK282">
-        <f>SIN(AK277*AK279*PI()/180)</f>
-        <v>0.17364817766693047</v>
+        <f t="shared" si="9"/>
+        <v>-0.17364817766693047</v>
       </c>
       <c r="AL282">
-        <f>SIN(AL277*AL279*PI()/180)</f>
-        <v>0.34202014332566866</v>
+        <f t="shared" si="9"/>
+        <v>-0.34202014332566866</v>
       </c>
       <c r="AM282">
-        <f>SIN(AM277*AM279*PI()/180)</f>
-        <v>0.50000000000000011</v>
+        <f t="shared" si="9"/>
+        <v>-0.50000000000000011</v>
       </c>
       <c r="AN282">
-        <f>SIN(AN277*AN279*PI()/180)</f>
-        <v>0.64278760968653925</v>
+        <f t="shared" si="9"/>
+        <v>-0.64278760968653925</v>
       </c>
       <c r="AO282">
-        <f>SIN(AO277*AO279*PI()/180)</f>
-        <v>0.7660444431189779</v>
+        <f t="shared" si="9"/>
+        <v>-0.7660444431189779</v>
       </c>
       <c r="AP282">
-        <f>SIN(AP277*AP279*PI()/180)</f>
-        <v>0.86602540378443837</v>
+        <f t="shared" si="9"/>
+        <v>-0.86602540378443837</v>
       </c>
       <c r="AQ282">
-        <f>SIN(AQ277*AQ279*PI()/180)</f>
-        <v>0.93969262078590821</v>
+        <f t="shared" si="9"/>
+        <v>-0.93969262078590821</v>
       </c>
       <c r="AR282">
-        <f>SIN(AR277*AR279*PI()/180)</f>
+        <f t="shared" si="9"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="AS282">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AT282">
+        <f t="shared" si="9"/>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="AU282">
+        <f t="shared" si="9"/>
+        <v>-0.93969262078590854</v>
+      </c>
+      <c r="AV282">
+        <f t="shared" si="9"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="AW282">
+        <f t="shared" si="9"/>
+        <v>-0.76604444311897812</v>
+      </c>
+      <c r="AX282">
+        <f t="shared" ref="AX282:CC282" si="10">SIN(AX277*AX279*PI()/180)</f>
+        <v>-0.64278760968653958</v>
+      </c>
+      <c r="AY282">
+        <f t="shared" si="10"/>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="AZ282">
+        <f t="shared" si="10"/>
+        <v>-0.3420201433256686</v>
+      </c>
+      <c r="BA282">
+        <f t="shared" si="10"/>
+        <v>-0.17364817766693127</v>
+      </c>
+      <c r="BB282">
+        <f t="shared" si="10"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="BC282">
+        <f t="shared" si="10"/>
+        <v>0.17364817766692991</v>
+      </c>
+      <c r="BD282">
+        <f t="shared" si="10"/>
+        <v>0.34202014332566893</v>
+      </c>
+      <c r="BE282">
+        <f t="shared" si="10"/>
+        <v>0.49999999999999928</v>
+      </c>
+      <c r="BF282">
+        <f t="shared" si="10"/>
+        <v>0.64278760968653914</v>
+      </c>
+      <c r="BG282">
+        <f t="shared" si="10"/>
+        <v>0.76604444311897779</v>
+      </c>
+      <c r="BH282">
+        <f t="shared" si="10"/>
+        <v>0.86602540378443882</v>
+      </c>
+      <c r="BI282">
+        <f t="shared" si="10"/>
+        <v>0.93969262078590809</v>
+      </c>
+      <c r="BJ282">
+        <f t="shared" si="10"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="AS282">
-        <f>SIN(AS277*AS279*PI()/180)</f>
-        <v>1</v>
-      </c>
-      <c r="AT282">
-        <f>SIN(AT277*AT279*PI()/180)</f>
+      <c r="BK282">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL282">
+        <f t="shared" si="10"/>
         <v>0.98480775301220813</v>
       </c>
-      <c r="AU282">
-        <f>SIN(AU277*AU279*PI()/180)</f>
-        <v>0.93969262078590854</v>
-      </c>
-      <c r="AV282">
-        <f>SIN(AV277*AV279*PI()/180)</f>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="AW282">
-        <f>SIN(AW277*AW279*PI()/180)</f>
-        <v>0.76604444311897812</v>
-      </c>
-      <c r="AX282">
-        <f>SIN(AX277*AX279*PI()/180)</f>
-        <v>0.64278760968653958</v>
-      </c>
-      <c r="AY282">
-        <f>SIN(AY277*AY279*PI()/180)</f>
-        <v>0.50000000000000044</v>
-      </c>
-      <c r="AZ282">
-        <f>SIN(AZ277*AZ279*PI()/180)</f>
-        <v>0.3420201433256686</v>
-      </c>
-      <c r="BA282">
-        <f>SIN(BA277*BA279*PI()/180)</f>
-        <v>0.17364817766693127</v>
-      </c>
-      <c r="BB282">
-        <f>SIN(BB277*BB279*PI()/180)</f>
-        <v>2.45029690981724E-16</v>
-      </c>
-      <c r="BC282">
-        <f>SIN(BC277*BC279*PI()/180)</f>
-        <v>-0.17364817766692991</v>
-      </c>
-      <c r="BD282">
-        <f>SIN(BD277*BD279*PI()/180)</f>
-        <v>-0.34202014332566893</v>
-      </c>
-      <c r="BE282">
-        <f>SIN(BE277*BE279*PI()/180)</f>
-        <v>-0.49999999999999928</v>
-      </c>
-      <c r="BF282">
-        <f>SIN(BF277*BF279*PI()/180)</f>
-        <v>-0.64278760968653914</v>
-      </c>
-      <c r="BG282">
-        <f>SIN(BG277*BG279*PI()/180)</f>
-        <v>-0.76604444311897779</v>
-      </c>
-      <c r="BH282">
-        <f>SIN(BH277*BH279*PI()/180)</f>
-        <v>-0.86602540378443882</v>
-      </c>
-      <c r="BI282">
-        <f>SIN(BI277*BI279*PI()/180)</f>
-        <v>-0.93969262078590809</v>
-      </c>
-      <c r="BJ282">
-        <f>SIN(BJ277*BJ279*PI()/180)</f>
+      <c r="BM282">
+        <f t="shared" si="10"/>
+        <v>0.93969262078590865</v>
+      </c>
+      <c r="BN282">
+        <f t="shared" si="10"/>
+        <v>0.86602540378443915</v>
+      </c>
+      <c r="BO282">
+        <f t="shared" si="10"/>
+        <v>0.76604444311897879</v>
+      </c>
+      <c r="BP282">
+        <f t="shared" si="10"/>
+        <v>0.64278760968654036</v>
+      </c>
+      <c r="BQ282">
+        <f t="shared" si="10"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="BR282">
+        <f t="shared" si="10"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="BS282">
+        <f t="shared" si="10"/>
+        <v>0.1736481776669305</v>
+      </c>
+      <c r="BT282">
+        <f t="shared" si="10"/>
+        <v>3.67544536472586E-16</v>
+      </c>
+      <c r="BU282">
+        <f t="shared" si="10"/>
+        <v>-0.17364817766692978</v>
+      </c>
+      <c r="BV282">
+        <f t="shared" si="10"/>
+        <v>-0.34202014332566799</v>
+      </c>
+      <c r="BW282">
+        <f t="shared" si="10"/>
+        <v>-0.50000000000000067</v>
+      </c>
+      <c r="BX282">
+        <f t="shared" si="10"/>
+        <v>-0.64278760968653836</v>
+      </c>
+      <c r="BY282">
+        <f t="shared" si="10"/>
+        <v>-0.76604444311897824</v>
+      </c>
+      <c r="BZ282">
+        <f t="shared" si="10"/>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="CA282">
+        <f t="shared" si="10"/>
+        <v>-0.93969262078590843</v>
+      </c>
+      <c r="CB282">
+        <f t="shared" si="10"/>
         <v>-0.98480775301220802</v>
       </c>
-      <c r="BK282">
-        <f>SIN(BK277*BK279*PI()/180)</f>
+      <c r="CC282">
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="BL282">
-        <f>SIN(BL277*BL279*PI()/180)</f>
+      <c r="CD282">
+        <f t="shared" ref="CD282:CL282" si="11">SIN(CD277*CD279*PI()/180)</f>
         <v>-0.98480775301220813</v>
       </c>
-      <c r="BM282">
-        <f>SIN(BM277*BM279*PI()/180)</f>
+      <c r="CE282">
+        <f t="shared" si="11"/>
         <v>-0.93969262078590865</v>
       </c>
-      <c r="BN282">
-        <f>SIN(BN277*BN279*PI()/180)</f>
+      <c r="CF282">
+        <f t="shared" si="11"/>
         <v>-0.86602540378443915</v>
       </c>
-      <c r="BO282">
-        <f>SIN(BO277*BO279*PI()/180)</f>
+      <c r="CG282">
+        <f t="shared" si="11"/>
         <v>-0.76604444311897879</v>
       </c>
-      <c r="BP282">
-        <f>SIN(BP277*BP279*PI()/180)</f>
-        <v>-0.64278760968654036</v>
-      </c>
-      <c r="BQ282">
-        <f>SIN(BQ277*BQ279*PI()/180)</f>
-        <v>-0.49999999999999978</v>
-      </c>
-      <c r="BR282">
-        <f>SIN(BR277*BR279*PI()/180)</f>
-        <v>-0.34202014332566871</v>
-      </c>
-      <c r="BS282">
-        <f>SIN(BS277*BS279*PI()/180)</f>
-        <v>-0.1736481776669305</v>
-      </c>
-      <c r="BT282">
-        <f>SIN(BT277*BT279*PI()/180)</f>
-        <v>3.67544536472586E-16</v>
-      </c>
-      <c r="BU282">
-        <f>SIN(BU277*BU279*PI()/180)</f>
-        <v>-0.17364817766692978</v>
-      </c>
-      <c r="BV282">
-        <f>SIN(BV277*BV279*PI()/180)</f>
-        <v>-0.34202014332566799</v>
-      </c>
-      <c r="BW282">
-        <f>SIN(BW277*BW279*PI()/180)</f>
-        <v>-0.50000000000000067</v>
-      </c>
-      <c r="BX282">
-        <f>SIN(BX277*BX279*PI()/180)</f>
-        <v>-0.64278760968653836</v>
-      </c>
-      <c r="BY282">
-        <f>SIN(BY277*BY279*PI()/180)</f>
-        <v>-0.76604444311897824</v>
-      </c>
-      <c r="BZ282">
-        <f>SIN(BZ277*BZ279*PI()/180)</f>
-        <v>-0.86602540378443871</v>
-      </c>
-      <c r="CA282">
-        <f>SIN(CA277*CA279*PI()/180)</f>
-        <v>-0.93969262078590843</v>
-      </c>
-      <c r="CB282">
-        <f>SIN(CB277*CB279*PI()/180)</f>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="CC282">
-        <f>SIN(CC277*CC279*PI()/180)</f>
-        <v>-1</v>
-      </c>
-      <c r="CD282">
-        <f>SIN(CD277*CD279*PI()/180)</f>
-        <v>-0.98480775301220813</v>
-      </c>
-      <c r="CE282">
-        <f>SIN(CE277*CE279*PI()/180)</f>
-        <v>-0.93969262078590865</v>
-      </c>
-      <c r="CF282">
-        <f>SIN(CF277*CF279*PI()/180)</f>
-        <v>-0.86602540378443915</v>
-      </c>
-      <c r="CG282">
-        <f>SIN(CG277*CG279*PI()/180)</f>
-        <v>-0.76604444311897879</v>
-      </c>
       <c r="CH282">
-        <f>SIN(CH277*CH279*PI()/180)</f>
+        <f t="shared" si="11"/>
         <v>-0.64278760968653903</v>
       </c>
       <c r="CI282">
-        <f>SIN(CI277*CI279*PI()/180)</f>
+        <f t="shared" si="11"/>
         <v>-0.49999999999999989</v>
       </c>
       <c r="CJ282">
-        <f>SIN(CJ277*CJ279*PI()/180)</f>
+        <f t="shared" si="11"/>
         <v>-0.34202014332567049</v>
       </c>
       <c r="CK282">
-        <f>SIN(CK277*CK279*PI()/180)</f>
+        <f t="shared" si="11"/>
         <v>-0.17364817766693064</v>
       </c>
       <c r="CL282">
-        <f>SIN(CL277*CL279*PI()/180)</f>
+        <f t="shared" si="11"/>
         <v>-4.90059381963448E-16</v>
       </c>
     </row>
@@ -8479,226 +8493,240 @@
         <v>200</v>
       </c>
       <c r="H295" t="s">
+        <v>209</v>
+      </c>
+      <c r="X295" t="s">
         <v>210</v>
-      </c>
-      <c r="X295" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B297" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C297" s="28"/>
+      <c r="D297" s="28"/>
+      <c r="E297" s="28"/>
+      <c r="F297" s="28"/>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B298" s="27"/>
+      <c r="C298" s="27" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B297" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="C297" s="32"/>
-      <c r="D297" s="32"/>
-      <c r="E297" s="32"/>
-      <c r="F297" s="32"/>
-    </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B298" s="31"/>
-      <c r="C298" s="31" t="s">
+      <c r="D298" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D298" s="31" t="s">
+      <c r="E298" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="F298" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B299" s="27">
+        <v>0</v>
+      </c>
+      <c r="C299" s="27">
+        <v>0</v>
+      </c>
+      <c r="D299" s="27">
+        <v>30</v>
+      </c>
+      <c r="E299" s="27">
+        <v>0</v>
+      </c>
+      <c r="F299" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B300" s="27">
+        <v>1</v>
+      </c>
+      <c r="C300" s="27">
+        <v>-90</v>
+      </c>
+      <c r="D300" s="27">
+        <v>0</v>
+      </c>
+      <c r="E300" s="27">
+        <v>30</v>
+      </c>
+      <c r="F300" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E298" s="31" t="s">
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B301" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C301" s="27">
+        <v>-90</v>
+      </c>
+      <c r="D301" s="27">
+        <v>90</v>
+      </c>
+      <c r="E301" s="27">
+        <v>0</v>
+      </c>
+      <c r="F301" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F298" s="31" t="s">
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B302" s="27">
+        <v>3</v>
+      </c>
+      <c r="C302" s="27">
+        <v>-90</v>
+      </c>
+      <c r="D302" s="27">
+        <v>180</v>
+      </c>
+      <c r="E302" s="27">
+        <v>0</v>
+      </c>
+      <c r="F302" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B303" s="27">
+        <v>4</v>
+      </c>
+      <c r="C303" s="27">
+        <v>-90</v>
+      </c>
+      <c r="D303" s="27">
+        <v>210</v>
+      </c>
+      <c r="E303" s="27">
+        <v>0</v>
+      </c>
+      <c r="F303" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B304" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C304" s="27">
+        <v>90</v>
+      </c>
+      <c r="D304" s="27">
+        <v>90</v>
+      </c>
+      <c r="E304" s="27">
+        <v>0</v>
+      </c>
+      <c r="F304" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B305" s="27">
+        <v>6</v>
+      </c>
+      <c r="C305" s="27">
+        <v>60</v>
+      </c>
+      <c r="D305" s="27">
+        <v>180</v>
+      </c>
+      <c r="E305" s="27">
+        <v>-45</v>
+      </c>
+      <c r="F305" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B307" s="29"/>
+      <c r="C307" s="29"/>
+      <c r="D307" s="29"/>
+      <c r="E307" s="29"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="29"/>
+      <c r="B308" s="29"/>
+      <c r="C308" s="29"/>
+      <c r="D308" s="29"/>
+      <c r="E308" s="29"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="29"/>
+      <c r="B309" s="29"/>
+      <c r="C309" s="29"/>
+      <c r="D309" s="29"/>
+      <c r="E309" s="29"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="29"/>
+      <c r="B310" s="29"/>
+      <c r="C310" s="29"/>
+      <c r="D310" s="29"/>
+      <c r="E310" s="29"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="29"/>
+      <c r="B311" s="29"/>
+      <c r="C311" s="29"/>
+      <c r="D311" s="29"/>
+      <c r="E311" s="29"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="29"/>
+      <c r="B312" s="29"/>
+      <c r="C312" s="29"/>
+      <c r="D312" s="29"/>
+      <c r="E312" s="29"/>
+    </row>
+    <row r="313" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="29"/>
+      <c r="B313" s="29"/>
+      <c r="C313" s="29"/>
+      <c r="D313" s="29"/>
+      <c r="E313" s="29"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="29" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B299" s="31">
-        <v>0</v>
-      </c>
-      <c r="C299" s="31"/>
-      <c r="D299" s="31">
-        <v>30</v>
-      </c>
-      <c r="E299" s="31"/>
-      <c r="F299" s="31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B300" s="31">
-        <v>1</v>
-      </c>
-      <c r="C300" s="31">
-        <v>-90</v>
-      </c>
-      <c r="D300" s="31"/>
-      <c r="E300" s="31">
-        <v>30</v>
-      </c>
-      <c r="F300" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B301" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C301" s="31">
-        <v>-90</v>
-      </c>
-      <c r="D301" s="31">
-        <v>90</v>
-      </c>
-      <c r="E301" s="31"/>
-      <c r="F301" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B302" s="31">
-        <v>3</v>
-      </c>
-      <c r="C302" s="31">
-        <v>-90</v>
-      </c>
-      <c r="D302" s="31">
-        <v>180</v>
-      </c>
-      <c r="E302" s="31"/>
-      <c r="F302" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B303" s="31">
-        <v>4</v>
-      </c>
-      <c r="C303" s="31">
-        <v>-90</v>
-      </c>
-      <c r="D303" s="31">
-        <v>210</v>
-      </c>
-      <c r="E303" s="31"/>
-      <c r="F303" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B304" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C304" s="31">
-        <v>90</v>
-      </c>
-      <c r="D304" s="31">
-        <v>90</v>
-      </c>
-      <c r="E304" s="31"/>
-      <c r="F304" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B305" s="31">
-        <v>6</v>
-      </c>
-      <c r="C305" s="31">
-        <v>60</v>
-      </c>
-      <c r="D305" s="31">
-        <v>180</v>
-      </c>
-      <c r="E305" s="31">
-        <v>-45</v>
-      </c>
-      <c r="F305" s="31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="B307" s="25"/>
-      <c r="C307" s="25"/>
-      <c r="D307" s="25"/>
-      <c r="E307" s="25"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="25"/>
-      <c r="B308" s="25"/>
-      <c r="C308" s="25"/>
-      <c r="D308" s="25"/>
-      <c r="E308" s="25"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="25"/>
-      <c r="B309" s="25"/>
-      <c r="C309" s="25"/>
-      <c r="D309" s="25"/>
-      <c r="E309" s="25"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="25"/>
-      <c r="B310" s="25"/>
-      <c r="C310" s="25"/>
-      <c r="D310" s="25"/>
-      <c r="E310" s="25"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="25"/>
-      <c r="B311" s="25"/>
-      <c r="C311" s="25"/>
-      <c r="D311" s="25"/>
-      <c r="E311" s="25"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="25"/>
-      <c r="B312" s="25"/>
-      <c r="C312" s="25"/>
-      <c r="D312" s="25"/>
-      <c r="E312" s="25"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="25"/>
-      <c r="B313" s="25"/>
-      <c r="C313" s="25"/>
-      <c r="D313" s="25"/>
-      <c r="E313" s="25"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B314" s="25"/>
-      <c r="C314" s="25"/>
-      <c r="D314" s="25"/>
-      <c r="E314" s="25"/>
+      <c r="B314" s="29"/>
+      <c r="C314" s="29"/>
+      <c r="D314" s="29"/>
+      <c r="E314" s="29"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="25"/>
-      <c r="B315" s="25"/>
-      <c r="C315" s="25"/>
-      <c r="D315" s="25"/>
-      <c r="E315" s="25"/>
+      <c r="A315" s="29"/>
+      <c r="B315" s="29"/>
+      <c r="C315" s="29"/>
+      <c r="D315" s="29"/>
+      <c r="E315" s="29"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8706,8 +8734,33 @@
         <v>139</v>
       </c>
     </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M48:O51"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="C49:E53"/>
+    <mergeCell ref="A73:E73"/>
     <mergeCell ref="B297:F297"/>
     <mergeCell ref="A307:E313"/>
     <mergeCell ref="A314:E315"/>
@@ -8718,11 +8771,6 @@
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A201:E201"/>
     <mergeCell ref="A246:E246"/>
-    <mergeCell ref="M48:O51"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="C49:E53"/>
-    <mergeCell ref="A73:E73"/>
     <mergeCell ref="A104:E104"/>
     <mergeCell ref="A105:E105"/>
     <mergeCell ref="A106:E106"/>

--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF28DE8-EF4D-4DF2-B69D-06C73C9EE3BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6A1DFE-4222-48AE-B961-8BE6A9C08F4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1135,9 +1135,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>8 shape figure described in user's front view with the right hand</t>
-  </si>
-  <si>
     <t>9. Attitude angles</t>
   </si>
   <si>
@@ -1237,6 +1234,9 @@
   </si>
   <si>
     <t>Tip 3: A mobile device can have a position described with attitude angles, and can use a rotating device like a gyroscope or a gyrocompass to point the north direction, itself in a position described by attitude angles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 8 shape figure describes a sequence of locations of a user right hand in the user's front view, handling a mobile phone. </t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1452,9 +1452,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5648,8 +5645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CM327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A328" sqref="A328"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277:F277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5733,7 +5730,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5829,13 +5826,13 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -5975,13 +5972,13 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
       <c r="J39" t="s">
         <v>36</v>
       </c>
@@ -5997,26 +5994,26 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="N42" s="32" t="s">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="N42" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="32"/>
+      <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6029,56 +6026,56 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M48" s="31" t="s">
+      <c r="M48" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
     </row>
     <row r="49" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
@@ -6106,13 +6103,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -6120,13 +6117,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -6523,31 +6520,31 @@
       </c>
     </row>
     <row r="104" spans="1:35" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
     </row>
     <row r="105" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
     </row>
     <row r="106" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G113" s="2" t="s">
@@ -6577,7 +6574,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>98</v>
@@ -6600,12 +6597,12 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -7062,13 +7059,13 @@
       </c>
     </row>
     <row r="221" spans="1:16" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="31" t="s">
+      <c r="A221" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B221" s="31"/>
-      <c r="C221" s="31"/>
-      <c r="D221" s="31"/>
-      <c r="E221" s="31"/>
+      <c r="B221" s="30"/>
+      <c r="C221" s="30"/>
+      <c r="D221" s="30"/>
+      <c r="E221" s="30"/>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N222" t="s">
@@ -7110,9 +7107,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="277" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:91" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="30" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B277" s="30"/>
       <c r="C277" s="30"/>
@@ -7121,7 +7118,7 @@
       <c r="F277" s="30"/>
       <c r="G277" s="5"/>
       <c r="H277" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I277" s="26"/>
       <c r="J277" s="26"/>
@@ -7352,7 +7349,7 @@
     </row>
     <row r="278" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H278" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
@@ -7591,7 +7588,7 @@
       <c r="O279" s="4"/>
       <c r="P279" s="4"/>
       <c r="Q279" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R279">
         <f t="shared" ref="R279:AW279" si="3">$CM$279*R278</f>
@@ -7891,7 +7888,7 @@
     </row>
     <row r="281" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H281" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R281">
         <f t="shared" ref="R281:AW281" si="6">COS(R277*PI()/180)</f>
@@ -8188,7 +8185,7 @@
     </row>
     <row r="282" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H282" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R282">
         <f t="shared" ref="R282:AW282" si="9">SIN(R277*R279*PI()/180)</f>
@@ -8485,28 +8482,28 @@
     </row>
     <row r="294" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H295" t="s">
+        <v>208</v>
+      </c>
+      <c r="X295" t="s">
         <v>209</v>
-      </c>
-      <c r="X295" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B297" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C297" s="28"/>
       <c r="D297" s="28"/>
@@ -8516,16 +8513,16 @@
     <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B298" s="27"/>
       <c r="C298" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D298" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D298" s="27" t="s">
-        <v>202</v>
-      </c>
       <c r="E298" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F298" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="299" spans="1:24" x14ac:dyDescent="0.25">
@@ -8559,12 +8556,12 @@
         <v>30</v>
       </c>
       <c r="F300" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="301" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B301" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C301" s="27">
         <v>-90</v>
@@ -8576,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="F301" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="302" spans="1:24" x14ac:dyDescent="0.25">
@@ -8593,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="F302" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="303" spans="1:24" x14ac:dyDescent="0.25">
@@ -8610,12 +8607,12 @@
         <v>0</v>
       </c>
       <c r="F303" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="304" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B304" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C304" s="27">
         <v>90</v>
@@ -8627,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="F304" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -8644,12 +8641,12 @@
         <v>-45</v>
       </c>
       <c r="F305" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B307" s="29"/>
       <c r="C307" s="29"/>
@@ -8700,7 +8697,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B314" s="29"/>
       <c r="C314" s="29"/>
@@ -8716,17 +8713,17 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8736,22 +8733,22 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6A1DFE-4222-48AE-B961-8BE6A9C08F4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802DA910-22DF-4072-9D58-311410EE7E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="249">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -1233,17 +1233,131 @@
     <t>Tip 2: The rotating device can have a state described with attitude angles</t>
   </si>
   <si>
-    <t>Tip 3: A mobile device can have a position described with attitude angles, and can use a rotating device like a gyroscope or a gyrocompass to point the north direction, itself in a position described by attitude angles</t>
-  </si>
-  <si>
     <t xml:space="preserve">The 8 shape figure describes a sequence of locations of a user right hand in the user's front view, handling a mobile phone. </t>
+  </si>
+  <si>
+    <t>Tip 3: The rotating device submitted to an external torque becomes subject to the torque caused by the gravity.</t>
+  </si>
+  <si>
+    <t>Tip 4: A mobile device can have a position described with attitude angles, and can use a rotating device like a gyroscope or a gyrocompass to point the north direction, itself in a position described by attitude angles</t>
+  </si>
+  <si>
+    <t>11. Gyroscope on Android</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/develop/sensors-and-location/sensors/sensors_motion#sensors-motion-gyro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This ref, cell above, gives the information how to use the sensors on a smartphone mobile (android, see </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://en.wikipedia.org/wiki/Mobile_operating_system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for more mobiles Operating Systems)</t>
+    </r>
+  </si>
+  <si>
+    <t>For iOS, the sensorkit is available to developers. See https://developer.apple.com/documentation/CoreMotion for gyro sensors.</t>
+  </si>
+  <si>
+    <t>TYPE_GYROSCOPE</t>
+  </si>
+  <si>
+    <t>SensorEvent.values[0]</t>
+  </si>
+  <si>
+    <t>Rate of rotation around the x axis.</t>
+  </si>
+  <si>
+    <t>SensorEvent.values[1]</t>
+  </si>
+  <si>
+    <t>Rate of rotation around the y axis.</t>
+  </si>
+  <si>
+    <t>SensorEvent.values[2]</t>
+  </si>
+  <si>
+    <t>Rate of rotation around the z axis.</t>
+  </si>
+  <si>
+    <t>TYPE_GYROSCOPE_UNCALIBRATED</t>
+  </si>
+  <si>
+    <t>Rate of rotation (without drift compensation) around the x axis.</t>
+  </si>
+  <si>
+    <t>Rate of rotation (without drift compensation) around the y axis.</t>
+  </si>
+  <si>
+    <t>Rate of rotation (without drift compensation) around the z axis.</t>
+  </si>
+  <si>
+    <t>SensorEvent.values[3]</t>
+  </si>
+  <si>
+    <t>Estimated drift around the x axis.</t>
+  </si>
+  <si>
+    <t>SensorEvent.values[4]</t>
+  </si>
+  <si>
+    <t>Estimated drift around the y axis.</t>
+  </si>
+  <si>
+    <t>SensorEvent.values[5]</t>
+  </si>
+  <si>
+    <t>Estimated drift around the z axis.</t>
+  </si>
+  <si>
+    <t>The sensors data are provided by using the following parameters:</t>
+  </si>
+  <si>
+    <t>Example (android):</t>
+  </si>
+  <si>
+    <r>
+      <t>Code sample in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://en.wikipedia.org/wiki/Kotlin_(programming_language)</t>
+    </r>
+  </si>
+  <si>
+    <t>Code sample java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1424,14 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5377,6 +5499,1158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>30254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB09A56-05E8-4621-9311-269775BD5DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3672167" y="75782019"/>
+          <a:ext cx="10570511" cy="8463804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>// Create a constant to convert nanoseconds to seconds.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>private val NS2S = 1.0f / 1000000000.0f</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>private val deltaRotationVector = FloatArray(4) { 0f }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>private var timestamp: Float = 0f</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>override fun onSensorChanged(event: SensorEvent?) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // This timestep's delta rotation to be multiplied by the current rotation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // after computing it from the gyro sample data.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    if (timestamp != 0f &amp;&amp; event != null) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        val dT = (event.timestamp - timestamp) * NS2S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // Axis of the rotation sample, not normalized yet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        var axisX: Float = event.values[0]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        var axisY: Float = event.values[1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        var axisZ: Float = event.values[2]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // Calculate the angular speed of the sample</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        val omegaMagnitude: Float = sqrt(axisX * axisX + axisY * axisY + axisZ * axisZ)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // Normalize the rotation vector if it's big enough to get the axis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // (that is, EPSILON should represent your maximum allowable margin of error)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        if (omegaMagnitude &gt; EPSILON) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>            axisX /= omegaMagnitude</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>            axisY /= omegaMagnitude</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>            axisZ /= omegaMagnitude</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // Integrate around this axis with the angular speed by the timestep</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // in order to get a delta rotation from this sample over the timestep</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // We will convert this axis-angle representation of the delta rotation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        // into a quaternion before turning it into the rotation matrix.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        val thetaOverTwo: Float = omegaMagnitude * dT / 2.0f</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        val sinThetaOverTwo: Float = sin(thetaOverTwo)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        val cosThetaOverTwo: Float = cos(thetaOverTwo)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        deltaRotationVector[0] = sinThetaOverTwo * axisX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        deltaRotationVector[1] = sinThetaOverTwo * axisY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        deltaRotationVector[2] = sinThetaOverTwo * axisZ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        deltaRotationVector[3] = cosThetaOverTwo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    timestamp = event?.timestamp?.toFloat() ?: 0f</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    val deltaRotationMatrix = FloatArray(9) { 0f }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    SensorManager.getRotationMatrixFromVector(deltaRotationMatrix, deltaRotationVector);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // User code should concatenate the delta rotation we computed with the current rotation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // in order to get the updated rotation.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // rotationCurrent = rotationCurrent * deltaRotationMatrix;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10735235" cy="7285649"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE057A4C-B667-412D-92A6-724FE47B505E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14735735" y="75796589"/>
+          <a:ext cx="10735235" cy="7285649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>// Create a constant to convert nanoseconds to seconds.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>private static final float NS2S = 1.0f / 1000000000.0f;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>private final float[] deltaRotationVector = new float[4]();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>private float timestamp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>public void onSensorChanged(SensorEvent event) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // This timestep's delta rotation to be multiplied by the current rotation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // after computing it from the gyro sample data.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    if (timestamp != 0) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      final float dT = (event.timestamp - timestamp) * NS2S;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      // Axis of the rotation sample, not normalized yet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      float axisX = event.values[0];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      float axisY = event.values[1];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      float axisZ = event.values[2];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      // Calculate the angular speed of the sample</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      float omegaMagnitude = sqrt(axisX*axisX + axisY*axisY + axisZ*axisZ);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      // Normalize the rotation vector if it's big enough to get the axis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      // (that is, EPSILON should represent your maximum allowable margin of error)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      if (omegaMagnitude &gt; EPSILON) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        axisX /= omegaMagnitude;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        axisY /= omegaMagnitude;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        axisZ /= omegaMagnitude;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      // Integrate around this axis with the angular speed by the timestep</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      // in order to get a delta rotation from this sample over the timestep</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      // We will convert this axis-angle representation of the delta rotation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      // into a quaternion before turning it into the rotation matrix.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      float thetaOverTwo = omegaMagnitude * dT / 2.0f;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      float sinThetaOverTwo = sin(thetaOverTwo);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      float cosThetaOverTwo = cos(thetaOverTwo);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      deltaRotationVector[0] = sinThetaOverTwo * axisX;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      deltaRotationVector[1] = sinThetaOverTwo * axisY;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      deltaRotationVector[2] = sinThetaOverTwo * axisZ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      deltaRotationVector[3] = cosThetaOverTwo;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    timestamp = event.timestamp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    float[] deltaRotationMatrix = new float[9];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    SensorManager.getRotationMatrixFromVector(deltaRotationMatrix, deltaRotationVector);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // User code should concatenate the delta rotation we computed with the current rotation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // in order to get the updated rotation.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    // rotationCurrent = rotationCurrent * deltaRotationMatrix;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5643,10 +6917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM327"/>
+  <dimension ref="A1:CM349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277:F277"/>
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J339" sqref="J339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7109,7 +8383,7 @@
     </row>
     <row r="277" spans="1:91" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B277" s="30"/>
       <c r="C277" s="30"/>
@@ -8748,7 +10022,138 @@
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>228</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>229</v>
+      </c>
+      <c r="B338" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>231</v>
+      </c>
+      <c r="B339" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>233</v>
+      </c>
+      <c r="B340" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>235</v>
+      </c>
+      <c r="B341" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>229</v>
+      </c>
+      <c r="B342" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>231</v>
+      </c>
+      <c r="B343" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>233</v>
+      </c>
+      <c r="B344" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>239</v>
+      </c>
+      <c r="B345" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>241</v>
+      </c>
+      <c r="B346" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>243</v>
+      </c>
+      <c r="B347" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>247</v>
+      </c>
+      <c r="R349" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -8787,9 +10192,12 @@
     <hyperlink ref="AB194" display="https://www.google.com/search?q=derivation+of+precession+rate+with+no+torque&amp;sca_esv=b07fa04fa9278463&amp;rlz=1C1CHBD_enUS1144US1144&amp;ei=nrGCZ-2VDtmm5NoPjbe-iQk&amp;ved=0ahUKEwjt3PLVn-6KAxVZE1kFHY2bL5EQ4dUDCBA&amp;uact=5&amp;oq=derivation+of+precession+rate+with+no+torque" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A318" r:id="rId10" xr:uid="{FF6A8E42-AD7C-4572-835A-634D631FB580}"/>
     <hyperlink ref="A320" r:id="rId11" xr:uid="{859A322A-A625-405F-93AF-45EB1E183AE5}"/>
+    <hyperlink ref="B2" r:id="rId12" location=":~:text=The%20spin%20of%20the%20earth,and%20the%20associated%20E%C3%B6tv%C3%B6s%20effect" xr:uid="{B08A9CAC-872F-4E28-BC08-76B84D6BEDC1}"/>
+    <hyperlink ref="B3" r:id="rId13" location=":~:text=To%20do%20this%20we%20must,horizontal%2C%20and%20toward%20the%20meridian." xr:uid="{E078D3C4-F63A-48F6-B944-F1A7E34978D3}"/>
+    <hyperlink ref="A331" r:id="rId14" location="sensors-motion-gyro" xr:uid="{6FE07E0B-2E11-4CA7-B0D9-B001DF4C9CAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcpl\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802DA910-22DF-4072-9D58-311410EE7E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A630D58-C11C-4529-9602-AE7E36C2D534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="285">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -1352,12 +1352,123 @@
   <si>
     <t>Code sample java</t>
   </si>
+  <si>
+    <t>a. the rotation sample has components [event.values[0], event.values[1], event.values[2]]</t>
+  </si>
+  <si>
+    <t>or, perhaps, [SensorEvent.values[0], SensorEvent.values[1], SensorEvent.values[2]]</t>
+  </si>
+  <si>
+    <t>in rad/s</t>
+  </si>
+  <si>
+    <t>That makes sense with thetaOverTwo = omegaMagnitude * dT / 2.0 to compute a value of rotation angle theta/2 in rad or (deg), with omegaMagnitude in rad/s (hence, omegaMagnitude = sqrt(axisX * axisX + axisY * axisY + axisZ * axisZ) in rad/s)</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>event.values[1]</t>
+  </si>
+  <si>
+    <t>event.values[2]</t>
+  </si>
+  <si>
+    <t>event.values[0]</t>
+  </si>
+  <si>
+    <t>deltaRotationVector = FloatArray(4)</t>
+  </si>
+  <si>
+    <t>timestamp=0</t>
+  </si>
+  <si>
+    <t>omegaMagnitude: Float = sqrt(axisX * axisX + axisY * axisY + axisZ * axisZ)</t>
+  </si>
+  <si>
+    <t>NS2S: convection factor from nano seconds to seconds</t>
+  </si>
+  <si>
+    <t>NS2S=1e-9</t>
+  </si>
+  <si>
+    <t>b. timestamp or event.timestamp are in nano sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (event.timestamp - timestamp) * NS2S</t>
+  </si>
+  <si>
+    <t>dT calculation in sec =</t>
+  </si>
+  <si>
+    <t>axisX: Float = event.values[0]</t>
+  </si>
+  <si>
+    <t>axisY: Float = event.values[1]</t>
+  </si>
+  <si>
+    <t>axisZ: Float = event.values[2]</t>
+  </si>
+  <si>
+    <t>omegaMagnitude</t>
+  </si>
+  <si>
+    <t>axisX /= omegaMagnitude</t>
+  </si>
+  <si>
+    <t>axisY /= omegaMagnitude</t>
+  </si>
+  <si>
+    <t>axisZ /= omegaMagnitude</t>
+  </si>
+  <si>
+    <t>True if epsilon=1e-3 for instance</t>
+  </si>
+  <si>
+    <t>thetaOverTwo: Float = omegaMagnitude * dT / 2.0f</t>
+  </si>
+  <si>
+    <t>sinThetaOverTwo: Float = sin(thetaOverTwo)</t>
+  </si>
+  <si>
+    <t>cosThetaOverTwo: Float = cos(thetaOverTwo)</t>
+  </si>
+  <si>
+    <t>deltaRotationVector[0] = sinThetaOverTwo * axisX</t>
+  </si>
+  <si>
+    <t>deltaRotationVector[1] = sinThetaOverTwo * axisY</t>
+  </si>
+  <si>
+    <t>deltaRotationVector[2] = sinThetaOverTwo * axisZ</t>
+  </si>
+  <si>
+    <t>deltaRotationVector[3] = cosThetaOverTwo</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>Numerical application for the sample above</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,6 +1543,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1514,7 +1631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1569,17 +1686,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5509,8 +5634,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>393</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5525,8 +5650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3672167" y="75782019"/>
-          <a:ext cx="10570511" cy="8463804"/>
+          <a:off x="0" y="75782019"/>
+          <a:ext cx="13637560" cy="7444069"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6917,10 +7042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM349"/>
+  <dimension ref="A1:CM427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J339" sqref="J339"/>
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M407" sqref="M407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7100,13 +7225,13 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -7246,13 +7371,13 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="J39" t="s">
         <v>36</v>
       </c>
@@ -7268,26 +7393,26 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="N42" s="31" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="N42" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="31"/>
+      <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7300,56 +7425,56 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M48" s="30" t="s">
+      <c r="M48" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
     </row>
     <row r="49" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
@@ -7377,13 +7502,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -7391,13 +7516,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -7794,31 +7919,31 @@
       </c>
     </row>
     <row r="104" spans="1:35" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
     </row>
     <row r="105" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
     </row>
     <row r="106" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G113" s="2" t="s">
@@ -8295,13 +8420,13 @@
       </c>
     </row>
     <row r="201" spans="1:28" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="29" t="s">
+      <c r="A201" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
     </row>
     <row r="202" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="21"/>
@@ -8333,13 +8458,13 @@
       </c>
     </row>
     <row r="221" spans="1:16" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="30" t="s">
+      <c r="A221" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B221" s="30"/>
-      <c r="C221" s="30"/>
-      <c r="D221" s="30"/>
-      <c r="E221" s="30"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28"/>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N222" t="s">
@@ -8363,13 +8488,13 @@
       </c>
     </row>
     <row r="246" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="29" t="s">
+      <c r="A246" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B246" s="29"/>
-      <c r="C246" s="29"/>
-      <c r="D246" s="29"/>
-      <c r="E246" s="29"/>
+      <c r="B246" s="31"/>
+      <c r="C246" s="31"/>
+      <c r="D246" s="31"/>
+      <c r="E246" s="31"/>
     </row>
     <row r="275" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
@@ -8382,14 +8507,14 @@
       </c>
     </row>
     <row r="277" spans="1:91" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="30" t="s">
+      <c r="A277" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B277" s="30"/>
-      <c r="C277" s="30"/>
-      <c r="D277" s="30"/>
-      <c r="E277" s="30"/>
-      <c r="F277" s="30"/>
+      <c r="B277" s="28"/>
+      <c r="C277" s="28"/>
+      <c r="D277" s="28"/>
+      <c r="E277" s="28"/>
+      <c r="F277" s="28"/>
       <c r="G277" s="5"/>
       <c r="H277" s="26" t="s">
         <v>190</v>
@@ -9121,7 +9246,7 @@
         <v>2</v>
       </c>
       <c r="CD279">
-        <f t="shared" ref="CD279:DI279" si="5">$CM$279*CD278</f>
+        <f t="shared" ref="CD279:CL279" si="5">$CM$279*CD278</f>
         <v>2</v>
       </c>
       <c r="CE279">
@@ -9776,13 +9901,13 @@
       </c>
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B297" s="28" t="s">
+      <c r="B297" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C297" s="28"/>
-      <c r="D297" s="28"/>
-      <c r="E297" s="28"/>
-      <c r="F297" s="28"/>
+      <c r="C297" s="30"/>
+      <c r="D297" s="30"/>
+      <c r="E297" s="30"/>
+      <c r="F297" s="30"/>
     </row>
     <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B298" s="27"/>
@@ -9919,71 +10044,71 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="29" t="s">
+      <c r="A307" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="B307" s="29"/>
-      <c r="C307" s="29"/>
-      <c r="D307" s="29"/>
-      <c r="E307" s="29"/>
+      <c r="B307" s="31"/>
+      <c r="C307" s="31"/>
+      <c r="D307" s="31"/>
+      <c r="E307" s="31"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="29"/>
-      <c r="B308" s="29"/>
-      <c r="C308" s="29"/>
-      <c r="D308" s="29"/>
-      <c r="E308" s="29"/>
+      <c r="A308" s="31"/>
+      <c r="B308" s="31"/>
+      <c r="C308" s="31"/>
+      <c r="D308" s="31"/>
+      <c r="E308" s="31"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="29"/>
-      <c r="B309" s="29"/>
-      <c r="C309" s="29"/>
-      <c r="D309" s="29"/>
-      <c r="E309" s="29"/>
+      <c r="A309" s="31"/>
+      <c r="B309" s="31"/>
+      <c r="C309" s="31"/>
+      <c r="D309" s="31"/>
+      <c r="E309" s="31"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="29"/>
-      <c r="B310" s="29"/>
-      <c r="C310" s="29"/>
-      <c r="D310" s="29"/>
-      <c r="E310" s="29"/>
+      <c r="A310" s="31"/>
+      <c r="B310" s="31"/>
+      <c r="C310" s="31"/>
+      <c r="D310" s="31"/>
+      <c r="E310" s="31"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="29"/>
-      <c r="B311" s="29"/>
-      <c r="C311" s="29"/>
-      <c r="D311" s="29"/>
-      <c r="E311" s="29"/>
+      <c r="A311" s="31"/>
+      <c r="B311" s="31"/>
+      <c r="C311" s="31"/>
+      <c r="D311" s="31"/>
+      <c r="E311" s="31"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="29"/>
-      <c r="B312" s="29"/>
-      <c r="C312" s="29"/>
-      <c r="D312" s="29"/>
-      <c r="E312" s="29"/>
+      <c r="A312" s="31"/>
+      <c r="B312" s="31"/>
+      <c r="C312" s="31"/>
+      <c r="D312" s="31"/>
+      <c r="E312" s="31"/>
     </row>
     <row r="313" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="29"/>
-      <c r="B313" s="29"/>
-      <c r="C313" s="29"/>
-      <c r="D313" s="29"/>
-      <c r="E313" s="29"/>
+      <c r="A313" s="31"/>
+      <c r="B313" s="31"/>
+      <c r="C313" s="31"/>
+      <c r="D313" s="31"/>
+      <c r="E313" s="31"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="29" t="s">
+      <c r="A314" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="B314" s="29"/>
-      <c r="C314" s="29"/>
-      <c r="D314" s="29"/>
-      <c r="E314" s="29"/>
+      <c r="B314" s="31"/>
+      <c r="C314" s="31"/>
+      <c r="D314" s="31"/>
+      <c r="E314" s="31"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="29"/>
-      <c r="B315" s="29"/>
-      <c r="C315" s="29"/>
-      <c r="D315" s="29"/>
-      <c r="E315" s="29"/>
+      <c r="A315" s="31"/>
+      <c r="B315" s="31"/>
+      <c r="C315" s="31"/>
+      <c r="D315" s="31"/>
+      <c r="E315" s="31"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
@@ -10156,13 +10281,350 @@
         <v>248</v>
       </c>
     </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="35"/>
+      <c r="B390" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="35"/>
+      <c r="B391" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="35"/>
+      <c r="B392" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="35"/>
+      <c r="B393" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="35"/>
+      <c r="B394" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="35"/>
+      <c r="B395" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="35"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="35"/>
+      <c r="B397" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="35"/>
+      <c r="B398" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C398" s="32"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="35"/>
+      <c r="B399" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C399" s="32"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="35"/>
+      <c r="B400" s="32"/>
+      <c r="C400" s="32"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="35"/>
+      <c r="B401" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C401" s="32"/>
+      <c r="D401" t="s">
+        <v>8</v>
+      </c>
+      <c r="E401">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="35"/>
+      <c r="B402" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C402" s="32"/>
+      <c r="D402" t="s">
+        <v>8</v>
+      </c>
+      <c r="E402">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="35"/>
+      <c r="B403" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C403" s="32"/>
+      <c r="D403" t="s">
+        <v>8</v>
+      </c>
+      <c r="E403">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="35"/>
+      <c r="B404" s="32"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="35"/>
+      <c r="B405" s="32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="35"/>
+      <c r="B406" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="35"/>
+      <c r="B407" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E407" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F407" s="32"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="35"/>
+      <c r="B408" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E408" s="32"/>
+      <c r="F408" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G408">
+        <f>(9000000-8000000)*0.000000001</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="35"/>
+      <c r="E409" s="32"/>
+      <c r="F409" s="32"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="35"/>
+      <c r="B410" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E410" s="32"/>
+      <c r="F410" t="s">
+        <v>8</v>
+      </c>
+      <c r="G410">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="35"/>
+      <c r="B411" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E411" s="32"/>
+      <c r="F411" t="s">
+        <v>8</v>
+      </c>
+      <c r="G411">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="35"/>
+      <c r="B412" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E412" s="32"/>
+      <c r="F412" t="s">
+        <v>8</v>
+      </c>
+      <c r="G412">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="35"/>
+      <c r="E413" s="32"/>
+      <c r="F413" s="32"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="35"/>
+      <c r="B414" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="35"/>
+      <c r="B415" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F415" t="s">
+        <v>8</v>
+      </c>
+      <c r="G415">
+        <f>SQRT(G410*G410+G411*G411+G412*G412)</f>
+        <v>22.366269246345041</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="35"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="35"/>
+      <c r="B417" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F417">
+        <f>G410/$G$415</f>
+        <v>0.44710183400989589</v>
+      </c>
+      <c r="H417" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="35"/>
+      <c r="B418" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F418">
+        <f t="shared" ref="F418:F419" si="12">G411/$G$415</f>
+        <v>0.89420366801979179</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="35"/>
+      <c r="B419" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F419">
+        <f t="shared" si="12"/>
+        <v>2.2355091700494795E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="35"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="35"/>
+      <c r="B421" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J421" t="s">
+        <v>280</v>
+      </c>
+      <c r="K421">
+        <f>G415*G408/2</f>
+        <v>1.1183134623172521E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="35"/>
+      <c r="B422" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J422" t="s">
+        <v>282</v>
+      </c>
+      <c r="K422" s="34">
+        <f>SIN(K421)</f>
+        <v>1.1182901526167809E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="35"/>
+      <c r="B423" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J423" t="s">
+        <v>283</v>
+      </c>
+      <c r="K423">
+        <f>COS(K421)</f>
+        <v>0.99993746940169015</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="35"/>
+      <c r="B424" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J424" t="s">
+        <v>8</v>
+      </c>
+      <c r="K424">
+        <f>K422*F417</f>
+        <v>4.9998957819016917E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="35"/>
+      <c r="B425" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J425" t="s">
+        <v>8</v>
+      </c>
+      <c r="K425">
+        <f>K422*F418</f>
+        <v>9.9997915638033834E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="35"/>
+      <c r="B426" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J426" t="s">
+        <v>8</v>
+      </c>
+      <c r="K426">
+        <f>K422*F419</f>
+        <v>2.4999478909508454E-4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="35"/>
+      <c r="B427" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J427" t="s">
+        <v>283</v>
+      </c>
+      <c r="K427">
+        <f>K423</f>
+        <v>0.99993746940169015</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="M48:O51"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="C49:E53"/>
-    <mergeCell ref="A73:E73"/>
+  <mergeCells count="21">
+    <mergeCell ref="A390:A427"/>
     <mergeCell ref="B297:F297"/>
     <mergeCell ref="A307:E313"/>
     <mergeCell ref="A314:E315"/>
@@ -10178,6 +10640,11 @@
     <mergeCell ref="A106:E106"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A221:E221"/>
+    <mergeCell ref="M48:O51"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="C49:E53"/>
+    <mergeCell ref="A73:E73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" location=":~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal." xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/info-plotting/gyro/gyro-activities.xlsx
+++ b/info-plotting/gyro/gyro-activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A630D58-C11C-4529-9602-AE7E36C2D534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15708B9-DF38-4A1D-8F42-B0996A40605C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="286">
   <si>
     <t>https://courses.lumenlearning.com/suny-physics/chapter/10-7-gyroscopic-effects-vector-aspects-of-angular-momentum/#:~:text=These%20forces%20create%20a%20horizontal,%CE%94L%20that%20is%20also%20horizontal.</t>
   </si>
@@ -1459,6 +1459,9 @@
   </si>
   <si>
     <t>Numerical application for the sample above</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -7044,8 +7047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CM427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M407" sqref="M407"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K427" sqref="K427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10576,7 +10579,7 @@
         <v>276</v>
       </c>
       <c r="J424" t="s">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="K424">
         <f>K422*F417</f>
@@ -10589,7 +10592,7 @@
         <v>277</v>
       </c>
       <c r="J425" t="s">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="K425">
         <f>K422*F418</f>
@@ -10602,7 +10605,7 @@
         <v>278</v>
       </c>
       <c r="J426" t="s">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="K426">
         <f>K422*F419</f>
